--- a/data/Dataset S1.xlsx
+++ b/data/Dataset S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiawei/Documents/Work/2019- glacial CO2/Glacial_CO2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641064C-FF19-E245-B7FB-6F936BC90E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C3758-48DD-DF4E-BBC0-C28F5AE0A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="1040" windowWidth="21000" windowHeight="18880" xr2:uid="{F264F01B-AE22-4945-AD16-2719434C6BE8}"/>
+    <workbookView xWindow="4240" yWindow="-20160" windowWidth="21000" windowHeight="18880" activeTab="1" xr2:uid="{F264F01B-AE22-4945-AD16-2719434C6BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="800ky" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471BB988-00DD-B24D-A60B-E07E5976C39E}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
@@ -3234,9 +3234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0910CBD0-BDC1-514A-8AB0-A05DF07425DA}">
   <dimension ref="A1:W149"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U119" sqref="U119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3248,7 +3248,9 @@
     <col min="7" max="7" width="10.83203125" style="2"/>
     <col min="13" max="14" width="10.83203125" style="4"/>
     <col min="15" max="15" width="9.1640625" style="8" customWidth="1"/>
-    <col min="16" max="19" width="10.83203125" style="5"/>
+    <col min="16" max="16" width="10.83203125" style="5"/>
+    <col min="17" max="17" width="10.83203125" style="8"/>
+    <col min="18" max="19" width="10.83203125" style="5"/>
     <col min="20" max="21" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
@@ -3301,7 +3303,7 @@
       <c r="P1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="11" t="s">
         <v>123</v>
       </c>
       <c r="R1" s="14" t="s">
@@ -3360,29 +3362,29 @@
       <c r="N2" s="4">
         <v>0.11774306683324098</v>
       </c>
-      <c r="O2" s="8">
-        <v>251.92912023183365</v>
-      </c>
-      <c r="P2" s="5">
-        <v>146.9996698181692</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>259.88034653733098</v>
+      <c r="O2" s="20">
+        <v>277.098059895147</v>
+      </c>
+      <c r="P2" s="20">
+        <v>163.64866070728701</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>285.74249746790798</v>
       </c>
       <c r="R2" s="5">
-        <v>151.04097199636897</v>
+        <v>113.599447347607</v>
       </c>
       <c r="S2" s="5">
-        <v>155.44769117566301</v>
+        <v>459.82426385641298</v>
       </c>
       <c r="T2" s="8">
-        <v>258.88034653733098</v>
+        <v>1</v>
       </c>
       <c r="U2" s="8">
-        <v>324.55339207008399</v>
-      </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
+        <v>644.61874729093904</v>
+      </c>
+      <c r="V2" s="21"/>
+      <c r="W2" s="20"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3427,29 +3429,29 @@
       <c r="N3" s="4">
         <v>7.2110459750780009E-2</v>
       </c>
-      <c r="O3" s="8">
-        <v>316.78760499862216</v>
-      </c>
-      <c r="P3" s="5">
-        <v>184.84434548270139</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>249.22447411865701</v>
+      <c r="O3" s="20">
+        <v>323.06318300313802</v>
+      </c>
+      <c r="P3" s="20">
+        <v>212.62966675698701</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>254.111915585606</v>
       </c>
       <c r="R3" s="5">
-        <v>142.91892840613002</v>
+        <v>88.579932132379298</v>
       </c>
       <c r="S3" s="5">
-        <v>147.47330312404901</v>
+        <v>424.990143589551</v>
       </c>
       <c r="T3" s="8">
-        <v>248.22447411865701</v>
+        <v>1</v>
       </c>
       <c r="U3" s="8">
-        <v>298.31411493532096</v>
-      </c>
-      <c r="V3" s="20"/>
-      <c r="W3" s="21"/>
+        <v>597.64891189074103</v>
+      </c>
+      <c r="V3" s="21"/>
+      <c r="W3" s="20"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3494,29 +3496,29 @@
       <c r="N4" s="4">
         <v>7.7552290842182958E-2</v>
       </c>
-      <c r="O4" s="8">
-        <v>336.25203281611334</v>
-      </c>
-      <c r="P4" s="5">
-        <v>196.20176402859141</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>266.895132598472</v>
+      <c r="O4" s="20">
+        <v>343.547262795623</v>
+      </c>
+      <c r="P4" s="20">
+        <v>228.22063531639299</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>273.044968232158</v>
       </c>
       <c r="R4" s="5">
-        <v>157.757211778699</v>
+        <v>89.378402947283902</v>
       </c>
       <c r="S4" s="5">
-        <v>156.24248825938997</v>
+        <v>461.06381294031502</v>
       </c>
       <c r="T4" s="8">
-        <v>265.895132598472</v>
+        <v>1</v>
       </c>
       <c r="U4" s="8">
-        <v>327.95844899954494</v>
-      </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+        <v>646.01230629964004</v>
+      </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3561,29 +3563,29 @@
       <c r="N5" s="4">
         <v>8.2219838398265965E-2</v>
       </c>
-      <c r="O5" s="8">
-        <v>275.87760855681046</v>
-      </c>
-      <c r="P5" s="5">
-        <v>160.97352037254839</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>242.06247162889699</v>
+      <c r="O5" s="20">
+        <v>294.390321744125</v>
+      </c>
+      <c r="P5" s="20">
+        <v>182.08028559034901</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>257.96354774874601</v>
       </c>
       <c r="R5" s="5">
-        <v>143.3983011421675</v>
+        <v>100.537473356937</v>
       </c>
       <c r="S5" s="5">
-        <v>137.182057277388</v>
+        <v>418.80159069248703</v>
       </c>
       <c r="T5" s="8">
-        <v>241.06247162889699</v>
+        <v>1</v>
       </c>
       <c r="U5" s="8">
-        <v>289.86217942021403</v>
-      </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
+        <v>583.27455430728401</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="20"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3628,29 +3630,29 @@
       <c r="N6" s="4">
         <v>8.275869751950593E-2</v>
       </c>
-      <c r="O6" s="8">
-        <v>358.61542867230816</v>
-      </c>
-      <c r="P6" s="5">
-        <v>209.25071924205963</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>265.79606640991</v>
+      <c r="O6" s="20">
+        <v>359.61749823993</v>
+      </c>
+      <c r="P6" s="20">
+        <v>235.00859962950099</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>266.82227324807701</v>
       </c>
       <c r="R6" s="5">
-        <v>154.661172126899</v>
+        <v>84.735641446558802</v>
       </c>
       <c r="S6" s="5">
-        <v>158.51559477265801</v>
+        <v>444.550645798213</v>
       </c>
       <c r="T6" s="8">
-        <v>264.79606640991</v>
+        <v>1</v>
       </c>
       <c r="U6" s="8">
-        <v>327.24103199829796</v>
-      </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
+        <v>642.57012689321198</v>
+      </c>
+      <c r="V6" s="21"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3695,29 +3697,29 @@
       <c r="N7" s="4">
         <v>8.6104975660626026E-2</v>
       </c>
-      <c r="O7" s="8">
-        <v>358.80567118470861</v>
-      </c>
-      <c r="P7" s="5">
-        <v>209.36172501416928</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>278.16220478673603</v>
+      <c r="O7" s="20">
+        <v>357.95670688528702</v>
+      </c>
+      <c r="P7" s="20">
+        <v>236.78030689372099</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>277.53761243685602</v>
       </c>
       <c r="R7" s="5">
-        <v>161.77260267288503</v>
+        <v>97.816037825410007</v>
       </c>
       <c r="S7" s="5">
-        <v>168.60304197270398</v>
+        <v>460.45707339094503</v>
       </c>
       <c r="T7" s="8">
-        <v>277.16220478673603</v>
+        <v>1</v>
       </c>
       <c r="U7" s="8">
-        <v>330.75493414764998</v>
-      </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
+        <v>660.31441499121297</v>
+      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3762,29 +3764,29 @@
       <c r="N8" s="4">
         <v>8.7052890623066981E-2</v>
       </c>
-      <c r="O8" s="8">
-        <v>267.84161895052102</v>
-      </c>
-      <c r="P8" s="5">
-        <v>156.28455143676308</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>209.00789304957701</v>
+      <c r="O8" s="20">
+        <v>287.96589686199502</v>
+      </c>
+      <c r="P8" s="20">
+        <v>173.902060348731</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>224.73831148055501</v>
       </c>
       <c r="R8" s="5">
-        <v>123.42279405393761</v>
+        <v>87.587642259102296</v>
       </c>
       <c r="S8" s="5">
-        <v>122.226843193517</v>
+        <v>361.01109703720402</v>
       </c>
       <c r="T8" s="8">
-        <v>208.00789304957701</v>
+        <v>1</v>
       </c>
       <c r="U8" s="8">
-        <v>257.83442570746899</v>
-      </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="21"/>
+        <v>516.21454595667001</v>
+      </c>
+      <c r="V8" s="21"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3829,29 +3831,29 @@
       <c r="N9" s="4">
         <v>7.5501759071539998E-2</v>
       </c>
-      <c r="O9" s="8">
-        <v>309.63401714728553</v>
-      </c>
-      <c r="P9" s="5">
-        <v>180.67025456699434</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>226.85534402336799</v>
+      <c r="O9" s="20">
+        <v>321.93590400280101</v>
+      </c>
+      <c r="P9" s="20">
+        <v>205.578385066214</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>235.91536052685299</v>
       </c>
       <c r="R9" s="5">
-        <v>132.11847881174691</v>
+        <v>86.016286883484796</v>
       </c>
       <c r="S9" s="5">
-        <v>134.105667217296</v>
+        <v>389.42135352108102</v>
       </c>
       <c r="T9" s="8">
-        <v>225.85534402336799</v>
+        <v>1</v>
       </c>
       <c r="U9" s="8">
-        <v>274.49135019387199</v>
-      </c>
-      <c r="V9" s="20"/>
-      <c r="W9" s="21"/>
+        <v>549.18754656102601</v>
+      </c>
+      <c r="V9" s="21"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3896,29 +3898,29 @@
       <c r="N10" s="4">
         <v>7.4618029737118952E-2</v>
       </c>
-      <c r="O10" s="8">
-        <v>282.54798693765298</v>
-      </c>
-      <c r="P10" s="5">
-        <v>164.86566042624196</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>214.090151372702</v>
+      <c r="O10" s="20">
+        <v>298.88429909265602</v>
+      </c>
+      <c r="P10" s="20">
+        <v>182.68167872756001</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>226.556047922201</v>
       </c>
       <c r="R10" s="5">
-        <v>127.671744966457</v>
+        <v>83.292442882660893</v>
       </c>
       <c r="S10" s="5">
-        <v>125.53183973085601</v>
+        <v>365.14801450830799</v>
       </c>
       <c r="T10" s="8">
-        <v>213.090151372702</v>
+        <v>1</v>
       </c>
       <c r="U10" s="8">
-        <v>254.91922626762499</v>
-      </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="21"/>
+        <v>512.52361427753397</v>
+      </c>
+      <c r="V10" s="21"/>
+      <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3963,29 +3965,29 @@
       <c r="N11" s="4">
         <v>7.8838604618668984E-2</v>
       </c>
-      <c r="O11" s="8">
-        <v>360.44205875693621</v>
-      </c>
-      <c r="P11" s="5">
-        <v>210.31655085006571</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>273.48140387605901</v>
+      <c r="O11" s="20">
+        <v>362.97473631237301</v>
+      </c>
+      <c r="P11" s="20">
+        <v>242.014078210468</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>275.422213316382</v>
       </c>
       <c r="R11" s="5">
-        <v>160.25895673476501</v>
+        <v>94.540136475109705</v>
       </c>
       <c r="S11" s="5">
-        <v>160.57058029607799</v>
+        <v>463.36842535369999</v>
       </c>
       <c r="T11" s="8">
-        <v>272.48140387605901</v>
+        <v>1</v>
       </c>
       <c r="U11" s="8">
-        <v>320.39048630010899</v>
-      </c>
-      <c r="V11" s="20"/>
-      <c r="W11" s="21"/>
+        <v>660.231252092472</v>
+      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4030,29 +4032,29 @@
       <c r="N12" s="4">
         <v>8.7129658259115006E-2</v>
       </c>
-      <c r="O12" s="8">
-        <v>311.35747387745636</v>
-      </c>
-      <c r="P12" s="5">
-        <v>181.67588492067429</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>259.73155820179301</v>
+      <c r="O12" s="20">
+        <v>323.249277178049</v>
+      </c>
+      <c r="P12" s="20">
+        <v>209.160678439203</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>269.44364703486599</v>
       </c>
       <c r="R12" s="5">
-        <v>153.001021374706</v>
+        <v>98.820681580257997</v>
       </c>
       <c r="S12" s="5">
-        <v>154.43148123299397</v>
+        <v>450.66160263815902</v>
       </c>
       <c r="T12" s="8">
-        <v>258.73155820179301</v>
+        <v>1</v>
       </c>
       <c r="U12" s="8">
-        <v>307.46873979819901</v>
-      </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="21"/>
+        <v>638.44592308642495</v>
+      </c>
+      <c r="V12" s="21"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4097,29 +4099,29 @@
       <c r="N13" s="4">
         <v>7.955409812932801E-2</v>
       </c>
-      <c r="O13" s="8">
-        <v>388.36404206981598</v>
-      </c>
-      <c r="P13" s="5">
-        <v>226.6089204018057</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>270.44356484118799</v>
+      <c r="O13" s="20">
+        <v>388.60011311492002</v>
+      </c>
+      <c r="P13" s="20">
+        <v>265.30754287436901</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>270.886424382548</v>
       </c>
       <c r="R13" s="5">
-        <v>155.56595865397199</v>
+        <v>91.707243962398493</v>
       </c>
       <c r="S13" s="5">
-        <v>161.14467783307202</v>
+        <v>459.93326075811802</v>
       </c>
       <c r="T13" s="8">
-        <v>269.44356484118799</v>
+        <v>1</v>
       </c>
       <c r="U13" s="8">
-        <v>327.43061771746801</v>
-      </c>
-      <c r="V13" s="20"/>
-      <c r="W13" s="21"/>
+        <v>667.53579314172396</v>
+      </c>
+      <c r="V13" s="21"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4164,29 +4166,29 @@
       <c r="N14" s="4">
         <v>6.3518858556129043E-2</v>
       </c>
-      <c r="O14" s="8">
-        <v>351.19623474750654</v>
-      </c>
-      <c r="P14" s="5">
-        <v>204.92164820708291</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>241.07136256481999</v>
+      <c r="O14" s="20">
+        <v>358.62470991794999</v>
+      </c>
+      <c r="P14" s="20">
+        <v>232.98584373611101</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>246.42809520637101</v>
       </c>
       <c r="R14" s="5">
-        <v>137.06356575162101</v>
+        <v>82.152263468923493</v>
       </c>
       <c r="S14" s="5">
-        <v>144.14965517238699</v>
+        <v>400.20843015621102</v>
       </c>
       <c r="T14" s="8">
-        <v>240.07136256481999</v>
+        <v>1</v>
       </c>
       <c r="U14" s="8">
-        <v>288.63042590966904</v>
-      </c>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
+        <v>574.77781305197504</v>
+      </c>
+      <c r="V14" s="21"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4231,29 +4233,29 @@
       <c r="N15" s="4">
         <v>7.494963798696197E-2</v>
       </c>
-      <c r="O15" s="8">
-        <v>339.51511734233827</v>
-      </c>
-      <c r="P15" s="5">
-        <v>198.10576126202926</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>279.148035226491</v>
+      <c r="O15" s="20">
+        <v>340.30665618287497</v>
+      </c>
+      <c r="P15" s="20">
+        <v>233.041553469375</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>279.54670393407798</v>
       </c>
       <c r="R15" s="5">
-        <v>162.22340249014502</v>
+        <v>87.730413796217206</v>
       </c>
       <c r="S15" s="5">
-        <v>165.467683116834</v>
+        <v>473.06896029770797</v>
       </c>
       <c r="T15" s="8">
-        <v>278.148035226491</v>
+        <v>1</v>
       </c>
       <c r="U15" s="8">
-        <v>331.79116987114304</v>
-      </c>
-      <c r="V15" s="20"/>
-      <c r="W15" s="21"/>
+        <v>666.34650777749903</v>
+      </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4298,29 +4300,29 @@
       <c r="N16" s="4">
         <v>6.7591304232513028E-2</v>
       </c>
-      <c r="O16" s="8">
-        <v>288.70376510550949</v>
-      </c>
-      <c r="P16" s="5">
-        <v>168.45753324077043</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>190.921411868928</v>
+      <c r="O16" s="20">
+        <v>305.71395008681401</v>
+      </c>
+      <c r="P16" s="20">
+        <v>191.89785048746299</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>202.35950858367201</v>
       </c>
       <c r="R16" s="5">
-        <v>112.4850564470329</v>
+        <v>74.837735350489993</v>
       </c>
       <c r="S16" s="5">
-        <v>111.93280344732798</v>
+        <v>332.90440968515401</v>
       </c>
       <c r="T16" s="8">
-        <v>189.921411868928</v>
+        <v>1</v>
       </c>
       <c r="U16" s="8">
-        <v>234.91677167783402</v>
-      </c>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
+        <v>475.20491926389201</v>
+      </c>
+      <c r="V16" s="21"/>
+      <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4365,29 +4367,29 @@
       <c r="N17" s="4">
         <v>7.5299378924631011E-2</v>
       </c>
-      <c r="O17" s="8">
-        <v>284.84247892499553</v>
-      </c>
-      <c r="P17" s="5">
-        <v>166.20448764966659</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>226.92647663152999</v>
+      <c r="O17" s="20">
+        <v>300.50158534382598</v>
+      </c>
+      <c r="P17" s="20">
+        <v>186.716977005247</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>239.79874676652599</v>
       </c>
       <c r="R17" s="5">
-        <v>136.52720339104638</v>
+        <v>88.630448513339203</v>
       </c>
       <c r="S17" s="5">
-        <v>134.487978805371</v>
+        <v>390.31813803075602</v>
       </c>
       <c r="T17" s="8">
-        <v>225.92647663152999</v>
+        <v>1</v>
       </c>
       <c r="U17" s="8">
-        <v>270.79043936743005</v>
-      </c>
-      <c r="V17" s="20"/>
-      <c r="W17" s="21"/>
+        <v>558.70702781479099</v>
+      </c>
+      <c r="V17" s="21"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -4432,29 +4434,29 @@
       <c r="N18" s="4">
         <v>6.9790001252274969E-2</v>
       </c>
-      <c r="O18" s="8">
-        <v>362.62083408202193</v>
-      </c>
-      <c r="P18" s="5">
-        <v>211.58785784744995</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>266.45829607184498</v>
+      <c r="O18" s="20">
+        <v>365.64453088107001</v>
+      </c>
+      <c r="P18" s="20">
+        <v>245.530355133603</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>268.94134917631698</v>
       </c>
       <c r="R18" s="5">
-        <v>157.56640734131898</v>
+        <v>88.980203841177101</v>
       </c>
       <c r="S18" s="5">
-        <v>155.24978768493099</v>
+        <v>450.35185613432299</v>
       </c>
       <c r="T18" s="8">
-        <v>265.45829607184498</v>
+        <v>1</v>
       </c>
       <c r="U18" s="8">
-        <v>324.08172520649998</v>
-      </c>
-      <c r="V18" s="20"/>
-      <c r="W18" s="21"/>
+        <v>641.54968368097798</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -4499,29 +4501,29 @@
       <c r="N19" s="4">
         <v>0.11040031056381205</v>
       </c>
-      <c r="O19" s="8">
-        <v>287.34978997218678</v>
-      </c>
-      <c r="P19" s="5">
-        <v>167.66749397354604</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>271.54858848101298</v>
+      <c r="O19" s="20">
+        <v>305.18124033696898</v>
+      </c>
+      <c r="P19" s="20">
+        <v>190.61862794819999</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>288.22822347184899</v>
       </c>
       <c r="R19" s="5">
-        <v>158.85708193047998</v>
+        <v>107.839143332918</v>
       </c>
       <c r="S19" s="5">
-        <v>159.556786294745</v>
+        <v>476.28224312342599</v>
       </c>
       <c r="T19" s="8">
-        <v>270.54858848101298</v>
+        <v>1</v>
       </c>
       <c r="U19" s="8">
-        <v>338.92494894038907</v>
-      </c>
-      <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
+        <v>664.62931287123001</v>
+      </c>
+      <c r="V19" s="21"/>
+      <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -4566,29 +4568,29 @@
       <c r="N20" s="4">
         <v>8.2403052213596006E-2</v>
       </c>
-      <c r="O20" s="8">
-        <v>317.07503661060878</v>
-      </c>
-      <c r="P20" s="5">
-        <v>185.01206071950469</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>274.43066205987998</v>
+      <c r="O20" s="20">
+        <v>327.85301419599898</v>
+      </c>
+      <c r="P20" s="20">
+        <v>213.44428860402701</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>283.88629430072501</v>
       </c>
       <c r="R20" s="5">
-        <v>161.45609551561998</v>
+        <v>101.788909324101</v>
       </c>
       <c r="S20" s="5">
-        <v>164.35959162599903</v>
+        <v>472.61374467606697</v>
       </c>
       <c r="T20" s="8">
-        <v>273.43066205987998</v>
+        <v>1</v>
       </c>
       <c r="U20" s="8">
-        <v>328.23389849316607</v>
-      </c>
-      <c r="V20" s="20"/>
-      <c r="W20" s="21"/>
+        <v>661.16336630613296</v>
+      </c>
+      <c r="V20" s="21"/>
+      <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -4633,29 +4635,29 @@
       <c r="N21" s="4">
         <v>8.1637053179921981E-2</v>
       </c>
-      <c r="O21" s="8">
-        <v>347.63583070384038</v>
-      </c>
-      <c r="P21" s="5">
-        <v>202.84416618215232</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>293.90762550759598</v>
+      <c r="O21" s="20">
+        <v>355.012881508183</v>
+      </c>
+      <c r="P21" s="20">
+        <v>238.73441539143801</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>300.13363940392202</v>
       </c>
       <c r="R21" s="5">
-        <v>171.81057388112498</v>
+        <v>103.91098878422</v>
       </c>
       <c r="S21" s="5">
-        <v>171.951012848348</v>
+        <v>506.43756074696802</v>
       </c>
       <c r="T21" s="8">
-        <v>292.90762550759598</v>
+        <v>1</v>
       </c>
       <c r="U21" s="8">
-        <v>356.60979550604804</v>
-      </c>
-      <c r="V21" s="20"/>
-      <c r="W21" s="21"/>
+        <v>720.86769123883596</v>
+      </c>
+      <c r="V21" s="21"/>
+      <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -4700,29 +4702,29 @@
       <c r="N22" s="4">
         <v>8.4913109881111004E-2</v>
       </c>
-      <c r="O22" s="8">
-        <v>322.55859764659129</v>
-      </c>
-      <c r="P22" s="5">
-        <v>188.21169743071701</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>281.02498394258498</v>
+      <c r="O22" s="20">
+        <v>333.73612742995198</v>
+      </c>
+      <c r="P22" s="20">
+        <v>215.720054040121</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>290.99315701149101</v>
       </c>
       <c r="R22" s="5">
-        <v>165.68469901071097</v>
+        <v>104.585926055616</v>
       </c>
       <c r="S22" s="5">
-        <v>164.80409471966004</v>
+        <v>484.03475312486398</v>
       </c>
       <c r="T22" s="8">
-        <v>280.02498394258498</v>
+        <v>1</v>
       </c>
       <c r="U22" s="8">
-        <v>341.92159895053203</v>
-      </c>
-      <c r="V22" s="20"/>
-      <c r="W22" s="21"/>
+        <v>689.15226567381399</v>
+      </c>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4767,29 +4769,29 @@
       <c r="N23" s="4">
         <v>6.8141184372843E-2</v>
       </c>
-      <c r="O23" s="8">
-        <v>354.37613026069874</v>
-      </c>
-      <c r="P23" s="5">
-        <v>206.77710497232454</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>226.88320960092699</v>
+      <c r="O23" s="20">
+        <v>362.96539582858099</v>
+      </c>
+      <c r="P23" s="20">
+        <v>236.164111577017</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>232.404493540282</v>
       </c>
       <c r="R23" s="5">
-        <v>134.28608069245729</v>
+        <v>79.478957289487298</v>
       </c>
       <c r="S23" s="5">
-        <v>130.89358643598899</v>
+        <v>386.73383416381398</v>
       </c>
       <c r="T23" s="8">
-        <v>225.88320960092699</v>
+        <v>1</v>
       </c>
       <c r="U23" s="8">
-        <v>269.28972712844103</v>
-      </c>
-      <c r="V23" s="20"/>
-      <c r="W23" s="21"/>
+        <v>550.940120730123</v>
+      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -4834,29 +4836,29 @@
       <c r="N24" s="4">
         <v>7.5702762690264991E-2</v>
       </c>
-      <c r="O24" s="8">
-        <v>397.79655769618154</v>
-      </c>
-      <c r="P24" s="5">
-        <v>232.11275688309252</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>289.894615741206</v>
+      <c r="O24" s="20">
+        <v>390.85648214902</v>
+      </c>
+      <c r="P24" s="20">
+        <v>266.61768009479999</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>284.94161792192801</v>
       </c>
       <c r="R24" s="5">
-        <v>170.49153978860102</v>
+        <v>91.345234694967104</v>
       </c>
       <c r="S24" s="5">
-        <v>170.43180301176199</v>
+        <v>486.36289741390902</v>
       </c>
       <c r="T24" s="8">
-        <v>288.894615741206</v>
+        <v>1</v>
       </c>
       <c r="U24" s="8">
-        <v>348.44302854382903</v>
-      </c>
-      <c r="V24" s="20"/>
-      <c r="W24" s="21"/>
+        <v>685.88998101131199</v>
+      </c>
+      <c r="V24" s="21"/>
+      <c r="W24" s="20"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -4901,29 +4903,29 @@
       <c r="N25" s="4">
         <v>6.6009546864687962E-2</v>
       </c>
-      <c r="O25" s="8">
-        <v>345.57255142035797</v>
-      </c>
-      <c r="P25" s="5">
-        <v>201.64025067950831</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>264.28844365949999</v>
+      <c r="O25" s="20">
+        <v>345.157873564569</v>
+      </c>
+      <c r="P25" s="20">
+        <v>233.28481969972199</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>263.85056536792803</v>
       </c>
       <c r="R25" s="5">
-        <v>150.30103746901</v>
+        <v>84.380523160215901</v>
       </c>
       <c r="S25" s="5">
-        <v>159.20857543310802</v>
+        <v>441.60024812592297</v>
       </c>
       <c r="T25" s="8">
-        <v>263.28844365949999</v>
+        <v>1</v>
       </c>
       <c r="U25" s="8">
-        <v>316.80895164002106</v>
-      </c>
-      <c r="V25" s="20"/>
-      <c r="W25" s="21"/>
+        <v>628.53798678571502</v>
+      </c>
+      <c r="V25" s="21"/>
+      <c r="W25" s="20"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -4968,29 +4970,29 @@
       <c r="N26" s="4">
         <v>7.1870612011475044E-2</v>
       </c>
-      <c r="O26" s="8">
-        <v>372.33821767687164</v>
-      </c>
-      <c r="P26" s="5">
-        <v>217.25791368944587</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>274.56844920096597</v>
+      <c r="O26" s="20">
+        <v>371.64175143434102</v>
+      </c>
+      <c r="P26" s="20">
+        <v>253.10206206139</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>274.31904179402602</v>
       </c>
       <c r="R26" s="5">
-        <v>157.42899980078798</v>
+        <v>92.309477510150998</v>
       </c>
       <c r="S26" s="5">
-        <v>165.92199559244705</v>
+        <v>463.91523737119797</v>
       </c>
       <c r="T26" s="8">
-        <v>273.56844920096597</v>
+        <v>1</v>
       </c>
       <c r="U26" s="8">
-        <v>330.30682977820203</v>
-      </c>
-      <c r="V26" s="20"/>
-      <c r="W26" s="21"/>
+        <v>664.64458137924896</v>
+      </c>
+      <c r="V26" s="21"/>
+      <c r="W26" s="20"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -5035,29 +5037,29 @@
       <c r="N27" s="4">
         <v>7.4181746142529037E-2</v>
       </c>
-      <c r="O27" s="8">
-        <v>336.19484963212227</v>
-      </c>
-      <c r="P27" s="5">
-        <v>196.16839786132141</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>283.11128572981897</v>
+      <c r="O27" s="20">
+        <v>345.82580363280402</v>
+      </c>
+      <c r="P27" s="20">
+        <v>220.26006477316099</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>291.368249629834</v>
       </c>
       <c r="R27" s="5">
-        <v>169.16306264061996</v>
+        <v>105.011949109592</v>
       </c>
       <c r="S27" s="5">
-        <v>170.02139845103102</v>
+        <v>473.58715730979299</v>
       </c>
       <c r="T27" s="8">
-        <v>282.11128572981897</v>
+        <v>1</v>
       </c>
       <c r="U27" s="8">
-        <v>339.00555578069907</v>
-      </c>
-      <c r="V27" s="20"/>
-      <c r="W27" s="21"/>
+        <v>667.68251301654698</v>
+      </c>
+      <c r="V27" s="21"/>
+      <c r="W27" s="20"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -5102,29 +5104,29 @@
       <c r="N28" s="4">
         <v>7.6426787090498993E-2</v>
       </c>
-      <c r="O28" s="8">
-        <v>316.59706540181151</v>
-      </c>
-      <c r="P28" s="5">
-        <v>184.73316636298435</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>230.14162893178701</v>
+      <c r="O28" s="20">
+        <v>332.02477792684101</v>
+      </c>
+      <c r="P28" s="20">
+        <v>211.464078615939</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>241.338373458446</v>
       </c>
       <c r="R28" s="5">
-        <v>135.40046731414841</v>
+        <v>86.286900768928206</v>
       </c>
       <c r="S28" s="5">
-        <v>135.27689357078197</v>
+        <v>396.241341629668</v>
       </c>
       <c r="T28" s="8">
-        <v>229.14162893178701</v>
+        <v>1</v>
       </c>
       <c r="U28" s="8">
-        <v>284.03037815915803</v>
-      </c>
-      <c r="V28" s="20"/>
-      <c r="W28" s="21"/>
+        <v>563.36452528668997</v>
+      </c>
+      <c r="V28" s="21"/>
+      <c r="W28" s="20"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -5169,29 +5171,29 @@
       <c r="N29" s="4">
         <v>9.3251237190713043E-2</v>
       </c>
-      <c r="O29" s="8">
-        <v>371.41650788183648</v>
-      </c>
-      <c r="P29" s="5">
-        <v>216.72009957961347</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>286.84148437593399</v>
+      <c r="O29" s="20">
+        <v>369.65188401175197</v>
+      </c>
+      <c r="P29" s="20">
+        <v>250.696245597955</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>285.747528614614</v>
       </c>
       <c r="R29" s="5">
-        <v>166.82519110021499</v>
+        <v>94.327121467037401</v>
       </c>
       <c r="S29" s="5">
-        <v>174.30430953657202</v>
+        <v>486.274557080227</v>
       </c>
       <c r="T29" s="8">
-        <v>285.84148437593399</v>
+        <v>1</v>
       </c>
       <c r="U29" s="8">
-        <v>357.88067181895997</v>
-      </c>
-      <c r="V29" s="20"/>
-      <c r="W29" s="21"/>
+        <v>695.70806285515096</v>
+      </c>
+      <c r="V29" s="21"/>
+      <c r="W29" s="20"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -5236,29 +5238,29 @@
       <c r="N30" s="4">
         <v>9.5902953402935975E-2</v>
       </c>
-      <c r="O30" s="8">
-        <v>317.63011362705191</v>
-      </c>
-      <c r="P30" s="5">
-        <v>185.33594601734441</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>271.03325616629701</v>
+      <c r="O30" s="20">
+        <v>331.083435096779</v>
+      </c>
+      <c r="P30" s="20">
+        <v>209.29360287336499</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>282.44175835299097</v>
       </c>
       <c r="R30" s="5">
-        <v>159.49485044236599</v>
+        <v>104.64229684405601</v>
       </c>
       <c r="S30" s="5">
-        <v>161.411014468004</v>
+        <v>468.68372288451002</v>
       </c>
       <c r="T30" s="8">
-        <v>270.03325616629701</v>
+        <v>1</v>
       </c>
       <c r="U30" s="8">
-        <v>331.04138399090601</v>
-      </c>
-      <c r="V30" s="20"/>
-      <c r="W30" s="21"/>
+        <v>669.59950232102096</v>
+      </c>
+      <c r="V30" s="21"/>
+      <c r="W30" s="20"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5303,29 +5305,29 @@
       <c r="N31" s="4">
         <v>8.2544145506610045E-2</v>
       </c>
-      <c r="O31" s="8">
-        <v>381.27923515542892</v>
-      </c>
-      <c r="P31" s="5">
-        <v>222.47496289748071</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>289.779098691878</v>
+      <c r="O31" s="20">
+        <v>381.326480825403</v>
+      </c>
+      <c r="P31" s="20">
+        <v>263.71029651651202</v>
+      </c>
+      <c r="Q31" s="20">
+        <v>289.56687490125802</v>
       </c>
       <c r="R31" s="5">
-        <v>171.26610653575602</v>
+        <v>93.931006808461007</v>
       </c>
       <c r="S31" s="5">
-        <v>171.05865306234301</v>
+        <v>494.073092894995</v>
       </c>
       <c r="T31" s="8">
-        <v>288.779098691878</v>
+        <v>1</v>
       </c>
       <c r="U31" s="8">
-        <v>362.56967803171204</v>
-      </c>
-      <c r="V31" s="20"/>
-      <c r="W31" s="21"/>
+        <v>703.60113081034694</v>
+      </c>
+      <c r="V31" s="21"/>
+      <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -5370,29 +5372,29 @@
       <c r="N32" s="4">
         <v>8.9009107644232976E-2</v>
       </c>
-      <c r="O32" s="8">
-        <v>359.02272031158958</v>
-      </c>
-      <c r="P32" s="5">
-        <v>209.48837234241964</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>298.21339979562299</v>
+      <c r="O32" s="20">
+        <v>363.25038353475998</v>
+      </c>
+      <c r="P32" s="20">
+        <v>237.677722609733</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>301.51702943857202</v>
       </c>
       <c r="R32" s="5">
-        <v>176.55901517774899</v>
+        <v>108.58926588264301</v>
       </c>
       <c r="S32" s="5">
-        <v>178.12885413413903</v>
+        <v>500.82511093955299</v>
       </c>
       <c r="T32" s="8">
-        <v>297.21339979562299</v>
+        <v>1</v>
       </c>
       <c r="U32" s="8">
-        <v>358.51520609132797</v>
-      </c>
-      <c r="V32" s="20"/>
-      <c r="W32" s="21"/>
+        <v>710.25371804856695</v>
+      </c>
+      <c r="V32" s="21"/>
+      <c r="W32" s="20"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -5437,29 +5439,29 @@
       <c r="N33" s="4">
         <v>7.4022408247875982E-2</v>
       </c>
-      <c r="O33" s="8">
-        <v>312.81227747437583</v>
-      </c>
-      <c r="P33" s="5">
-        <v>182.52475720745338</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>276.21061672029401</v>
+      <c r="O33" s="20">
+        <v>325.46490890830898</v>
+      </c>
+      <c r="P33" s="20">
+        <v>208.79718250738401</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>286.97227343992398</v>
       </c>
       <c r="R33" s="5">
-        <v>157.00288436572302</v>
+        <v>102.027647250157</v>
       </c>
       <c r="S33" s="5">
-        <v>162.17596948891997</v>
+        <v>475.06708369294302</v>
       </c>
       <c r="T33" s="8">
-        <v>275.21061672029401</v>
+        <v>1</v>
       </c>
       <c r="U33" s="8">
-        <v>325.73709271995295</v>
-      </c>
-      <c r="V33" s="20"/>
-      <c r="W33" s="21"/>
+        <v>656.26842018624404</v>
+      </c>
+      <c r="V33" s="21"/>
+      <c r="W33" s="20"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -5504,29 +5506,29 @@
       <c r="N34" s="4">
         <v>7.4485018480038967E-2</v>
       </c>
-      <c r="O34" s="8">
-        <v>350.65244506626931</v>
-      </c>
-      <c r="P34" s="5">
-        <v>204.60434902579394</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>288.305728767228</v>
+      <c r="O34" s="20">
+        <v>351.970369065554</v>
+      </c>
+      <c r="P34" s="20">
+        <v>237.452613327352</v>
+      </c>
+      <c r="Q34" s="20">
+        <v>289.41368567135697</v>
       </c>
       <c r="R34" s="5">
-        <v>167.38789921366401</v>
+        <v>88.4702297091048</v>
       </c>
       <c r="S34" s="5">
-        <v>167.97779490919197</v>
+        <v>484.07217571356301</v>
       </c>
       <c r="T34" s="8">
-        <v>287.305728767228</v>
+        <v>1</v>
       </c>
       <c r="U34" s="8">
-        <v>347.09954350931895</v>
-      </c>
-      <c r="V34" s="20"/>
-      <c r="W34" s="21"/>
+        <v>681.22571175803103</v>
+      </c>
+      <c r="V34" s="21"/>
+      <c r="W34" s="20"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -5571,29 +5573,29 @@
       <c r="N35" s="4">
         <v>8.7232352287009984E-2</v>
       </c>
-      <c r="O35" s="8">
-        <v>343.82404610870645</v>
-      </c>
-      <c r="P35" s="5">
-        <v>200.62000457516132</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>285.37883129108201</v>
+      <c r="O35" s="20">
+        <v>345.38825788466897</v>
+      </c>
+      <c r="P35" s="20">
+        <v>228.24390204568499</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>286.35488969491001</v>
       </c>
       <c r="R35" s="5">
-        <v>167.901847853709</v>
+        <v>97.862422293986199</v>
       </c>
       <c r="S35" s="5">
-        <v>170.367160625537</v>
+        <v>479.13752768295501</v>
       </c>
       <c r="T35" s="8">
-        <v>284.37883129108201</v>
+        <v>1</v>
       </c>
       <c r="U35" s="8">
-        <v>349.70718841056504</v>
-      </c>
-      <c r="V35" s="20"/>
-      <c r="W35" s="21"/>
+        <v>683.01273532226003</v>
+      </c>
+      <c r="V35" s="21"/>
+      <c r="W35" s="20"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -5638,29 +5640,29 @@
       <c r="N36" s="4">
         <v>7.8969784829205913E-2</v>
       </c>
-      <c r="O36" s="8">
-        <v>358.47049040965197</v>
-      </c>
-      <c r="P36" s="5">
-        <v>209.16614832491092</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>272.535555004272</v>
+      <c r="O36" s="20">
+        <v>363.275785923417</v>
+      </c>
+      <c r="P36" s="20">
+        <v>240.680677268761</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>275.97922037085698</v>
       </c>
       <c r="R36" s="5">
-        <v>158.83263570050798</v>
+        <v>95.381671941194995</v>
       </c>
       <c r="S36" s="5">
-        <v>166.112352804414</v>
+        <v>460.23105449187398</v>
       </c>
       <c r="T36" s="8">
-        <v>271.535555004272</v>
+        <v>1</v>
       </c>
       <c r="U36" s="8">
-        <v>328.78858094104095</v>
-      </c>
-      <c r="V36" s="20"/>
-      <c r="W36" s="21"/>
+        <v>646.45473492191195</v>
+      </c>
+      <c r="V36" s="21"/>
+      <c r="W36" s="20"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -5705,29 +5707,29 @@
       <c r="N37" s="4">
         <v>8.3922007514109054E-2</v>
       </c>
-      <c r="O37" s="8">
-        <v>298.7509445497862</v>
-      </c>
-      <c r="P37" s="5">
-        <v>174.32002368869271</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>246.94012949121199</v>
+      <c r="O37" s="20">
+        <v>311.03792118654002</v>
+      </c>
+      <c r="P37" s="20">
+        <v>194.42646207617199</v>
+      </c>
+      <c r="Q37" s="20">
+        <v>257.06489531037101</v>
       </c>
       <c r="R37" s="5">
-        <v>144.04736864026398</v>
+        <v>95.289359583412505</v>
       </c>
       <c r="S37" s="5">
-        <v>142.27011541015602</v>
+        <v>417.77460547564402</v>
       </c>
       <c r="T37" s="8">
-        <v>245.94012949121199</v>
+        <v>1</v>
       </c>
       <c r="U37" s="8">
-        <v>298.45633065619995</v>
-      </c>
-      <c r="V37" s="20"/>
-      <c r="W37" s="21"/>
+        <v>600.11283131919697</v>
+      </c>
+      <c r="V37" s="21"/>
+      <c r="W37" s="20"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -5772,29 +5774,29 @@
       <c r="N38" s="4">
         <v>6.7179236256302954E-2</v>
       </c>
-      <c r="O38" s="8">
-        <v>319.73248377564852</v>
-      </c>
-      <c r="P38" s="5">
-        <v>186.56267088898645</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>254.567952302507</v>
+      <c r="O38" s="20">
+        <v>331.23919078294301</v>
+      </c>
+      <c r="P38" s="20">
+        <v>216.76395244944001</v>
+      </c>
+      <c r="Q38" s="20">
+        <v>263.539041171799</v>
       </c>
       <c r="R38" s="5">
-        <v>148.86643203258501</v>
+        <v>91.406676234139894</v>
       </c>
       <c r="S38" s="5">
-        <v>149.651314927654</v>
+        <v>441.27636583868201</v>
       </c>
       <c r="T38" s="8">
-        <v>253.567952302507</v>
+        <v>1</v>
       </c>
       <c r="U38" s="8">
-        <v>296.32755814581697</v>
-      </c>
-      <c r="V38" s="20"/>
-      <c r="W38" s="21"/>
+        <v>621.44993239646305</v>
+      </c>
+      <c r="V38" s="21"/>
+      <c r="W38" s="20"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -5839,29 +5841,29 @@
       <c r="N39" s="4">
         <v>6.6758983342224076E-2</v>
       </c>
-      <c r="O39" s="8">
-        <v>322.96880437950455</v>
-      </c>
-      <c r="P39" s="5">
-        <v>188.45105147696603</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>260.14336748307301</v>
+      <c r="O39" s="20">
+        <v>332.07845968915399</v>
+      </c>
+      <c r="P39" s="20">
+        <v>216.21127625752899</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>267.41777170965702</v>
       </c>
       <c r="R39" s="5">
-        <v>153.14553502354801</v>
+        <v>92.204498230955807</v>
       </c>
       <c r="S39" s="5">
-        <v>149.94477080998297</v>
+        <v>443.94602955850598</v>
       </c>
       <c r="T39" s="8">
-        <v>259.14336748307301</v>
+        <v>1</v>
       </c>
       <c r="U39" s="8">
-        <v>314.54031811575601</v>
-      </c>
-      <c r="V39" s="20"/>
-      <c r="W39" s="21"/>
+        <v>622.93420351495104</v>
+      </c>
+      <c r="V39" s="21"/>
+      <c r="W39" s="20"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -5906,29 +5908,29 @@
       <c r="N40" s="4">
         <v>7.2581718884781043E-2</v>
       </c>
-      <c r="O40" s="8">
-        <v>280.42686245640294</v>
-      </c>
-      <c r="P40" s="5">
-        <v>163.62799247384308</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>256.53520473211802</v>
+      <c r="O40" s="20">
+        <v>299.97183179029901</v>
+      </c>
+      <c r="P40" s="20">
+        <v>185.331585037509</v>
+      </c>
+      <c r="Q40" s="20">
+        <v>274.44076053746602</v>
       </c>
       <c r="R40" s="5">
-        <v>150.00492965547602</v>
+        <v>105.685600014874</v>
       </c>
       <c r="S40" s="5">
-        <v>148.90460007167599</v>
+        <v>446.37114111641</v>
       </c>
       <c r="T40" s="8">
-        <v>255.53520473211802</v>
+        <v>1</v>
       </c>
       <c r="U40" s="8">
-        <v>307.52964605340094</v>
-      </c>
-      <c r="V40" s="20"/>
-      <c r="W40" s="21"/>
+        <v>618.83414888510197</v>
+      </c>
+      <c r="V40" s="21"/>
+      <c r="W40" s="20"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -5973,29 +5975,29 @@
       <c r="N41" s="4">
         <v>7.0831360153829959E-2</v>
       </c>
-      <c r="O41" s="8">
-        <v>256.94248147458228</v>
-      </c>
-      <c r="P41" s="5">
-        <v>149.9249467638636</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>230.865407330464</v>
+      <c r="O41" s="20">
+        <v>278.57418279442101</v>
+      </c>
+      <c r="P41" s="20">
+        <v>167.55955226123299</v>
+      </c>
+      <c r="Q41" s="20">
+        <v>250.684309846986</v>
       </c>
       <c r="R41" s="5">
-        <v>134.62555308603407</v>
+        <v>101.022075266097</v>
       </c>
       <c r="S41" s="5">
-        <v>136.98331170159099</v>
+        <v>400.80596927894197</v>
       </c>
       <c r="T41" s="8">
-        <v>229.865407330464</v>
+        <v>1</v>
       </c>
       <c r="U41" s="8">
-        <v>267.46987245755003</v>
-      </c>
-      <c r="V41" s="20"/>
-      <c r="W41" s="21"/>
+        <v>558.275274892482</v>
+      </c>
+      <c r="V41" s="21"/>
+      <c r="W41" s="20"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -6040,29 +6042,29 @@
       <c r="N42" s="4">
         <v>7.4821679672221975E-2</v>
       </c>
-      <c r="O42" s="8">
-        <v>253.57549396890369</v>
-      </c>
-      <c r="P42" s="5">
-        <v>147.96032254272876</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>233.95402924338899</v>
+      <c r="O42" s="20">
+        <v>277.66867939413402</v>
+      </c>
+      <c r="P42" s="20">
+        <v>166.35474039722001</v>
+      </c>
+      <c r="Q42" s="20">
+        <v>256.48858690446701</v>
       </c>
       <c r="R42" s="5">
-        <v>131.35665216177</v>
+        <v>100.30845107174299</v>
       </c>
       <c r="S42" s="5">
-        <v>138.80184177383799</v>
+        <v>408.22676148808301</v>
       </c>
       <c r="T42" s="8">
-        <v>232.95402924338899</v>
+        <v>1</v>
       </c>
       <c r="U42" s="8">
-        <v>280.85964846903607</v>
-      </c>
-      <c r="V42" s="20"/>
-      <c r="W42" s="21"/>
+        <v>560.83905347408904</v>
+      </c>
+      <c r="V42" s="21"/>
+      <c r="W42" s="20"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -6107,29 +6109,29 @@
       <c r="N43" s="4">
         <v>7.7143465245062992E-2</v>
       </c>
-      <c r="O43" s="8">
-        <v>278.5052044218375</v>
-      </c>
-      <c r="P43" s="5">
-        <v>162.50671242362657</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>264.61889425330003</v>
+      <c r="O43" s="20">
+        <v>299.37887015001502</v>
+      </c>
+      <c r="P43" s="20">
+        <v>186.24359883837499</v>
+      </c>
+      <c r="Q43" s="20">
+        <v>284.09181635291799</v>
       </c>
       <c r="R43" s="5">
-        <v>151.75450299553404</v>
+        <v>102.027644822637</v>
       </c>
       <c r="S43" s="5">
-        <v>156.62846471150795</v>
+        <v>463.034923500746</v>
       </c>
       <c r="T43" s="8">
-        <v>263.61889425330003</v>
+        <v>1</v>
       </c>
       <c r="U43" s="8">
-        <v>315.68562246935096</v>
-      </c>
-      <c r="V43" s="20"/>
-      <c r="W43" s="21"/>
+        <v>646.18652262310195</v>
+      </c>
+      <c r="V43" s="21"/>
+      <c r="W43" s="20"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -6174,29 +6176,29 @@
       <c r="N44" s="4">
         <v>8.0717798041996081E-2</v>
       </c>
-      <c r="O44" s="8">
-        <v>285.48348382388275</v>
-      </c>
-      <c r="P44" s="5">
-        <v>166.57851153543865</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>250.367027835442</v>
+      <c r="O44" s="20">
+        <v>301.48935611833701</v>
+      </c>
+      <c r="P44" s="20">
+        <v>189.01282999298701</v>
+      </c>
+      <c r="Q44" s="20">
+        <v>263.974904521143</v>
       </c>
       <c r="R44" s="5">
-        <v>146.08626290380499</v>
+        <v>94.687217672756802</v>
       </c>
       <c r="S44" s="5">
-        <v>149.363063173309</v>
+        <v>432.54317128401198</v>
       </c>
       <c r="T44" s="8">
-        <v>249.367027835442</v>
+        <v>1</v>
       </c>
       <c r="U44" s="8">
-        <v>298.88206269859205</v>
-      </c>
-      <c r="V44" s="20"/>
-      <c r="W44" s="21"/>
+        <v>613.10718241831603</v>
+      </c>
+      <c r="V44" s="21"/>
+      <c r="W44" s="20"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -6241,29 +6243,29 @@
       <c r="N45" s="4">
         <v>8.375588587552496E-2</v>
       </c>
-      <c r="O45" s="8">
-        <v>290.03847255068393</v>
-      </c>
-      <c r="P45" s="5">
-        <v>169.23632988628705</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>277.51927252921502</v>
+      <c r="O45" s="20">
+        <v>302.42065855016898</v>
+      </c>
+      <c r="P45" s="20">
+        <v>187.874409158822</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>288.96449340846198</v>
       </c>
       <c r="R45" s="5">
-        <v>166.45917857641103</v>
+        <v>108.691225423753</v>
       </c>
       <c r="S45" s="5">
-        <v>164.57735451145697</v>
+        <v>469.37497543546601</v>
       </c>
       <c r="T45" s="8">
-        <v>276.51927252921502</v>
+        <v>1</v>
       </c>
       <c r="U45" s="8">
-        <v>324.38714864404693</v>
-      </c>
-      <c r="V45" s="20"/>
-      <c r="W45" s="21"/>
+        <v>659.85111296078401</v>
+      </c>
+      <c r="V45" s="21"/>
+      <c r="W45" s="20"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -6308,29 +6310,29 @@
       <c r="N46" s="4">
         <v>8.3838896830189968E-2</v>
       </c>
-      <c r="O46" s="8">
-        <v>289.21279132160578</v>
-      </c>
-      <c r="P46" s="5">
-        <v>168.75454807425251</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>286.56042619199502</v>
+      <c r="O46" s="20">
+        <v>310.659937344931</v>
+      </c>
+      <c r="P46" s="20">
+        <v>193.18434876178901</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>308.14782480788102</v>
       </c>
       <c r="R46" s="5">
-        <v>167.16520266327302</v>
+        <v>110.11192309672199</v>
       </c>
       <c r="S46" s="5">
-        <v>167.28260711029998</v>
+        <v>504.45640564734299</v>
       </c>
       <c r="T46" s="8">
-        <v>285.56042619199502</v>
+        <v>1</v>
       </c>
       <c r="U46" s="8">
-        <v>337.75242846814103</v>
-      </c>
-      <c r="V46" s="20"/>
-      <c r="W46" s="21"/>
+        <v>704.21068038306703</v>
+      </c>
+      <c r="V46" s="21"/>
+      <c r="W46" s="20"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -6375,29 +6377,29 @@
       <c r="N47" s="4">
         <v>7.3377661046107989E-2</v>
       </c>
-      <c r="O47" s="8">
-        <v>276.58909634698279</v>
-      </c>
-      <c r="P47" s="5">
-        <v>161.38867075349182</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>261.18487689138101</v>
+      <c r="O47" s="20">
+        <v>295.08688307838702</v>
+      </c>
+      <c r="P47" s="20">
+        <v>180.85050359720199</v>
+      </c>
+      <c r="Q47" s="20">
+        <v>278.570412621711</v>
       </c>
       <c r="R47" s="5">
-        <v>150.39678894194799</v>
+        <v>114.449123540825</v>
       </c>
       <c r="S47" s="5">
-        <v>152.30654241790899</v>
+        <v>453.44504924721201</v>
       </c>
       <c r="T47" s="8">
-        <v>260.18487689138101</v>
+        <v>1</v>
       </c>
       <c r="U47" s="8">
-        <v>306.47533647829493</v>
-      </c>
-      <c r="V47" s="20"/>
-      <c r="W47" s="21"/>
+        <v>635.74646387435996</v>
+      </c>
+      <c r="V47" s="21"/>
+      <c r="W47" s="20"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -6442,29 +6444,29 @@
       <c r="N48" s="4">
         <v>7.9228865817297933E-2</v>
       </c>
-      <c r="O48" s="8">
-        <v>281.55463663783434</v>
-      </c>
-      <c r="P48" s="5">
-        <v>164.28604435822749</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>272.77291557198203</v>
+      <c r="O48" s="20">
+        <v>301.22949031644703</v>
+      </c>
+      <c r="P48" s="20">
+        <v>184.332957404008</v>
+      </c>
+      <c r="Q48" s="20">
+        <v>291.61177588352501</v>
       </c>
       <c r="R48" s="5">
-        <v>160.94649695716203</v>
+        <v>107.372354197356</v>
       </c>
       <c r="S48" s="5">
-        <v>163.35152237639198</v>
+        <v>472.20532075289799</v>
       </c>
       <c r="T48" s="8">
-        <v>271.77291557198203</v>
+        <v>1</v>
       </c>
       <c r="U48" s="8">
-        <v>322.69856490723703</v>
-      </c>
-      <c r="V48" s="20"/>
-      <c r="W48" s="21"/>
+        <v>666.80886532825605</v>
+      </c>
+      <c r="V48" s="21"/>
+      <c r="W48" s="20"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -6509,29 +6511,29 @@
       <c r="N49" s="4">
         <v>7.1346331949414976E-2</v>
       </c>
-      <c r="O49" s="8">
-        <v>287.01385127668857</v>
-      </c>
-      <c r="P49" s="5">
-        <v>167.47147504063375</v>
-      </c>
-      <c r="Q49" s="5">
-        <v>220.963411628725</v>
+      <c r="O49" s="20">
+        <v>304.11057825585601</v>
+      </c>
+      <c r="P49" s="20">
+        <v>190.63463765779301</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>234.04054135673101</v>
       </c>
       <c r="R49" s="5">
-        <v>130.4906171378336</v>
+        <v>84.037059074578394</v>
       </c>
       <c r="S49" s="5">
-        <v>132.55412092915498</v>
+        <v>384.51631035277802</v>
       </c>
       <c r="T49" s="8">
-        <v>219.963411628725</v>
+        <v>1</v>
       </c>
       <c r="U49" s="8">
-        <v>261.882580007782</v>
-      </c>
-      <c r="V49" s="20"/>
-      <c r="W49" s="21"/>
+        <v>545.16591567766898</v>
+      </c>
+      <c r="V49" s="21"/>
+      <c r="W49" s="20"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -6576,29 +6578,29 @@
       <c r="N50" s="4">
         <v>7.3538118434501976E-2</v>
       </c>
-      <c r="O50" s="8">
-        <v>320.53667900768693</v>
-      </c>
-      <c r="P50" s="5">
-        <v>187.03191570463224</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>280.31691744578097</v>
+      <c r="O50" s="20">
+        <v>331.38828516283399</v>
+      </c>
+      <c r="P50" s="20">
+        <v>212.70331798585201</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>289.46733947584698</v>
       </c>
       <c r="R50" s="5">
-        <v>161.73183389433495</v>
+        <v>102.665002996041</v>
       </c>
       <c r="S50" s="5">
-        <v>161.99192421586304</v>
+        <v>477.99336143535203</v>
       </c>
       <c r="T50" s="8">
-        <v>279.31691744578097</v>
+        <v>1</v>
       </c>
       <c r="U50" s="8">
-        <v>328.95356928073807</v>
-      </c>
-      <c r="V50" s="20"/>
-      <c r="W50" s="21"/>
+        <v>672.22038571914004</v>
+      </c>
+      <c r="V50" s="21"/>
+      <c r="W50" s="20"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -6643,29 +6645,29 @@
       <c r="N51" s="4">
         <v>6.8000795419940085E-2</v>
       </c>
-      <c r="O51" s="8">
-        <v>293.11452423570938</v>
-      </c>
-      <c r="P51" s="5">
-        <v>171.03119417837942</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>248.135099019563</v>
+      <c r="O51" s="20">
+        <v>310.43320412276</v>
+      </c>
+      <c r="P51" s="20">
+        <v>193.51541653580901</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>262.42944086789402</v>
       </c>
       <c r="R51" s="5">
-        <v>146.54180732969201</v>
+        <v>98.825890114314504</v>
       </c>
       <c r="S51" s="5">
-        <v>144.69129972498499</v>
+        <v>425.05404721101098</v>
       </c>
       <c r="T51" s="8">
-        <v>247.135099019563</v>
+        <v>1</v>
       </c>
       <c r="U51" s="8">
-        <v>302.61182057280303</v>
-      </c>
-      <c r="V51" s="20"/>
-      <c r="W51" s="21"/>
+        <v>606.93952380048995</v>
+      </c>
+      <c r="V51" s="21"/>
+      <c r="W51" s="20"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -6710,29 +6712,29 @@
       <c r="N52" s="4">
         <v>6.664180062017E-2</v>
       </c>
-      <c r="O52" s="8">
-        <v>296.25059757799744</v>
-      </c>
-      <c r="P52" s="5">
-        <v>172.86108087594607</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>215.455984318953</v>
+      <c r="O52" s="20">
+        <v>311.95307817815899</v>
+      </c>
+      <c r="P52" s="20">
+        <v>195.05876673181501</v>
+      </c>
+      <c r="Q52" s="20">
+        <v>226.91014854348799</v>
       </c>
       <c r="R52" s="5">
-        <v>127.13552666555771</v>
+        <v>84.381995675524394</v>
       </c>
       <c r="S52" s="5">
-        <v>126.86172121021602</v>
+        <v>368.67059939768501</v>
       </c>
       <c r="T52" s="8">
-        <v>214.455984318953</v>
+        <v>1</v>
       </c>
       <c r="U52" s="8">
-        <v>258.28930724556994</v>
-      </c>
-      <c r="V52" s="20"/>
-      <c r="W52" s="21"/>
+        <v>520.403985695703</v>
+      </c>
+      <c r="V52" s="21"/>
+      <c r="W52" s="20"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -6777,29 +6779,29 @@
       <c r="N53" s="4">
         <v>7.7010971835215103E-2</v>
       </c>
-      <c r="O53" s="8">
-        <v>325.92481562036386</v>
-      </c>
-      <c r="P53" s="5">
-        <v>190.17587263295326</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>321.743775408511</v>
+      <c r="O53" s="20">
+        <v>333.91373415036998</v>
+      </c>
+      <c r="P53" s="20">
+        <v>219.39827560087099</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>329.71536944375799</v>
       </c>
       <c r="R53" s="5">
-        <v>186.24084074236899</v>
+        <v>115.233337377225</v>
       </c>
       <c r="S53" s="5">
-        <v>185.27085265807</v>
+        <v>547.97279717121398</v>
       </c>
       <c r="T53" s="8">
-        <v>320.743775408511</v>
+        <v>1</v>
       </c>
       <c r="U53" s="8">
-        <v>380.61710320105095</v>
-      </c>
-      <c r="V53" s="20"/>
-      <c r="W53" s="21"/>
+        <v>772.60049820483096</v>
+      </c>
+      <c r="V53" s="21"/>
+      <c r="W53" s="20"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -6844,29 +6846,29 @@
       <c r="N54" s="4">
         <v>7.052372416546604E-2</v>
       </c>
-      <c r="O54" s="8">
-        <v>361.97955228189289</v>
-      </c>
-      <c r="P54" s="5">
-        <v>211.21367239087144</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>262.73956684894199</v>
+      <c r="O54" s="20">
+        <v>362.62758902538002</v>
+      </c>
+      <c r="P54" s="20">
+        <v>243.53839515152501</v>
+      </c>
+      <c r="Q54" s="20">
+        <v>263.48024953387898</v>
       </c>
       <c r="R54" s="5">
-        <v>152.86852777617699</v>
+        <v>87.895894760092204</v>
       </c>
       <c r="S54" s="5">
-        <v>153.91761772835798</v>
+        <v>440.732170799188</v>
       </c>
       <c r="T54" s="8">
-        <v>261.73956684894199</v>
+        <v>1</v>
       </c>
       <c r="U54" s="8">
-        <v>313.05894712956103</v>
-      </c>
-      <c r="V54" s="20"/>
-      <c r="W54" s="21"/>
+        <v>623.84676497569797</v>
+      </c>
+      <c r="V54" s="21"/>
+      <c r="W54" s="20"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -6911,29 +6913,29 @@
       <c r="N55" s="4">
         <v>7.1537775912013934E-2</v>
       </c>
-      <c r="O55" s="8">
-        <v>335.68751247345557</v>
-      </c>
-      <c r="P55" s="5">
-        <v>195.87236858633378</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>294.94930432664199</v>
+      <c r="O55" s="20">
+        <v>341.02796704484501</v>
+      </c>
+      <c r="P55" s="20">
+        <v>225.07585619999</v>
+      </c>
+      <c r="Q55" s="20">
+        <v>299.61708145275401</v>
       </c>
       <c r="R55" s="5">
-        <v>169.232203260397</v>
+        <v>105.270448084466</v>
       </c>
       <c r="S55" s="5">
-        <v>178.108679613432</v>
+        <v>504.96374740505797</v>
       </c>
       <c r="T55" s="8">
-        <v>293.94930432664199</v>
+        <v>1</v>
       </c>
       <c r="U55" s="8">
-        <v>351.70112153870701</v>
-      </c>
-      <c r="V55" s="20"/>
-      <c r="W55" s="21"/>
+        <v>702.77324702008605</v>
+      </c>
+      <c r="V55" s="21"/>
+      <c r="W55" s="20"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -6978,29 +6980,29 @@
       <c r="N56" s="4">
         <v>8.0758809404192888E-2</v>
       </c>
-      <c r="O56" s="8">
-        <v>240.85119008746258</v>
-      </c>
-      <c r="P56" s="5">
-        <v>140.53574031294673</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>243.03250280499799</v>
+      <c r="O56" s="20">
+        <v>268.21497521382202</v>
+      </c>
+      <c r="P56" s="20">
+        <v>158.19083259496901</v>
+      </c>
+      <c r="Q56" s="20">
+        <v>270.427190850486</v>
       </c>
       <c r="R56" s="5">
-        <v>142.837681420661</v>
+        <v>109.863459200058</v>
       </c>
       <c r="S56" s="5">
-        <v>141.81749962133301</v>
+        <v>430.19729128735702</v>
       </c>
       <c r="T56" s="8">
-        <v>242.03250280499799</v>
+        <v>1</v>
       </c>
       <c r="U56" s="8">
-        <v>287.80960765069801</v>
-      </c>
-      <c r="V56" s="20"/>
-      <c r="W56" s="21"/>
+        <v>597.09498255557696</v>
+      </c>
+      <c r="V56" s="21"/>
+      <c r="W56" s="20"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -7045,29 +7047,29 @@
       <c r="N57" s="4">
         <v>7.8285924278923003E-2</v>
       </c>
-      <c r="O57" s="8">
-        <v>264.18734041354645</v>
-      </c>
-      <c r="P57" s="5">
-        <v>154.15229400711559</v>
-      </c>
-      <c r="Q57" s="5">
-        <v>250.53303412647401</v>
+      <c r="O57" s="20">
+        <v>284.68718645471603</v>
+      </c>
+      <c r="P57" s="20">
+        <v>174.77829662387501</v>
+      </c>
+      <c r="Q57" s="20">
+        <v>270.27000846420998</v>
       </c>
       <c r="R57" s="5">
-        <v>143.47669011444</v>
+        <v>102.359009690858</v>
       </c>
       <c r="S57" s="5">
-        <v>148.88594047008397</v>
+        <v>435.28618764936601</v>
       </c>
       <c r="T57" s="8">
-        <v>249.53303412647401</v>
+        <v>1</v>
       </c>
       <c r="U57" s="8">
-        <v>302.38197441874695</v>
-      </c>
-      <c r="V57" s="20"/>
-      <c r="W57" s="21"/>
+        <v>608.12715940049202</v>
+      </c>
+      <c r="V57" s="21"/>
+      <c r="W57" s="20"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -7112,29 +7114,29 @@
       <c r="N58" s="4">
         <v>8.2120473987596032E-2</v>
       </c>
-      <c r="O58" s="8">
-        <v>327.22083333445272</v>
-      </c>
-      <c r="P58" s="5">
-        <v>190.93209396963022</v>
-      </c>
-      <c r="Q58" s="5">
-        <v>236.26893097618299</v>
+      <c r="O58" s="20">
+        <v>335.49205197421298</v>
+      </c>
+      <c r="P58" s="20">
+        <v>218.24805131132001</v>
+      </c>
+      <c r="Q58" s="20">
+        <v>241.885857568414</v>
       </c>
       <c r="R58" s="5">
-        <v>141.932918627795</v>
+        <v>83.902913767355798</v>
       </c>
       <c r="S58" s="5">
-        <v>143.963528706061</v>
+        <v>405.95638727000198</v>
       </c>
       <c r="T58" s="8">
-        <v>235.26893097618299</v>
+        <v>1</v>
       </c>
       <c r="U58" s="8">
-        <v>291.08761626345404</v>
-      </c>
-      <c r="V58" s="20"/>
-      <c r="W58" s="21"/>
+        <v>579.36144633230504</v>
+      </c>
+      <c r="V58" s="21"/>
+      <c r="W58" s="20"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -7179,29 +7181,29 @@
       <c r="N59" s="4">
         <v>9.0879511569911031E-2</v>
       </c>
-      <c r="O59" s="8">
-        <v>319.41732424058227</v>
-      </c>
-      <c r="P59" s="5">
-        <v>186.37877651602886</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>286.51458913605001</v>
+      <c r="O59" s="20">
+        <v>333.043261557628</v>
+      </c>
+      <c r="P59" s="20">
+        <v>215.36241354572601</v>
+      </c>
+      <c r="Q59" s="20">
+        <v>298.69813236105199</v>
       </c>
       <c r="R59" s="5">
-        <v>165.464928270716</v>
+        <v>108.467661249887</v>
       </c>
       <c r="S59" s="5">
-        <v>165.66645150279101</v>
+        <v>495.80952149866499</v>
       </c>
       <c r="T59" s="8">
-        <v>285.51458913605001</v>
+        <v>1</v>
       </c>
       <c r="U59" s="8">
-        <v>340.09579635137999</v>
-      </c>
-      <c r="V59" s="20"/>
-      <c r="W59" s="21"/>
+        <v>700.88046905040198</v>
+      </c>
+      <c r="V59" s="21"/>
+      <c r="W59" s="20"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -7246,29 +7248,29 @@
       <c r="N60" s="4">
         <v>9.1082029055707059E-2</v>
       </c>
-      <c r="O60" s="8">
-        <v>281.26735949470554</v>
-      </c>
-      <c r="P60" s="5">
-        <v>164.11841925340684</v>
-      </c>
-      <c r="Q60" s="5">
-        <v>273.34821089162898</v>
+      <c r="O60" s="20">
+        <v>299.74064489662601</v>
+      </c>
+      <c r="P60" s="20">
+        <v>184.809808445611</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>291.55342949592699</v>
       </c>
       <c r="R60" s="5">
-        <v>160.89031146889798</v>
+        <v>115.171922391027</v>
       </c>
       <c r="S60" s="5">
-        <v>159.16762037825401</v>
+        <v>473.55324812548503</v>
       </c>
       <c r="T60" s="8">
-        <v>272.34821089162898</v>
+        <v>1</v>
       </c>
       <c r="U60" s="8">
-        <v>331.00510367033206</v>
-      </c>
-      <c r="V60" s="20"/>
-      <c r="W60" s="21"/>
+        <v>666.47427642941602</v>
+      </c>
+      <c r="V60" s="21"/>
+      <c r="W60" s="20"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -7313,29 +7315,29 @@
       <c r="N61" s="4">
         <v>8.7863612522901979E-2</v>
       </c>
-      <c r="O61" s="8">
-        <v>282.1012806995135</v>
-      </c>
-      <c r="P61" s="5">
-        <v>164.60500905949328</v>
-      </c>
-      <c r="Q61" s="5">
-        <v>304.58840793697698</v>
+      <c r="O61" s="20">
+        <v>299.48291452050597</v>
+      </c>
+      <c r="P61" s="20">
+        <v>188.76118162370801</v>
+      </c>
+      <c r="Q61" s="20">
+        <v>322.83417412062801</v>
       </c>
       <c r="R61" s="5">
-        <v>178.19380406306499</v>
+        <v>114.926823394236</v>
       </c>
       <c r="S61" s="5">
-        <v>178.89282466168703</v>
+        <v>525.25883765541505</v>
       </c>
       <c r="T61" s="8">
-        <v>303.58840793697698</v>
+        <v>1</v>
       </c>
       <c r="U61" s="8">
-        <v>356.02051949573206</v>
-      </c>
-      <c r="V61" s="20"/>
-      <c r="W61" s="21"/>
+        <v>742.46628052615404</v>
+      </c>
+      <c r="V61" s="21"/>
+      <c r="W61" s="20"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -7380,29 +7382,29 @@
       <c r="N62" s="4">
         <v>7.8538517589631041E-2</v>
       </c>
-      <c r="O62" s="8">
-        <v>324.12695476685326</v>
-      </c>
-      <c r="P62" s="5">
-        <v>189.12682776032455</v>
-      </c>
-      <c r="Q62" s="5">
-        <v>304.70115672018898</v>
+      <c r="O62" s="20">
+        <v>333.254735102057</v>
+      </c>
+      <c r="P62" s="20">
+        <v>218.19665115968601</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>313.04241651371302</v>
       </c>
       <c r="R62" s="5">
-        <v>178.22591628693698</v>
+        <v>106.713212450431</v>
       </c>
       <c r="S62" s="5">
-        <v>174.58565064039703</v>
+        <v>517.03244941903097</v>
       </c>
       <c r="T62" s="8">
-        <v>303.70115672018898</v>
+        <v>1</v>
       </c>
       <c r="U62" s="8">
-        <v>369.55986096079602</v>
-      </c>
-      <c r="V62" s="20"/>
-      <c r="W62" s="21"/>
+        <v>725.03082363230806</v>
+      </c>
+      <c r="V62" s="21"/>
+      <c r="W62" s="20"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -7447,29 +7449,29 @@
       <c r="N63" s="4">
         <v>7.7373441536981002E-2</v>
       </c>
-      <c r="O63" s="8">
-        <v>320.4072225737437</v>
-      </c>
-      <c r="P63" s="5">
-        <v>186.95637837481507</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>311.506772855333</v>
+      <c r="O63" s="20">
+        <v>330.01322667897102</v>
+      </c>
+      <c r="P63" s="20">
+        <v>215.934008096946</v>
+      </c>
+      <c r="Q63" s="20">
+        <v>320.83307675805099</v>
       </c>
       <c r="R63" s="5">
-        <v>176.13570165323299</v>
+        <v>105.83959728331401</v>
       </c>
       <c r="S63" s="5">
-        <v>188.81623177175203</v>
+        <v>532.32739276167501</v>
       </c>
       <c r="T63" s="8">
-        <v>310.506772855333</v>
+        <v>1</v>
       </c>
       <c r="U63" s="8">
-        <v>376.70613686675506</v>
-      </c>
-      <c r="V63" s="20"/>
-      <c r="W63" s="21"/>
+        <v>750.53162713069696</v>
+      </c>
+      <c r="V63" s="21"/>
+      <c r="W63" s="20"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -7514,29 +7516,29 @@
       <c r="N64" s="4">
         <v>7.1245843589723079E-2</v>
       </c>
-      <c r="O64" s="8">
-        <v>315.56540868145237</v>
-      </c>
-      <c r="P64" s="5">
-        <v>184.13119864635462</v>
-      </c>
-      <c r="Q64" s="5">
-        <v>245.629434320505</v>
+      <c r="O64" s="20">
+        <v>327.80374715432299</v>
+      </c>
+      <c r="P64" s="20">
+        <v>205.86043101555501</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>255.308256976031</v>
       </c>
       <c r="R64" s="5">
-        <v>145.416174794954</v>
+        <v>96.060901545003304</v>
       </c>
       <c r="S64" s="5">
-        <v>143.434681604769</v>
+        <v>418.63969754128101</v>
       </c>
       <c r="T64" s="8">
-        <v>244.629434320505</v>
+        <v>1</v>
       </c>
       <c r="U64" s="8">
-        <v>281.46827126413802</v>
-      </c>
-      <c r="V64" s="20"/>
-      <c r="W64" s="21"/>
+        <v>592.28706738657297</v>
+      </c>
+      <c r="V64" s="21"/>
+      <c r="W64" s="20"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -7581,29 +7583,29 @@
       <c r="N65" s="4">
         <v>7.5642992235238071E-2</v>
       </c>
-      <c r="O65" s="8">
-        <v>361.6236000011416</v>
-      </c>
-      <c r="P65" s="5">
-        <v>211.00597560816797</v>
-      </c>
-      <c r="Q65" s="5">
-        <v>335.86250481526099</v>
+      <c r="O65" s="20">
+        <v>363.64355494951599</v>
+      </c>
+      <c r="P65" s="20">
+        <v>244.00743010267999</v>
+      </c>
+      <c r="Q65" s="20">
+        <v>338.06961645411099</v>
       </c>
       <c r="R65" s="5">
-        <v>192.22926922260299</v>
+        <v>110.74728718666</v>
       </c>
       <c r="S65" s="5">
-        <v>196.43346671125096</v>
+        <v>560.48597065067702</v>
       </c>
       <c r="T65" s="8">
-        <v>334.86250481526099</v>
+        <v>1</v>
       </c>
       <c r="U65" s="8">
-        <v>400.01482278069</v>
-      </c>
-      <c r="V65" s="20"/>
-      <c r="W65" s="21"/>
+        <v>800.87605380882098</v>
+      </c>
+      <c r="V65" s="21"/>
+      <c r="W65" s="20"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -7648,29 +7650,29 @@
       <c r="N66" s="4">
         <v>8.1754931865991032E-2</v>
       </c>
-      <c r="O66" s="8">
-        <v>317.59659543461368</v>
-      </c>
-      <c r="P66" s="5">
-        <v>185.3163882813559</v>
-      </c>
-      <c r="Q66" s="5">
-        <v>306.39835394366901</v>
+      <c r="O66" s="20">
+        <v>327.64787017138201</v>
+      </c>
+      <c r="P66" s="20">
+        <v>211.17627406146499</v>
+      </c>
+      <c r="Q66" s="20">
+        <v>316.43494152369402</v>
       </c>
       <c r="R66" s="5">
-        <v>181.97967920783799</v>
+        <v>113.768653329667</v>
       </c>
       <c r="S66" s="5">
-        <v>178.31520900700798</v>
+        <v>527.99814188283801</v>
       </c>
       <c r="T66" s="8">
-        <v>305.39835394366901</v>
+        <v>1</v>
       </c>
       <c r="U66" s="8">
-        <v>358.98284051986502</v>
-      </c>
-      <c r="V66" s="20"/>
-      <c r="W66" s="21"/>
+        <v>742.18891711817503</v>
+      </c>
+      <c r="V66" s="21"/>
+      <c r="W66" s="20"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -7715,29 +7717,29 @@
       <c r="N67" s="4">
         <v>8.1421022819714084E-2</v>
       </c>
-      <c r="O67" s="8">
-        <v>316.87990185355301</v>
-      </c>
-      <c r="P67" s="5">
-        <v>184.89820034151089</v>
-      </c>
-      <c r="Q67" s="5">
-        <v>328.34315051681801</v>
+      <c r="O67" s="20">
+        <v>330.21863933105197</v>
+      </c>
+      <c r="P67" s="20">
+        <v>215.24540908291399</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>341.93787305811401</v>
       </c>
       <c r="R67" s="5">
-        <v>190.46178190607202</v>
+        <v>113.784736664115</v>
       </c>
       <c r="S67" s="5">
-        <v>189.26577529907001</v>
+        <v>565.873825592603</v>
       </c>
       <c r="T67" s="8">
-        <v>327.34315051681801</v>
+        <v>1</v>
       </c>
       <c r="U67" s="8">
-        <v>382.80681874394702</v>
-      </c>
-      <c r="V67" s="20"/>
-      <c r="W67" s="21"/>
+        <v>797.86038388126894</v>
+      </c>
+      <c r="V67" s="21"/>
+      <c r="W67" s="20"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -7782,29 +7784,29 @@
       <c r="N68" s="4">
         <v>7.6922726685330067E-2</v>
       </c>
-      <c r="O68" s="8">
-        <v>326.50138879411759</v>
-      </c>
-      <c r="P68" s="5">
-        <v>190.51230085566056</v>
-      </c>
-      <c r="Q68" s="5">
-        <v>288.51683701410798</v>
+      <c r="O68" s="20">
+        <v>335.51166615669399</v>
+      </c>
+      <c r="P68" s="20">
+        <v>216.68265776049799</v>
+      </c>
+      <c r="Q68" s="20">
+        <v>296.91039781800902</v>
       </c>
       <c r="R68" s="5">
-        <v>163.36896247543297</v>
+        <v>104.49303364800799</v>
       </c>
       <c r="S68" s="5">
-        <v>168.06213858751602</v>
+        <v>492.181005592894</v>
       </c>
       <c r="T68" s="8">
-        <v>287.51683701410798</v>
+        <v>1</v>
       </c>
       <c r="U68" s="8">
-        <v>342.113259809292</v>
-      </c>
-      <c r="V68" s="20"/>
-      <c r="W68" s="21"/>
+        <v>689.10265695920805</v>
+      </c>
+      <c r="V68" s="21"/>
+      <c r="W68" s="20"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -7849,29 +7851,29 @@
       <c r="N69" s="4">
         <v>8.4082690102728952E-2</v>
       </c>
-      <c r="O69" s="8">
-        <v>316.83695170528466</v>
-      </c>
-      <c r="P69" s="5">
-        <v>184.87313909567996</v>
-      </c>
-      <c r="Q69" s="5">
-        <v>321.76491946784898</v>
+      <c r="O69" s="20">
+        <v>329.14269290843998</v>
+      </c>
+      <c r="P69" s="20">
+        <v>209.59511183684799</v>
+      </c>
+      <c r="Q69" s="20">
+        <v>334.11714743789599</v>
       </c>
       <c r="R69" s="5">
-        <v>188.43688775171998</v>
+        <v>117.420835340854</v>
       </c>
       <c r="S69" s="5">
-        <v>193.63433317515802</v>
+        <v>543.35329997820702</v>
       </c>
       <c r="T69" s="8">
-        <v>320.76491946784898</v>
+        <v>1</v>
       </c>
       <c r="U69" s="8">
-        <v>387.26762756678596</v>
-      </c>
-      <c r="V69" s="20"/>
-      <c r="W69" s="21"/>
+        <v>767.24805786269997</v>
+      </c>
+      <c r="V69" s="21"/>
+      <c r="W69" s="20"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -7916,29 +7918,29 @@
       <c r="N70" s="4">
         <v>8.9923806581170052E-2</v>
       </c>
-      <c r="O70" s="8">
-        <v>331.89593524952994</v>
-      </c>
-      <c r="P70" s="5">
-        <v>193.65999790249123</v>
-      </c>
-      <c r="Q70" s="5">
-        <v>399.90688903409898</v>
+      <c r="O70" s="20">
+        <v>338.32413673187102</v>
+      </c>
+      <c r="P70" s="20">
+        <v>224.72229340759401</v>
+      </c>
+      <c r="Q70" s="20">
+        <v>407.26177743657303</v>
       </c>
       <c r="R70" s="5">
-        <v>231.34793556938499</v>
+        <v>137.269454174717</v>
       </c>
       <c r="S70" s="5">
-        <v>233.70459343949301</v>
+        <v>685.97394208404705</v>
       </c>
       <c r="T70" s="8">
-        <v>398.90688903409898</v>
+        <v>1</v>
       </c>
       <c r="U70" s="8">
-        <v>468.06423886611105</v>
-      </c>
-      <c r="V70" s="20"/>
-      <c r="W70" s="21"/>
+        <v>958.56740773732804</v>
+      </c>
+      <c r="V70" s="21"/>
+      <c r="W70" s="20"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -7983,29 +7985,29 @@
       <c r="N71" s="4">
         <v>9.3302347319379919E-2</v>
       </c>
-      <c r="O71" s="8">
-        <v>315.96689251714366</v>
-      </c>
-      <c r="P71" s="5">
-        <v>184.3654629157239</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>393.97871047877697</v>
+      <c r="O71" s="20">
+        <v>324.58070352782198</v>
+      </c>
+      <c r="P71" s="20">
+        <v>206.65698068394099</v>
+      </c>
+      <c r="Q71" s="20">
+        <v>405.24208056261</v>
       </c>
       <c r="R71" s="5">
-        <v>232.47238425317099</v>
+        <v>145.31296197264899</v>
       </c>
       <c r="S71" s="5">
-        <v>232.95285259396906</v>
+        <v>661.60832381354203</v>
       </c>
       <c r="T71" s="8">
-        <v>392.97871047877697</v>
+        <v>1</v>
       </c>
       <c r="U71" s="8">
-        <v>458.26539142764398</v>
-      </c>
-      <c r="V71" s="20"/>
-      <c r="W71" s="21"/>
+        <v>922.23888943063605</v>
+      </c>
+      <c r="V71" s="21"/>
+      <c r="W71" s="20"/>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -8050,29 +8052,29 @@
       <c r="N72" s="4">
         <v>8.5204731056319982E-2</v>
       </c>
-      <c r="O72" s="8">
-        <v>338.35398332241908</v>
-      </c>
-      <c r="P72" s="5">
-        <v>197.42824404057549</v>
-      </c>
-      <c r="Q72" s="5">
-        <v>374.100587772751</v>
+      <c r="O72" s="20">
+        <v>343.64138318883198</v>
+      </c>
+      <c r="P72" s="20">
+        <v>229.11312282921901</v>
+      </c>
+      <c r="Q72" s="20">
+        <v>380.343097896156</v>
       </c>
       <c r="R72" s="5">
-        <v>218.04635995755299</v>
+        <v>126.239583939661</v>
       </c>
       <c r="S72" s="5">
-        <v>215.74699444686297</v>
+        <v>627.92383512762206</v>
       </c>
       <c r="T72" s="8">
-        <v>373.100587772751</v>
+        <v>1</v>
       </c>
       <c r="U72" s="8">
-        <v>441.40260476927796</v>
-      </c>
-      <c r="V72" s="20"/>
-      <c r="W72" s="21"/>
+        <v>901.06262840758802</v>
+      </c>
+      <c r="V72" s="21"/>
+      <c r="W72" s="20"/>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -8117,29 +8119,29 @@
       <c r="N73" s="4">
         <v>9.3846989242611034E-2</v>
       </c>
-      <c r="O73" s="8">
-        <v>306.84530280774004</v>
-      </c>
-      <c r="P73" s="5">
-        <v>179.04305050756233</v>
-      </c>
-      <c r="Q73" s="5">
-        <v>325.264973072766</v>
+      <c r="O73" s="20">
+        <v>318.759468050007</v>
+      </c>
+      <c r="P73" s="20">
+        <v>203.156651261261</v>
+      </c>
+      <c r="Q73" s="20">
+        <v>338.14930671382001</v>
       </c>
       <c r="R73" s="5">
-        <v>191.23590429241401</v>
+        <v>122.51326738890199</v>
       </c>
       <c r="S73" s="5">
-        <v>188.45084382611901</v>
+        <v>551.84766526721205</v>
       </c>
       <c r="T73" s="8">
-        <v>324.264973072766</v>
+        <v>1</v>
       </c>
       <c r="U73" s="8">
-        <v>388.45619316186401</v>
-      </c>
-      <c r="V73" s="20"/>
-      <c r="W73" s="21"/>
+        <v>779.263355124187</v>
+      </c>
+      <c r="V73" s="21"/>
+      <c r="W73" s="20"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -8184,29 +8186,29 @@
       <c r="N74" s="4">
         <v>7.6912516792689956E-2</v>
       </c>
-      <c r="O74" s="8">
-        <v>277.77556347269768</v>
-      </c>
-      <c r="P74" s="5">
-        <v>162.08096974445289</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>265.930545340479</v>
+      <c r="O74" s="20">
+        <v>294.93915852174598</v>
+      </c>
+      <c r="P74" s="20">
+        <v>181.82008461592901</v>
+      </c>
+      <c r="Q74" s="20">
+        <v>282.42049043828598</v>
       </c>
       <c r="R74" s="5">
-        <v>150.667388552463</v>
+        <v>104.296649245997</v>
       </c>
       <c r="S74" s="5">
-        <v>154.70060163257</v>
+        <v>456.29803118137801</v>
       </c>
       <c r="T74" s="8">
-        <v>264.930545340479</v>
+        <v>1</v>
       </c>
       <c r="U74" s="8">
-        <v>309.65162104947802</v>
-      </c>
-      <c r="V74" s="20"/>
-      <c r="W74" s="21"/>
+        <v>634.63326619508496</v>
+      </c>
+      <c r="V74" s="21"/>
+      <c r="W74" s="20"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -8251,29 +8253,29 @@
       <c r="N75" s="4">
         <v>7.9014892798533021E-2</v>
       </c>
-      <c r="O75" s="8">
-        <v>286.19187407864365</v>
-      </c>
-      <c r="P75" s="5">
-        <v>166.9918545164185</v>
-      </c>
-      <c r="Q75" s="5">
-        <v>200.82167926953699</v>
+      <c r="O75" s="20">
+        <v>303.49936407279699</v>
+      </c>
+      <c r="P75" s="20">
+        <v>187.28270315242401</v>
+      </c>
+      <c r="Q75" s="20">
+        <v>212.61599061826601</v>
       </c>
       <c r="R75" s="5">
-        <v>115.40189826142108</v>
+        <v>77.815993413095299</v>
       </c>
       <c r="S75" s="5">
-        <v>121.259228463955</v>
+        <v>347.07189727349203</v>
       </c>
       <c r="T75" s="8">
-        <v>199.82167926953699</v>
+        <v>1</v>
       </c>
       <c r="U75" s="8">
-        <v>246.60736442004301</v>
-      </c>
-      <c r="V75" s="20"/>
-      <c r="W75" s="21"/>
+        <v>491.32000631179301</v>
+      </c>
+      <c r="V75" s="21"/>
+      <c r="W75" s="20"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -8318,29 +8320,29 @@
       <c r="N76" s="4">
         <v>8.1385050777985968E-2</v>
       </c>
-      <c r="O76" s="8">
-        <v>300.99861826653387</v>
-      </c>
-      <c r="P76" s="5">
-        <v>175.63153263183045</v>
-      </c>
-      <c r="Q76" s="5">
-        <v>249.97430979360601</v>
+      <c r="O76" s="20">
+        <v>311.46888740947401</v>
+      </c>
+      <c r="P76" s="20">
+        <v>199.283476193089</v>
+      </c>
+      <c r="Q76" s="20">
+        <v>258.28028973982703</v>
       </c>
       <c r="R76" s="5">
-        <v>145.336010295421</v>
+        <v>92.551865073093097</v>
       </c>
       <c r="S76" s="5">
-        <v>148.676851872404</v>
+        <v>427.75188161964002</v>
       </c>
       <c r="T76" s="8">
-        <v>248.97430979360601</v>
+        <v>1</v>
       </c>
       <c r="U76" s="8">
-        <v>296.39960691040994</v>
-      </c>
-      <c r="V76" s="20"/>
-      <c r="W76" s="21"/>
+        <v>603.52572386045495</v>
+      </c>
+      <c r="V76" s="21"/>
+      <c r="W76" s="20"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -8385,29 +8387,29 @@
       <c r="N77" s="4">
         <v>9.0607862822576046E-2</v>
       </c>
-      <c r="O77" s="8">
-        <v>312.13833603207348</v>
-      </c>
-      <c r="P77" s="5">
-        <v>182.131514975654</v>
-      </c>
-      <c r="Q77" s="5">
-        <v>287.44327258404002</v>
+      <c r="O77" s="20">
+        <v>325.92641558865301</v>
+      </c>
+      <c r="P77" s="20">
+        <v>209.28477991704801</v>
+      </c>
+      <c r="Q77" s="20">
+        <v>300.208260424625</v>
       </c>
       <c r="R77" s="5">
-        <v>162.40635376480702</v>
+        <v>111.28993083949101</v>
       </c>
       <c r="S77" s="5">
-        <v>171.99770793397198</v>
+        <v>494.37825908382501</v>
       </c>
       <c r="T77" s="8">
-        <v>286.44327258404002</v>
+        <v>1</v>
       </c>
       <c r="U77" s="8">
-        <v>345.399050348461</v>
-      </c>
-      <c r="V77" s="20"/>
-      <c r="W77" s="21"/>
+        <v>700.39282121755002</v>
+      </c>
+      <c r="V77" s="21"/>
+      <c r="W77" s="20"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -8452,29 +8454,29 @@
       <c r="N78" s="4">
         <v>6.0592632377024003E-2</v>
       </c>
-      <c r="O78" s="8">
-        <v>399.52281008678875</v>
-      </c>
-      <c r="P78" s="5">
-        <v>233.1200184938526</v>
-      </c>
-      <c r="Q78" s="5">
-        <v>142.485999881699</v>
+      <c r="O78" s="20">
+        <v>392.21582402850902</v>
+      </c>
+      <c r="P78" s="20">
+        <v>268.74617249163401</v>
+      </c>
+      <c r="Q78" s="20">
+        <v>139.803061406296</v>
       </c>
       <c r="R78" s="5">
-        <v>83.876171196513198</v>
+        <v>41.125799550811699</v>
       </c>
       <c r="S78" s="5">
-        <v>88.474056111035992</v>
+        <v>240.155028986075</v>
       </c>
       <c r="T78" s="8">
-        <v>141.485999881699</v>
+        <v>1</v>
       </c>
       <c r="U78" s="8">
-        <v>184.62633170726701</v>
-      </c>
-      <c r="V78" s="20"/>
-      <c r="W78" s="21"/>
+        <v>358.95454922520997</v>
+      </c>
+      <c r="V78" s="21"/>
+      <c r="W78" s="20"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -8519,29 +8521,29 @@
       <c r="N79" s="4">
         <v>9.5242315048938986E-2</v>
       </c>
-      <c r="O79" s="8">
-        <v>311.28426278881614</v>
-      </c>
-      <c r="P79" s="5">
-        <v>181.63316653287046</v>
-      </c>
-      <c r="Q79" s="5">
-        <v>211.58850534321101</v>
+      <c r="O79" s="20">
+        <v>324.78542797232598</v>
+      </c>
+      <c r="P79" s="20">
+        <v>205.13036172306099</v>
+      </c>
+      <c r="Q79" s="20">
+        <v>220.91147049321199</v>
       </c>
       <c r="R79" s="5">
-        <v>125.89385671348671</v>
+        <v>80.847312029566197</v>
       </c>
       <c r="S79" s="5">
-        <v>127.78707096023101</v>
+        <v>363.95302230540398</v>
       </c>
       <c r="T79" s="8">
-        <v>210.58850534321101</v>
+        <v>1</v>
       </c>
       <c r="U79" s="8">
-        <v>267.06230086928298</v>
-      </c>
-      <c r="V79" s="20"/>
-      <c r="W79" s="21"/>
+        <v>526.472563838258</v>
+      </c>
+      <c r="V79" s="21"/>
+      <c r="W79" s="20"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -8586,29 +8588,29 @@
       <c r="N80" s="4">
         <v>8.6394550656399949E-2</v>
       </c>
-      <c r="O80" s="8">
-        <v>330.57110947693087</v>
-      </c>
-      <c r="P80" s="5">
-        <v>192.886967174803</v>
-      </c>
-      <c r="Q80" s="5">
-        <v>189.71781140696501</v>
+      <c r="O80" s="20">
+        <v>341.59231997339498</v>
+      </c>
+      <c r="P80" s="20">
+        <v>219.846908626539</v>
+      </c>
+      <c r="Q80" s="20">
+        <v>196.27695717063901</v>
       </c>
       <c r="R80" s="5">
-        <v>110.44298841946151</v>
+        <v>68.781777824161594</v>
       </c>
       <c r="S80" s="5">
-        <v>118.428999414549</v>
+        <v>328.828632289783</v>
       </c>
       <c r="T80" s="8">
-        <v>188.71781140696501</v>
+        <v>1</v>
       </c>
       <c r="U80" s="8">
-        <v>239.48703675403399</v>
-      </c>
-      <c r="V80" s="20"/>
-      <c r="W80" s="21"/>
+        <v>470.63327574893901</v>
+      </c>
+      <c r="V80" s="21"/>
+      <c r="W80" s="20"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -8653,29 +8655,29 @@
       <c r="N81" s="4">
         <v>8.0388982042705004E-2</v>
       </c>
-      <c r="O81" s="8">
-        <v>367.67426164571287</v>
-      </c>
-      <c r="P81" s="5">
-        <v>214.53651333685508</v>
-      </c>
-      <c r="Q81" s="5">
-        <v>203.503149915291</v>
+      <c r="O81" s="20">
+        <v>364.98316088666098</v>
+      </c>
+      <c r="P81" s="20">
+        <v>246.60568560322</v>
+      </c>
+      <c r="Q81" s="20">
+        <v>202.02297924212701</v>
       </c>
       <c r="R81" s="5">
-        <v>118.903187259164</v>
+        <v>61.414278662522101</v>
       </c>
       <c r="S81" s="5">
-        <v>122.93904470963301</v>
+        <v>341.44361607359002</v>
       </c>
       <c r="T81" s="8">
-        <v>202.503149915291</v>
+        <v>1</v>
       </c>
       <c r="U81" s="8">
-        <v>261.87183284170897</v>
-      </c>
-      <c r="V81" s="20"/>
-      <c r="W81" s="21"/>
+        <v>502.14728960094197</v>
+      </c>
+      <c r="V81" s="21"/>
+      <c r="W81" s="20"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -8720,29 +8722,29 @@
       <c r="N82" s="4">
         <v>7.5292878666116003E-2</v>
       </c>
-      <c r="O82" s="8">
-        <v>550.50124667064517</v>
-      </c>
-      <c r="P82" s="5">
-        <v>321.21535382891358</v>
-      </c>
-      <c r="Q82" s="5">
-        <v>237.099604382747</v>
+      <c r="O82" s="20">
+        <v>503.82228481044802</v>
+      </c>
+      <c r="P82" s="20">
+        <v>385.03982691209399</v>
+      </c>
+      <c r="Q82" s="20">
+        <v>217.07162576877101</v>
       </c>
       <c r="R82" s="5">
-        <v>139.70321699690902</v>
+        <v>49.857212361811001</v>
       </c>
       <c r="S82" s="5">
-        <v>142.36303692059502</v>
+        <v>391.014568152484</v>
       </c>
       <c r="T82" s="8">
-        <v>236.099604382747</v>
+        <v>1</v>
       </c>
       <c r="U82" s="8">
-        <v>317.36705639845206</v>
-      </c>
-      <c r="V82" s="20"/>
-      <c r="W82" s="21"/>
+        <v>592.11188946320203</v>
+      </c>
+      <c r="V82" s="21"/>
+      <c r="W82" s="20"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -8787,29 +8789,29 @@
       <c r="N83" s="4">
         <v>6.8670034610208985E-2</v>
       </c>
-      <c r="O83" s="8">
-        <v>448.70183228110977</v>
-      </c>
-      <c r="P83" s="5">
-        <v>261.81578823215415</v>
-      </c>
-      <c r="Q83" s="5">
-        <v>218.57596942941601</v>
+      <c r="O83" s="20">
+        <v>432.69359432259398</v>
+      </c>
+      <c r="P83" s="20">
+        <v>300.11618191407501</v>
+      </c>
+      <c r="Q83" s="20">
+        <v>210.927141255039</v>
       </c>
       <c r="R83" s="5">
-        <v>127.21498164323151</v>
+        <v>59.876182432939203</v>
       </c>
       <c r="S83" s="5">
-        <v>133.25863546006499</v>
+        <v>360.50324955487099</v>
       </c>
       <c r="T83" s="8">
-        <v>217.57596942941601</v>
+        <v>1</v>
       </c>
       <c r="U83" s="8">
-        <v>270.388947138454</v>
-      </c>
-      <c r="V83" s="20"/>
-      <c r="W83" s="21"/>
+        <v>527.95129212464599</v>
+      </c>
+      <c r="V83" s="21"/>
+      <c r="W83" s="20"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -8854,29 +8856,29 @@
       <c r="N84" s="4">
         <v>6.6215999705074025E-2</v>
       </c>
-      <c r="O84" s="8">
-        <v>353.43542406661726</v>
-      </c>
-      <c r="P84" s="5">
-        <v>206.22820653692875</v>
-      </c>
-      <c r="Q84" s="5">
-        <v>162.55487003860799</v>
+      <c r="O84" s="20">
+        <v>351.44344910011802</v>
+      </c>
+      <c r="P84" s="20">
+        <v>229.22694809683099</v>
+      </c>
+      <c r="Q84" s="20">
+        <v>161.43475014945801</v>
       </c>
       <c r="R84" s="5">
-        <v>94.101496575323793</v>
+        <v>52.701060141538903</v>
       </c>
       <c r="S84" s="5">
-        <v>98.09196632391604</v>
+        <v>270.03470461087397</v>
       </c>
       <c r="T84" s="8">
-        <v>161.55487003860799</v>
+        <v>1</v>
       </c>
       <c r="U84" s="8">
-        <v>209.78843545149999</v>
-      </c>
-      <c r="V84" s="20"/>
-      <c r="W84" s="21"/>
+        <v>396.79827406852797</v>
+      </c>
+      <c r="V84" s="21"/>
+      <c r="W84" s="20"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -8921,29 +8923,29 @@
       <c r="N85" s="4">
         <v>7.134131625117901E-2</v>
       </c>
-      <c r="O85" s="8">
-        <v>287.5200393495785</v>
-      </c>
-      <c r="P85" s="5">
-        <v>167.76683382850328</v>
-      </c>
-      <c r="Q85" s="5">
-        <v>171.22207810734201</v>
+      <c r="O85" s="20">
+        <v>301.43135408504401</v>
+      </c>
+      <c r="P85" s="20">
+        <v>194.45821498037401</v>
+      </c>
+      <c r="Q85" s="20">
+        <v>179.24957730175799</v>
       </c>
       <c r="R85" s="5">
-        <v>99.972138095058412</v>
+        <v>61.581458602228402</v>
       </c>
       <c r="S85" s="5">
-        <v>99.894743812982</v>
+        <v>297.73612216178901</v>
       </c>
       <c r="T85" s="8">
-        <v>170.22207810734201</v>
+        <v>1</v>
       </c>
       <c r="U85" s="8">
-        <v>209.79587017878097</v>
-      </c>
-      <c r="V85" s="20"/>
-      <c r="W85" s="21"/>
+        <v>430.70075114844002</v>
+      </c>
+      <c r="V85" s="21"/>
+      <c r="W85" s="20"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -8988,29 +8990,29 @@
       <c r="N86" s="4">
         <v>7.7079818497045038E-2</v>
       </c>
-      <c r="O86" s="8">
-        <v>340.45489831369383</v>
-      </c>
-      <c r="P86" s="5">
-        <v>198.65411983353357</v>
-      </c>
-      <c r="Q86" s="5">
-        <v>222.48001038848199</v>
+      <c r="O86" s="20">
+        <v>346.98869302837898</v>
+      </c>
+      <c r="P86" s="20">
+        <v>227.559940547845</v>
+      </c>
+      <c r="Q86" s="20">
+        <v>226.757094670367</v>
       </c>
       <c r="R86" s="5">
-        <v>129.3276963470758</v>
+        <v>77.483102884979004</v>
       </c>
       <c r="S86" s="5">
-        <v>132.19285758919804</v>
+        <v>379.25651488502501</v>
       </c>
       <c r="T86" s="8">
-        <v>221.48001038848199</v>
+        <v>1</v>
       </c>
       <c r="U86" s="8">
-        <v>270.22997321289904</v>
-      </c>
-      <c r="V86" s="20"/>
-      <c r="W86" s="21"/>
+        <v>539.40934722385703</v>
+      </c>
+      <c r="V86" s="21"/>
+      <c r="W86" s="20"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -9055,29 +9057,29 @@
       <c r="N87" s="4">
         <v>6.838793777671498E-2</v>
       </c>
-      <c r="O87" s="8">
-        <v>358.48413514770539</v>
-      </c>
-      <c r="P87" s="5">
-        <v>209.17410997692937</v>
-      </c>
-      <c r="Q87" s="5">
-        <v>198.128654268627</v>
+      <c r="O87" s="20">
+        <v>361.74167894332999</v>
+      </c>
+      <c r="P87" s="20">
+        <v>244.98669965279899</v>
+      </c>
+      <c r="Q87" s="20">
+        <v>200.07181859034301</v>
       </c>
       <c r="R87" s="5">
-        <v>116.5529883111369</v>
+        <v>65.083221419174095</v>
       </c>
       <c r="S87" s="5">
-        <v>119.523890120446</v>
+        <v>340.82797265096002</v>
       </c>
       <c r="T87" s="8">
-        <v>197.128654268627</v>
+        <v>1</v>
       </c>
       <c r="U87" s="8">
-        <v>236.85595548074699</v>
-      </c>
-      <c r="V87" s="20"/>
-      <c r="W87" s="21"/>
+        <v>489.944413769015</v>
+      </c>
+      <c r="V87" s="21"/>
+      <c r="W87" s="20"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -9122,29 +9124,29 @@
       <c r="N88" s="4">
         <v>6.383979596454098E-2</v>
       </c>
-      <c r="O88" s="8">
-        <v>417.66039838516548</v>
-      </c>
-      <c r="P88" s="5">
-        <v>243.70323129873088</v>
-      </c>
-      <c r="Q88" s="5">
-        <v>180.640455411733</v>
+      <c r="O88" s="20">
+        <v>408.182099157793</v>
+      </c>
+      <c r="P88" s="20">
+        <v>284.37885374949298</v>
+      </c>
+      <c r="Q88" s="20">
+        <v>176.462279139527</v>
       </c>
       <c r="R88" s="5">
-        <v>108.3921747489468</v>
+        <v>51.511766937810499</v>
       </c>
       <c r="S88" s="5">
-        <v>108.17724783962399</v>
+        <v>301.71515789896398</v>
       </c>
       <c r="T88" s="8">
-        <v>179.640455411733</v>
+        <v>1</v>
       </c>
       <c r="U88" s="8">
-        <v>226.331131034603</v>
-      </c>
-      <c r="V88" s="20"/>
-      <c r="W88" s="21"/>
+        <v>439.05361272113697</v>
+      </c>
+      <c r="V88" s="21"/>
+      <c r="W88" s="20"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -9189,29 +9191,29 @@
       <c r="N89" s="4">
         <v>6.1848278493864983E-2</v>
       </c>
-      <c r="O89" s="8">
-        <v>548.7579646074131</v>
-      </c>
-      <c r="P89" s="5">
-        <v>320.1981554698703</v>
-      </c>
-      <c r="Q89" s="5">
-        <v>241.23598627152899</v>
+      <c r="O89" s="20">
+        <v>507.28734030317003</v>
+      </c>
+      <c r="P89" s="20">
+        <v>377.78907876024999</v>
+      </c>
+      <c r="Q89" s="20">
+        <v>222.879033981432</v>
       </c>
       <c r="R89" s="5">
-        <v>142.22166893094141</v>
+        <v>57.491112530393103</v>
       </c>
       <c r="S89" s="5">
-        <v>143.76094641218702</v>
+        <v>392.14017652123198</v>
       </c>
       <c r="T89" s="8">
-        <v>240.23598627152899</v>
+        <v>1</v>
       </c>
       <c r="U89" s="8">
-        <v>309.018819509992</v>
-      </c>
-      <c r="V89" s="20"/>
-      <c r="W89" s="21"/>
+        <v>585.23623292584205</v>
+      </c>
+      <c r="V89" s="21"/>
+      <c r="W89" s="20"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -9256,29 +9258,29 @@
       <c r="N90" s="4">
         <v>8.0649306840874013E-2</v>
       </c>
-      <c r="O90" s="8">
-        <v>389.15461504552843</v>
-      </c>
-      <c r="P90" s="5">
-        <v>227.07021668343424</v>
-      </c>
-      <c r="Q90" s="5">
-        <v>193.79233708026399</v>
+      <c r="O90" s="20">
+        <v>379.91112348980801</v>
+      </c>
+      <c r="P90" s="20">
+        <v>258.35195322883499</v>
+      </c>
+      <c r="Q90" s="20">
+        <v>189.23349551051999</v>
       </c>
       <c r="R90" s="5">
-        <v>116.98453022935469</v>
+        <v>58.976881608089499</v>
       </c>
       <c r="S90" s="5">
-        <v>113.35205069378898</v>
+        <v>323.93845195597402</v>
       </c>
       <c r="T90" s="8">
-        <v>192.79233708026399</v>
+        <v>1</v>
       </c>
       <c r="U90" s="8">
-        <v>241.26566655119601</v>
-      </c>
-      <c r="V90" s="20"/>
-      <c r="W90" s="21"/>
+        <v>477.23689862523401</v>
+      </c>
+      <c r="V90" s="21"/>
+      <c r="W90" s="20"/>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -9323,29 +9325,29 @@
       <c r="N91" s="4">
         <v>7.8088475407524949E-2</v>
       </c>
-      <c r="O91" s="8">
-        <v>355.79683442200923</v>
-      </c>
-      <c r="P91" s="5">
-        <v>207.60608036996717</v>
-      </c>
-      <c r="Q91" s="5">
-        <v>192.423097342559</v>
+      <c r="O91" s="20">
+        <v>354.42736404199201</v>
+      </c>
+      <c r="P91" s="20">
+        <v>240.45651192800801</v>
+      </c>
+      <c r="Q91" s="20">
+        <v>191.45132804269201</v>
       </c>
       <c r="R91" s="5">
-        <v>114.2083338092435</v>
+        <v>62.650314488862598</v>
       </c>
       <c r="S91" s="5">
-        <v>118.88658667573202</v>
+        <v>324.05928688176903</v>
       </c>
       <c r="T91" s="8">
-        <v>191.423097342559</v>
+        <v>1</v>
       </c>
       <c r="U91" s="8">
-        <v>240.791791870878</v>
-      </c>
-      <c r="V91" s="20"/>
-      <c r="W91" s="21"/>
+        <v>475.99021189095401</v>
+      </c>
+      <c r="V91" s="21"/>
+      <c r="W91" s="20"/>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -9390,29 +9392,29 @@
       <c r="N92" s="4">
         <v>6.8879796660878956E-2</v>
       </c>
-      <c r="O92" s="8">
-        <v>380.53426356203477</v>
-      </c>
-      <c r="P92" s="5">
-        <v>222.0402748465238</v>
-      </c>
-      <c r="Q92" s="5">
-        <v>190.145372568921</v>
+      <c r="O92" s="20">
+        <v>381.51493702989802</v>
+      </c>
+      <c r="P92" s="20">
+        <v>261.76993921503799</v>
+      </c>
+      <c r="Q92" s="20">
+        <v>190.87777177846701</v>
       </c>
       <c r="R92" s="5">
-        <v>115.5095582080033</v>
+        <v>60.157150042822401</v>
       </c>
       <c r="S92" s="5">
-        <v>111.33554343305997</v>
+        <v>321.96972478110598</v>
       </c>
       <c r="T92" s="8">
-        <v>189.145372568921</v>
+        <v>1</v>
       </c>
       <c r="U92" s="8">
-        <v>233.483684863522</v>
-      </c>
-      <c r="V92" s="20"/>
-      <c r="W92" s="21"/>
+        <v>470.78394794946098</v>
+      </c>
+      <c r="V92" s="21"/>
+      <c r="W92" s="20"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -9457,29 +9459,29 @@
       <c r="N93" s="4">
         <v>6.3234936243403039E-2</v>
       </c>
-      <c r="O93" s="8">
-        <v>358.23729676657604</v>
-      </c>
-      <c r="P93" s="5">
-        <v>209.03008073373957</v>
-      </c>
-      <c r="Q93" s="5">
-        <v>145.35942541268699</v>
+      <c r="O93" s="20">
+        <v>363.995055691397</v>
+      </c>
+      <c r="P93" s="20">
+        <v>244.17569439424901</v>
+      </c>
+      <c r="Q93" s="20">
+        <v>147.69771691236701</v>
       </c>
       <c r="R93" s="5">
-        <v>86.890038510876082</v>
+        <v>44.897359104133002</v>
       </c>
       <c r="S93" s="5">
-        <v>86.846349380951011</v>
+        <v>251.358641631073</v>
       </c>
       <c r="T93" s="8">
-        <v>144.35942541268699</v>
+        <v>1</v>
       </c>
       <c r="U93" s="8">
-        <v>181.947110279481</v>
-      </c>
-      <c r="V93" s="20"/>
-      <c r="W93" s="21"/>
+        <v>369.13926943594498</v>
+      </c>
+      <c r="V93" s="21"/>
+      <c r="W93" s="20"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -9524,29 +9526,29 @@
       <c r="N94" s="4">
         <v>6.5799125469704012E-2</v>
       </c>
-      <c r="O94" s="8">
-        <v>295.38150744027973</v>
-      </c>
-      <c r="P94" s="5">
-        <v>172.35397013317382</v>
-      </c>
-      <c r="Q94" s="5">
-        <v>168.378062768147</v>
+      <c r="O94" s="20">
+        <v>311.71856113300203</v>
+      </c>
+      <c r="P94" s="20">
+        <v>198.36752771026801</v>
+      </c>
+      <c r="Q94" s="20">
+        <v>177.85120011768899</v>
       </c>
       <c r="R94" s="5">
-        <v>100.2173846039981</v>
+        <v>62.0861803507606</v>
       </c>
       <c r="S94" s="5">
-        <v>102.39334799042001</v>
+        <v>293.19896411522001</v>
       </c>
       <c r="T94" s="8">
-        <v>167.378062768147</v>
+        <v>1</v>
       </c>
       <c r="U94" s="8">
-        <v>210.91707810250301</v>
-      </c>
-      <c r="V94" s="20"/>
-      <c r="W94" s="21"/>
+        <v>416.22210930409398</v>
+      </c>
+      <c r="V94" s="21"/>
+      <c r="W94" s="20"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -9591,29 +9593,29 @@
       <c r="N95" s="4">
         <v>6.8115063385765007E-2</v>
       </c>
-      <c r="O95" s="8">
-        <v>328.64995388330465</v>
-      </c>
-      <c r="P95" s="5">
-        <v>191.76598029693633</v>
-      </c>
-      <c r="Q95" s="5">
-        <v>151.47778101625801</v>
+      <c r="O95" s="20">
+        <v>336.190055588581</v>
+      </c>
+      <c r="P95" s="20">
+        <v>217.12522876542999</v>
+      </c>
+      <c r="Q95" s="20">
+        <v>154.86548474292201</v>
       </c>
       <c r="R95" s="5">
-        <v>90.08416939853501</v>
+        <v>52.635755299049997</v>
       </c>
       <c r="S95" s="5">
-        <v>91.854394345939994</v>
+        <v>256.93261375149501</v>
       </c>
       <c r="T95" s="8">
-        <v>150.47778101625801</v>
+        <v>1</v>
       </c>
       <c r="U95" s="8">
-        <v>192.72643239046698</v>
-      </c>
-      <c r="V95" s="20"/>
-      <c r="W95" s="21"/>
+        <v>374.73649472662902</v>
+      </c>
+      <c r="V95" s="21"/>
+      <c r="W95" s="20"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -9658,29 +9660,29 @@
       <c r="N96" s="4">
         <v>0.10998797455572495</v>
       </c>
-      <c r="O96" s="8">
-        <v>314.80216534728123</v>
-      </c>
-      <c r="P96" s="5">
-        <v>183.68584910513911</v>
-      </c>
-      <c r="Q96" s="5">
-        <v>247.90661762577599</v>
+      <c r="O96" s="20">
+        <v>323.10276466264901</v>
+      </c>
+      <c r="P96" s="20">
+        <v>210.381139565121</v>
+      </c>
+      <c r="Q96" s="20">
+        <v>254.36241017216901</v>
       </c>
       <c r="R96" s="5">
-        <v>146.28948701760399</v>
+        <v>88.332389514993494</v>
       </c>
       <c r="S96" s="5">
-        <v>152.86246821379501</v>
+        <v>425.72505564721303</v>
       </c>
       <c r="T96" s="8">
-        <v>246.90661762577599</v>
+        <v>1</v>
       </c>
       <c r="U96" s="8">
-        <v>321.04239878934504</v>
-      </c>
-      <c r="V96" s="20"/>
-      <c r="W96" s="21"/>
+        <v>618.55062565514095</v>
+      </c>
+      <c r="V96" s="21"/>
+      <c r="W96" s="20"/>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -9725,29 +9727,29 @@
       <c r="N97" s="4">
         <v>0.10259454704138005</v>
       </c>
-      <c r="O97" s="8">
-        <v>308.81904449119821</v>
-      </c>
-      <c r="P97" s="5">
-        <v>180.19472116599081</v>
-      </c>
-      <c r="Q97" s="5">
-        <v>246.313150415698</v>
+      <c r="O97" s="20">
+        <v>322.06109356596102</v>
+      </c>
+      <c r="P97" s="20">
+        <v>206.28290160304499</v>
+      </c>
+      <c r="Q97" s="20">
+        <v>256.826241277534</v>
       </c>
       <c r="R97" s="5">
-        <v>144.42172510674902</v>
+        <v>93.392822305466694</v>
       </c>
       <c r="S97" s="5">
-        <v>152.58649660422097</v>
+        <v>427.63028017626601</v>
       </c>
       <c r="T97" s="8">
-        <v>245.313150415698</v>
+        <v>1</v>
       </c>
       <c r="U97" s="8">
-        <v>301.94719791492594</v>
-      </c>
-      <c r="V97" s="20"/>
-      <c r="W97" s="21"/>
+        <v>612.41677124453702</v>
+      </c>
+      <c r="V97" s="21"/>
+      <c r="W97" s="20"/>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -9792,29 +9794,29 @@
       <c r="N98" s="4">
         <v>6.6366232051452978E-2</v>
       </c>
-      <c r="O98" s="8">
-        <v>357.36381935512918</v>
-      </c>
-      <c r="P98" s="5">
-        <v>208.52041003367063</v>
-      </c>
-      <c r="Q98" s="5">
-        <v>173.628575312496</v>
+      <c r="O98" s="20">
+        <v>362.51774988255102</v>
+      </c>
+      <c r="P98" s="20">
+        <v>240.86872930451199</v>
+      </c>
+      <c r="Q98" s="20">
+        <v>176.366966707084</v>
       </c>
       <c r="R98" s="5">
-        <v>104.0372755711724</v>
+        <v>61.991314490483703</v>
       </c>
       <c r="S98" s="5">
-        <v>102.42683367374602</v>
+        <v>295.93887091966599</v>
       </c>
       <c r="T98" s="8">
-        <v>172.628575312496</v>
+        <v>1</v>
       </c>
       <c r="U98" s="8">
-        <v>223.29931652510098</v>
-      </c>
-      <c r="V98" s="20"/>
-      <c r="W98" s="21"/>
+        <v>434.80513014932501</v>
+      </c>
+      <c r="V98" s="21"/>
+      <c r="W98" s="20"/>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -9859,29 +9861,29 @@
       <c r="N99" s="4">
         <v>7.0486902789034078E-2</v>
       </c>
-      <c r="O99" s="8">
-        <v>356.7670579212359</v>
-      </c>
-      <c r="P99" s="5">
-        <v>208.17220203904972</v>
-      </c>
-      <c r="Q99" s="5">
-        <v>196.105197752061</v>
+      <c r="O99" s="20">
+        <v>358.87975137223901</v>
+      </c>
+      <c r="P99" s="20">
+        <v>237.07572806062001</v>
+      </c>
+      <c r="Q99" s="20">
+        <v>197.33258560190001</v>
       </c>
       <c r="R99" s="5">
-        <v>113.4798516111574</v>
+        <v>66.561711074189503</v>
       </c>
       <c r="S99" s="5">
-        <v>118.25690268352199</v>
+        <v>327.91562312123301</v>
       </c>
       <c r="T99" s="8">
-        <v>195.105197752061</v>
+        <v>1</v>
       </c>
       <c r="U99" s="8">
-        <v>242.25316961117798</v>
-      </c>
-      <c r="V99" s="20"/>
-      <c r="W99" s="21"/>
+        <v>474.827553353957</v>
+      </c>
+      <c r="V99" s="21"/>
+      <c r="W99" s="20"/>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -9926,29 +9928,29 @@
       <c r="N100" s="4">
         <v>7.6541794033265997E-2</v>
       </c>
-      <c r="O100" s="8">
-        <v>263.75862633607693</v>
-      </c>
-      <c r="P100" s="5">
-        <v>153.90214099671161</v>
-      </c>
-      <c r="Q100" s="5">
-        <v>192.99689709500399</v>
+      <c r="O100" s="20">
+        <v>282.801526487839</v>
+      </c>
+      <c r="P100" s="20">
+        <v>172.12670087527101</v>
+      </c>
+      <c r="Q100" s="20">
+        <v>207.076153845916</v>
       </c>
       <c r="R100" s="5">
-        <v>114.86973030888169</v>
+        <v>79.591368047715903</v>
       </c>
       <c r="S100" s="5">
-        <v>115.98357662045601</v>
+        <v>334.15412981677798</v>
       </c>
       <c r="T100" s="8">
-        <v>191.99689709500399</v>
+        <v>1</v>
       </c>
       <c r="U100" s="8">
-        <v>233.43203648803103</v>
-      </c>
-      <c r="V100" s="20"/>
-      <c r="W100" s="21"/>
+        <v>467.22503528850302</v>
+      </c>
+      <c r="V100" s="21"/>
+      <c r="W100" s="20"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -9993,29 +9995,29 @@
       <c r="N101" s="4">
         <v>6.1898149802629088E-2</v>
       </c>
-      <c r="O101" s="8">
-        <v>415.99859347337457</v>
-      </c>
-      <c r="P101" s="5">
-        <v>242.73357454324872</v>
-      </c>
-      <c r="Q101" s="5">
-        <v>248.742723699675</v>
+      <c r="O101" s="20">
+        <v>405.83413520590602</v>
+      </c>
+      <c r="P101" s="20">
+        <v>280.20548300627098</v>
+      </c>
+      <c r="Q101" s="20">
+        <v>242.76415209097999</v>
       </c>
       <c r="R101" s="5">
-        <v>146.38410214495201</v>
+        <v>70.813332622065602</v>
       </c>
       <c r="S101" s="5">
-        <v>142.92833419988298</v>
+        <v>412.43908653122497</v>
       </c>
       <c r="T101" s="8">
-        <v>247.742723699675</v>
+        <v>1</v>
       </c>
       <c r="U101" s="8">
-        <v>295.74560454400603</v>
-      </c>
-      <c r="V101" s="20"/>
-      <c r="W101" s="21"/>
+        <v>596.95000605542202</v>
+      </c>
+      <c r="V101" s="21"/>
+      <c r="W101" s="20"/>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -10060,29 +10062,29 @@
       <c r="N102" s="4">
         <v>6.4862008491037015E-2</v>
       </c>
-      <c r="O102" s="8">
-        <v>397.18865966807618</v>
-      </c>
-      <c r="P102" s="5">
-        <v>231.75805072870918</v>
-      </c>
-      <c r="Q102" s="5">
-        <v>170.55393982103899</v>
+      <c r="O102" s="20">
+        <v>389.56954283728902</v>
+      </c>
+      <c r="P102" s="20">
+        <v>268.48285648526502</v>
+      </c>
+      <c r="Q102" s="20">
+        <v>167.46710890599201</v>
       </c>
       <c r="R102" s="5">
-        <v>101.33209697631389</v>
+        <v>49.5835324468826</v>
       </c>
       <c r="S102" s="5">
-        <v>103.93504207895299</v>
+        <v>285.92022972414298</v>
       </c>
       <c r="T102" s="8">
-        <v>169.55393982103899</v>
+        <v>1</v>
       </c>
       <c r="U102" s="8">
-        <v>225.51872919648903</v>
-      </c>
-      <c r="V102" s="20"/>
-      <c r="W102" s="21"/>
+        <v>418.63696520529197</v>
+      </c>
+      <c r="V102" s="21"/>
+      <c r="W102" s="20"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -10127,29 +10129,29 @@
       <c r="N103" s="4">
         <v>7.1923197595546995E-2</v>
       </c>
-      <c r="O103" s="8">
-        <v>358.13168881254813</v>
-      </c>
-      <c r="P103" s="5">
-        <v>208.96845889995558</v>
-      </c>
-      <c r="Q103" s="5">
-        <v>231.75898804262201</v>
+      <c r="O103" s="20">
+        <v>362.96121909720199</v>
+      </c>
+      <c r="P103" s="20">
+        <v>235.05592958682001</v>
+      </c>
+      <c r="Q103" s="20">
+        <v>234.909434966124</v>
       </c>
       <c r="R103" s="5">
-        <v>135.54878164184339</v>
+        <v>80.439963207661705</v>
       </c>
       <c r="S103" s="5">
-        <v>134.25671266075997</v>
+        <v>392.13883884968499</v>
       </c>
       <c r="T103" s="8">
-        <v>230.75898804262201</v>
+        <v>1</v>
       </c>
       <c r="U103" s="8">
-        <v>287.54428073423298</v>
-      </c>
-      <c r="V103" s="20"/>
-      <c r="W103" s="21"/>
+        <v>554.67068109639604</v>
+      </c>
+      <c r="V103" s="21"/>
+      <c r="W103" s="20"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -10194,29 +10196,29 @@
       <c r="N104" s="4">
         <v>7.5498747196985017E-2</v>
       </c>
-      <c r="O104" s="8">
-        <v>311.93993398795919</v>
-      </c>
-      <c r="P104" s="5">
-        <v>182.01574814826537</v>
-      </c>
-      <c r="Q104" s="5">
-        <v>201.98983682072301</v>
+      <c r="O104" s="20">
+        <v>323.47840949865798</v>
+      </c>
+      <c r="P104" s="20">
+        <v>207.08063282117999</v>
+      </c>
+      <c r="Q104" s="20">
+        <v>209.15153906871501</v>
       </c>
       <c r="R104" s="5">
-        <v>118.36346358930021</v>
+        <v>76.249719844507197</v>
       </c>
       <c r="S104" s="5">
-        <v>117.601454686631</v>
+        <v>351.15720809726702</v>
       </c>
       <c r="T104" s="8">
-        <v>200.98983682072301</v>
+        <v>1</v>
       </c>
       <c r="U104" s="8">
-        <v>245.831355490829</v>
-      </c>
-      <c r="V104" s="20"/>
-      <c r="W104" s="21"/>
+        <v>500.929210699875</v>
+      </c>
+      <c r="V104" s="21"/>
+      <c r="W104" s="20"/>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -10261,29 +10263,29 @@
       <c r="N105" s="4">
         <v>6.6080019748803009E-2</v>
       </c>
-      <c r="O105" s="8">
-        <v>439.17441815290812</v>
-      </c>
-      <c r="P105" s="5">
-        <v>256.25657884112474</v>
-      </c>
-      <c r="Q105" s="5">
-        <v>244.133306497804</v>
+      <c r="O105" s="20">
+        <v>422.88712215871698</v>
+      </c>
+      <c r="P105" s="20">
+        <v>303.08505687060199</v>
+      </c>
+      <c r="Q105" s="20">
+        <v>235.14208562472001</v>
       </c>
       <c r="R105" s="5">
-        <v>144.004902255036</v>
+        <v>67.749355573760795</v>
       </c>
       <c r="S105" s="5">
-        <v>146.63268628738402</v>
+        <v>408.85150805370199</v>
       </c>
       <c r="T105" s="8">
-        <v>243.133306497804</v>
+        <v>1</v>
       </c>
       <c r="U105" s="8">
-        <v>297.68330876207995</v>
-      </c>
-      <c r="V105" s="20"/>
-      <c r="W105" s="21"/>
+        <v>587.79200191088103</v>
+      </c>
+      <c r="V105" s="21"/>
+      <c r="W105" s="20"/>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -10328,29 +10330,29 @@
       <c r="N106" s="4">
         <v>6.7666287637870082E-2</v>
       </c>
-      <c r="O106" s="8">
-        <v>383.4205635553127</v>
-      </c>
-      <c r="P106" s="5">
-        <v>223.72441975846414</v>
-      </c>
-      <c r="Q106" s="5">
-        <v>227.36256927308</v>
+      <c r="O106" s="20">
+        <v>383.84489059180902</v>
+      </c>
+      <c r="P106" s="20">
+        <v>262.49686960658499</v>
+      </c>
+      <c r="Q106" s="20">
+        <v>227.70616625545699</v>
       </c>
       <c r="R106" s="5">
-        <v>130.42975111454831</v>
+        <v>73.9946791762126</v>
       </c>
       <c r="S106" s="5">
-        <v>134.20408338316599</v>
+        <v>383.38462569555003</v>
       </c>
       <c r="T106" s="8">
-        <v>226.36256927308</v>
+        <v>1</v>
       </c>
       <c r="U106" s="8">
-        <v>280.95149029499402</v>
-      </c>
-      <c r="V106" s="20"/>
-      <c r="W106" s="21"/>
+        <v>558.26309934666801</v>
+      </c>
+      <c r="V106" s="21"/>
+      <c r="W106" s="20"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -10395,29 +10397,29 @@
       <c r="N107" s="4">
         <v>6.921505700901498E-2</v>
       </c>
-      <c r="O107" s="8">
-        <v>359.28641460588233</v>
-      </c>
-      <c r="P107" s="5">
-        <v>209.64223694591729</v>
-      </c>
-      <c r="Q107" s="5">
-        <v>206.64631029909799</v>
+      <c r="O107" s="20">
+        <v>353.83417444769299</v>
+      </c>
+      <c r="P107" s="20">
+        <v>238.08408871316701</v>
+      </c>
+      <c r="Q107" s="20">
+        <v>203.605788789212</v>
       </c>
       <c r="R107" s="5">
-        <v>121.45554120407068</v>
+        <v>68.324580084447106</v>
       </c>
       <c r="S107" s="5">
-        <v>120.86282763457302</v>
+        <v>344.431706169221</v>
       </c>
       <c r="T107" s="8">
-        <v>205.64631029909799</v>
+        <v>1</v>
       </c>
       <c r="U107" s="8">
-        <v>249.97837585276</v>
-      </c>
-      <c r="V107" s="20"/>
-      <c r="W107" s="21"/>
+        <v>499.55157605699299</v>
+      </c>
+      <c r="V107" s="21"/>
+      <c r="W107" s="20"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -10462,29 +10464,29 @@
       <c r="N108" s="4">
         <v>7.1618143766958964E-2</v>
       </c>
-      <c r="O108" s="8">
-        <v>399.38790345949042</v>
-      </c>
-      <c r="P108" s="5">
-        <v>233.04130099723727</v>
-      </c>
-      <c r="Q108" s="5">
-        <v>241.40711279181099</v>
+      <c r="O108" s="20">
+        <v>393.1077213625</v>
+      </c>
+      <c r="P108" s="20">
+        <v>270.58287978586901</v>
+      </c>
+      <c r="Q108" s="20">
+        <v>237.54599099214201</v>
       </c>
       <c r="R108" s="5">
-        <v>142.2460118082235</v>
+        <v>73.993235059400604</v>
       </c>
       <c r="S108" s="5">
-        <v>142.968600244003</v>
+        <v>399.33008551113102</v>
       </c>
       <c r="T108" s="8">
-        <v>240.40711279181099</v>
+        <v>1</v>
       </c>
       <c r="U108" s="8">
-        <v>295.60261823956102</v>
-      </c>
-      <c r="V108" s="20"/>
-      <c r="W108" s="21"/>
+        <v>580.52363859838101</v>
+      </c>
+      <c r="V108" s="21"/>
+      <c r="W108" s="20"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -10529,29 +10531,29 @@
       <c r="N109" s="4">
         <v>7.4421488641383982E-2</v>
       </c>
-      <c r="O109" s="8">
-        <v>332.33831435834122</v>
-      </c>
-      <c r="P109" s="5">
-        <v>193.91812440596917</v>
-      </c>
-      <c r="Q109" s="5">
-        <v>212.471561292122</v>
+      <c r="O109" s="20">
+        <v>341.56370891699902</v>
+      </c>
+      <c r="P109" s="20">
+        <v>218.58223483050901</v>
+      </c>
+      <c r="Q109" s="20">
+        <v>218.64850007768399</v>
       </c>
       <c r="R109" s="5">
-        <v>125.58470259866181</v>
+        <v>75.320579703841702</v>
       </c>
       <c r="S109" s="5">
-        <v>125.38313851957699</v>
+        <v>356.506644102915</v>
       </c>
       <c r="T109" s="8">
-        <v>211.471561292122</v>
+        <v>1</v>
       </c>
       <c r="U109" s="8">
-        <v>261.14418607831897</v>
-      </c>
-      <c r="V109" s="20"/>
-      <c r="W109" s="21"/>
+        <v>511.74614298539899</v>
+      </c>
+      <c r="V109" s="21"/>
+      <c r="W109" s="20"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -10596,29 +10598,29 @@
       <c r="N110" s="4">
         <v>7.1999699496857028E-2</v>
       </c>
-      <c r="O110" s="8">
-        <v>301.36836120685393</v>
-      </c>
-      <c r="P110" s="5">
-        <v>175.8472762111937</v>
-      </c>
-      <c r="Q110" s="5">
-        <v>204.842213260921</v>
+      <c r="O110" s="20">
+        <v>317.224778306205</v>
+      </c>
+      <c r="P110" s="20">
+        <v>200.16587371131101</v>
+      </c>
+      <c r="Q110" s="20">
+        <v>215.46714905689299</v>
       </c>
       <c r="R110" s="5">
-        <v>120.7921484550551</v>
+        <v>78.259516045422004</v>
       </c>
       <c r="S110" s="5">
-        <v>119.55908542024301</v>
+        <v>354.42210975651199</v>
       </c>
       <c r="T110" s="8">
-        <v>203.842213260921</v>
+        <v>1</v>
       </c>
       <c r="U110" s="8">
-        <v>244.16980362865601</v>
-      </c>
-      <c r="V110" s="20"/>
-      <c r="W110" s="21"/>
+        <v>502.88465323302</v>
+      </c>
+      <c r="V110" s="21"/>
+      <c r="W110" s="20"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -10663,29 +10665,29 @@
       <c r="N111" s="4">
         <v>9.1818943703867006E-2</v>
       </c>
-      <c r="O111" s="8">
-        <v>347.82114781343597</v>
-      </c>
-      <c r="P111" s="5">
-        <v>202.95229800072551</v>
-      </c>
-      <c r="Q111" s="5">
-        <v>237.107859578041</v>
+      <c r="O111" s="20">
+        <v>354.12452807037801</v>
+      </c>
+      <c r="P111" s="20">
+        <v>231.382767932158</v>
+      </c>
+      <c r="Q111" s="20">
+        <v>241.319950846952</v>
       </c>
       <c r="R111" s="5">
-        <v>141.8688061708462</v>
+        <v>78.228996897173403</v>
       </c>
       <c r="S111" s="5">
-        <v>145.28471329151498</v>
+        <v>400.05600317444799</v>
       </c>
       <c r="T111" s="8">
-        <v>236.107859578041</v>
+        <v>1</v>
       </c>
       <c r="U111" s="8">
-        <v>302.33444813104802</v>
-      </c>
-      <c r="V111" s="20"/>
-      <c r="W111" s="21"/>
+        <v>584.704203488384</v>
+      </c>
+      <c r="V111" s="21"/>
+      <c r="W111" s="20"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -10730,29 +10732,29 @@
       <c r="N112" s="4">
         <v>8.9503560141881988E-2</v>
       </c>
-      <c r="O112" s="8">
-        <v>305.17798702935369</v>
-      </c>
-      <c r="P112" s="5">
-        <v>178.07017818268034</v>
-      </c>
-      <c r="Q112" s="5">
-        <v>265.908361062133</v>
+      <c r="O112" s="20">
+        <v>317.22643113453199</v>
+      </c>
+      <c r="P112" s="20">
+        <v>204.11400172477599</v>
+      </c>
+      <c r="Q112" s="20">
+        <v>276.209143671611</v>
       </c>
       <c r="R112" s="5">
-        <v>156.20119692664201</v>
+        <v>99.251572878914402</v>
       </c>
       <c r="S112" s="5">
-        <v>158.86234797951101</v>
+        <v>457.873607996408</v>
       </c>
       <c r="T112" s="8">
-        <v>264.908361062133</v>
+        <v>1</v>
       </c>
       <c r="U112" s="8">
-        <v>324.80564178193703</v>
-      </c>
-      <c r="V112" s="20"/>
-      <c r="W112" s="21"/>
+        <v>656.471386128679</v>
+      </c>
+      <c r="V112" s="21"/>
+      <c r="W112" s="20"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -10797,29 +10799,29 @@
       <c r="N113" s="4">
         <v>7.6501282086354983E-2</v>
       </c>
-      <c r="O113" s="8">
-        <v>338.87713458518942</v>
-      </c>
-      <c r="P113" s="5">
-        <v>197.73350078430335</v>
-      </c>
-      <c r="Q113" s="5">
-        <v>211.397253900734</v>
+      <c r="O113" s="20">
+        <v>341.76635791548199</v>
+      </c>
+      <c r="P113" s="20">
+        <v>229.67658765005001</v>
+      </c>
+      <c r="Q113" s="20">
+        <v>213.34534984011</v>
       </c>
       <c r="R113" s="5">
-        <v>118.2597297572562</v>
+        <v>70.092895176387998</v>
       </c>
       <c r="S113" s="5">
-        <v>125.18464771122999</v>
+        <v>357.89425975706098</v>
       </c>
       <c r="T113" s="8">
-        <v>210.397253900734</v>
+        <v>1</v>
       </c>
       <c r="U113" s="8">
-        <v>257.84084735675299</v>
-      </c>
-      <c r="V113" s="20"/>
-      <c r="W113" s="21"/>
+        <v>515.82279540862498</v>
+      </c>
+      <c r="V113" s="21"/>
+      <c r="W113" s="20"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -10864,29 +10866,29 @@
       <c r="N114" s="4">
         <v>6.8836326873821019E-2</v>
       </c>
-      <c r="O114" s="8">
-        <v>416.36102886026964</v>
-      </c>
-      <c r="P114" s="5">
-        <v>242.94505419337793</v>
-      </c>
-      <c r="Q114" s="5">
-        <v>267.77056811460199</v>
+      <c r="O114" s="20">
+        <v>403.530090801254</v>
+      </c>
+      <c r="P114" s="20">
+        <v>276.37644363647701</v>
+      </c>
+      <c r="Q114" s="20">
+        <v>259.82092945658798</v>
       </c>
       <c r="R114" s="5">
-        <v>153.60294461013899</v>
+        <v>80.430416822173797</v>
       </c>
       <c r="S114" s="5">
-        <v>161.28776338075204</v>
+        <v>438.006967026518</v>
       </c>
       <c r="T114" s="8">
-        <v>266.77056811460199</v>
+        <v>1</v>
       </c>
       <c r="U114" s="8">
-        <v>320.78433279433904</v>
-      </c>
-      <c r="V114" s="20"/>
-      <c r="W114" s="21"/>
+        <v>629.19215658299299</v>
+      </c>
+      <c r="V114" s="21"/>
+      <c r="W114" s="20"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -10931,29 +10933,29 @@
       <c r="N115" s="4">
         <v>7.6002567674056998E-2</v>
       </c>
-      <c r="O115" s="8">
-        <v>338.36945191143377</v>
-      </c>
-      <c r="P115" s="5">
-        <v>197.43726990259418</v>
-      </c>
-      <c r="Q115" s="5">
-        <v>237.62790428619101</v>
+      <c r="O115" s="20">
+        <v>344.48085304562699</v>
+      </c>
+      <c r="P115" s="20">
+        <v>224.030073652076</v>
+      </c>
+      <c r="Q115" s="20">
+        <v>241.58208909061901</v>
       </c>
       <c r="R115" s="5">
-        <v>137.45608924278201</v>
+        <v>84.140986046162396</v>
       </c>
       <c r="S115" s="5">
-        <v>143.20357330654198</v>
+        <v>400.23055507679197</v>
       </c>
       <c r="T115" s="8">
-        <v>236.62790428619101</v>
+        <v>1</v>
       </c>
       <c r="U115" s="8">
-        <v>285.49587518492501</v>
-      </c>
-      <c r="V115" s="20"/>
-      <c r="W115" s="21"/>
+        <v>568.86425447633997</v>
+      </c>
+      <c r="V115" s="21"/>
+      <c r="W115" s="20"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -10998,29 +11000,29 @@
       <c r="N116" s="4">
         <v>7.4910041444648967E-2</v>
       </c>
-      <c r="O116" s="8">
-        <v>345.48366363940914</v>
-      </c>
-      <c r="P116" s="5">
-        <v>201.58838500221648</v>
-      </c>
-      <c r="Q116" s="5">
-        <v>213.06432125804</v>
+      <c r="O116" s="20">
+        <v>347.644483667945</v>
+      </c>
+      <c r="P116" s="20">
+        <v>230.92631229958801</v>
+      </c>
+      <c r="Q116" s="20">
+        <v>214.616179026179</v>
       </c>
       <c r="R116" s="5">
-        <v>124.53521600331429</v>
+        <v>74.442501740835098</v>
       </c>
       <c r="S116" s="5">
-        <v>127.17968082942801</v>
+        <v>358.30228905666399</v>
       </c>
       <c r="T116" s="8">
-        <v>212.06432125804</v>
+        <v>1</v>
       </c>
       <c r="U116" s="8">
-        <v>263.11927384398905</v>
-      </c>
-      <c r="V116" s="20"/>
-      <c r="W116" s="21"/>
+        <v>514.53551820648397</v>
+      </c>
+      <c r="V116" s="21"/>
+      <c r="W116" s="20"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -11065,29 +11067,29 @@
       <c r="N117" s="4">
         <v>6.207405961357898E-2</v>
       </c>
-      <c r="O117" s="8">
-        <v>451.47891259972192</v>
-      </c>
-      <c r="P117" s="5">
-        <v>263.43620388525085</v>
-      </c>
-      <c r="Q117" s="5">
-        <v>242.645204020536</v>
+      <c r="O117" s="20">
+        <v>426.93627970082298</v>
+      </c>
+      <c r="P117" s="20">
+        <v>303.90436878257401</v>
+      </c>
+      <c r="Q117" s="20">
+        <v>229.48912834067301</v>
       </c>
       <c r="R117" s="5">
-        <v>141.94668817717999</v>
+        <v>61.636054203581899</v>
       </c>
       <c r="S117" s="5">
-        <v>143.66520796135998</v>
+        <v>389.48167171456402</v>
       </c>
       <c r="T117" s="8">
-        <v>241.645204020536</v>
+        <v>1</v>
       </c>
       <c r="U117" s="8">
-        <v>295.96470107348205</v>
-      </c>
-      <c r="V117" s="20"/>
-      <c r="W117" s="21"/>
+        <v>573.34391288934899</v>
+      </c>
+      <c r="V117" s="21"/>
+      <c r="W117" s="20"/>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -11132,29 +11134,29 @@
       <c r="N118" s="4">
         <v>6.6495210156468976E-2</v>
       </c>
-      <c r="O118" s="8">
-        <v>368.61774565405483</v>
-      </c>
-      <c r="P118" s="5">
-        <v>215.08703261615616</v>
-      </c>
-      <c r="Q118" s="5">
-        <v>205.69836669340199</v>
+      <c r="O118" s="20">
+        <v>366.926595125711</v>
+      </c>
+      <c r="P118" s="20">
+        <v>243.21333485533901</v>
+      </c>
+      <c r="Q118" s="20">
+        <v>204.79562217798801</v>
       </c>
       <c r="R118" s="5">
-        <v>125.8665798449415</v>
+        <v>65.931726148081694</v>
       </c>
       <c r="S118" s="5">
-        <v>119.37080083241798</v>
+        <v>341.933289968964</v>
       </c>
       <c r="T118" s="8">
-        <v>204.69836669340199</v>
+        <v>1</v>
       </c>
       <c r="U118" s="8">
-        <v>256.40869318621696</v>
-      </c>
-      <c r="V118" s="20"/>
-      <c r="W118" s="21"/>
+        <v>492.25475029385501</v>
+      </c>
+      <c r="V118" s="21"/>
+      <c r="W118" s="20"/>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -11199,29 +11201,29 @@
       <c r="N119" s="4">
         <v>7.0883400179238998E-2</v>
       </c>
-      <c r="O119" s="8">
-        <v>354.27541303797136</v>
-      </c>
-      <c r="P119" s="5">
-        <v>206.718336861388</v>
-      </c>
-      <c r="Q119" s="5">
-        <v>211.41871280470701</v>
+      <c r="O119" s="20">
+        <v>356.76223884360599</v>
+      </c>
+      <c r="P119" s="20">
+        <v>236.51961328742701</v>
+      </c>
+      <c r="Q119" s="20">
+        <v>213.04464747397</v>
       </c>
       <c r="R119" s="5">
-        <v>126.02912183453232</v>
+        <v>68.379858335208894</v>
       </c>
       <c r="S119" s="5">
-        <v>121.181960517449</v>
+        <v>356.30250512382099</v>
       </c>
       <c r="T119" s="8">
-        <v>210.41871280470701</v>
+        <v>1</v>
       </c>
       <c r="U119" s="8">
-        <v>260.30961673247401</v>
-      </c>
-      <c r="V119" s="20"/>
-      <c r="W119" s="21"/>
+        <v>512.41370950720898</v>
+      </c>
+      <c r="V119" s="21"/>
+      <c r="W119" s="20"/>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -11266,29 +11268,29 @@
       <c r="N120" s="4">
         <v>7.0310658619782918E-2</v>
       </c>
-      <c r="O120" s="8">
-        <v>336.09906949784175</v>
-      </c>
-      <c r="P120" s="5">
-        <v>196.11251052244842</v>
-      </c>
-      <c r="Q120" s="5">
-        <v>230.24218092446799</v>
+      <c r="O120" s="20">
+        <v>343.53286308433098</v>
+      </c>
+      <c r="P120" s="20">
+        <v>223.55043942503099</v>
+      </c>
+      <c r="Q120" s="20">
+        <v>235.654654908282</v>
       </c>
       <c r="R120" s="5">
-        <v>133.69156188557378</v>
+        <v>79.936542941751298</v>
       </c>
       <c r="S120" s="5">
-        <v>134.85787608106202</v>
+        <v>389.24996334216797</v>
       </c>
       <c r="T120" s="8">
-        <v>229.24218092446799</v>
+        <v>1</v>
       </c>
       <c r="U120" s="8">
-        <v>277.87946962977799</v>
-      </c>
-      <c r="V120" s="20"/>
-      <c r="W120" s="21"/>
+        <v>554.788023018986</v>
+      </c>
+      <c r="V120" s="21"/>
+      <c r="W120" s="20"/>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -11333,29 +11335,29 @@
       <c r="N121" s="4">
         <v>8.2261990793522033E-2</v>
       </c>
-      <c r="O121" s="8">
-        <v>288.92623356335446</v>
-      </c>
-      <c r="P121" s="5">
-        <v>168.58734272773282</v>
-      </c>
-      <c r="Q121" s="5">
-        <v>214.01151176703499</v>
+      <c r="O121" s="20">
+        <v>306.93486883064497</v>
+      </c>
+      <c r="P121" s="20">
+        <v>191.829431593827</v>
+      </c>
+      <c r="Q121" s="20">
+        <v>227.39899140982601</v>
       </c>
       <c r="R121" s="5">
-        <v>125.55331113166189</v>
+        <v>80.723836393146996</v>
       </c>
       <c r="S121" s="5">
-        <v>126.733815285833</v>
+        <v>370.922404731114</v>
       </c>
       <c r="T121" s="8">
-        <v>213.01151176703499</v>
+        <v>1</v>
       </c>
       <c r="U121" s="8">
-        <v>268.46279386765298</v>
-      </c>
-      <c r="V121" s="20"/>
-      <c r="W121" s="21"/>
+        <v>530.41557555854899</v>
+      </c>
+      <c r="V121" s="21"/>
+      <c r="W121" s="20"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -11400,29 +11402,29 @@
       <c r="N122" s="4">
         <v>7.5823235631216956E-2</v>
       </c>
-      <c r="O122" s="8">
-        <v>337.22446878726009</v>
-      </c>
-      <c r="P122" s="5">
-        <v>196.76917666650456</v>
-      </c>
-      <c r="Q122" s="5">
-        <v>252.46254625563199</v>
+      <c r="O122" s="20">
+        <v>345.04601300896502</v>
+      </c>
+      <c r="P122" s="20">
+        <v>227.730174568363</v>
+      </c>
+      <c r="Q122" s="20">
+        <v>258.28368495362599</v>
       </c>
       <c r="R122" s="5">
-        <v>147.79838852994999</v>
+        <v>85.993026778388398</v>
       </c>
       <c r="S122" s="5">
-        <v>146.05024419206399</v>
+        <v>431.20231832744702</v>
       </c>
       <c r="T122" s="8">
-        <v>251.46254625563199</v>
+        <v>1</v>
       </c>
       <c r="U122" s="8">
-        <v>307.11515748694399</v>
-      </c>
-      <c r="V122" s="20"/>
-      <c r="W122" s="21"/>
+        <v>613.287596184226</v>
+      </c>
+      <c r="V122" s="21"/>
+      <c r="W122" s="20"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -11467,29 +11469,29 @@
       <c r="N123" s="4">
         <v>8.4296101049905037E-2</v>
       </c>
-      <c r="O123" s="8">
-        <v>351.71015900062105</v>
-      </c>
-      <c r="P123" s="5">
-        <v>205.22152102627052</v>
-      </c>
-      <c r="Q123" s="5">
-        <v>282.14582244424298</v>
+      <c r="O123" s="20">
+        <v>352.81121523424298</v>
+      </c>
+      <c r="P123" s="20">
+        <v>229.878286702157</v>
+      </c>
+      <c r="Q123" s="20">
+        <v>283.18054731770798</v>
       </c>
       <c r="R123" s="5">
-        <v>169.28092427186499</v>
+        <v>99.349507720821904</v>
       </c>
       <c r="S123" s="5">
-        <v>166.77050565701302</v>
+        <v>469.640738063745</v>
       </c>
       <c r="T123" s="8">
-        <v>281.14582244424298</v>
+        <v>1</v>
       </c>
       <c r="U123" s="8">
-        <v>345.02475319740404</v>
-      </c>
-      <c r="V123" s="20"/>
-      <c r="W123" s="21"/>
+        <v>673.60615821973499</v>
+      </c>
+      <c r="V123" s="21"/>
+      <c r="W123" s="20"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -11534,29 +11536,29 @@
       <c r="N124" s="4">
         <v>7.4730726478686949E-2</v>
       </c>
-      <c r="O124" s="8">
-        <v>308.43565721889655</v>
-      </c>
-      <c r="P124" s="5">
-        <v>179.97101617155042</v>
-      </c>
-      <c r="Q124" s="5">
-        <v>170.82234377625099</v>
+      <c r="O124" s="20">
+        <v>320.313990459031</v>
+      </c>
+      <c r="P124" s="20">
+        <v>205.891958650959</v>
+      </c>
+      <c r="Q124" s="20">
+        <v>177.227077130563</v>
       </c>
       <c r="R124" s="5">
-        <v>103.67273201095819</v>
+        <v>65.362561580209402</v>
       </c>
       <c r="S124" s="5">
-        <v>103.66000029766701</v>
+        <v>293.85545948217299</v>
       </c>
       <c r="T124" s="8">
-        <v>169.82234377625099</v>
+        <v>1</v>
       </c>
       <c r="U124" s="8">
-        <v>215.49371645298004</v>
-      </c>
-      <c r="V124" s="20"/>
-      <c r="W124" s="21"/>
+        <v>423.02171674340099</v>
+      </c>
+      <c r="V124" s="21"/>
+      <c r="W124" s="20"/>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -11601,29 +11603,29 @@
       <c r="N125" s="4">
         <v>7.2928282084535001E-2</v>
       </c>
-      <c r="O125" s="8">
-        <v>328.15262905893007</v>
-      </c>
-      <c r="P125" s="5">
-        <v>191.47579318038481</v>
-      </c>
-      <c r="Q125" s="5">
-        <v>177.11017567331601</v>
+      <c r="O125" s="20">
+        <v>338.62922501016101</v>
+      </c>
+      <c r="P125" s="20">
+        <v>218.845847150336</v>
+      </c>
+      <c r="Q125" s="20">
+        <v>182.96470675222801</v>
       </c>
       <c r="R125" s="5">
-        <v>103.14637631599261</v>
+        <v>62.675433860575303</v>
       </c>
       <c r="S125" s="5">
-        <v>108.52881541922801</v>
+        <v>299.77378094987</v>
       </c>
       <c r="T125" s="8">
-        <v>176.11017567331601</v>
+        <v>1</v>
       </c>
       <c r="U125" s="8">
-        <v>218.824956352203</v>
-      </c>
-      <c r="V125" s="20"/>
-      <c r="W125" s="21"/>
+        <v>439.17074519600197</v>
+      </c>
+      <c r="V125" s="21"/>
+      <c r="W125" s="20"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -11668,29 +11670,29 @@
       <c r="N126" s="4">
         <v>5.7340986581808029E-2</v>
       </c>
-      <c r="O126" s="8">
-        <v>376.83759290507879</v>
-      </c>
-      <c r="P126" s="5">
-        <v>219.88328177839824</v>
-      </c>
-      <c r="Q126" s="5">
-        <v>184.663354240069</v>
+      <c r="O126" s="20">
+        <v>377.336077715469</v>
+      </c>
+      <c r="P126" s="20">
+        <v>255.57063738709601</v>
+      </c>
+      <c r="Q126" s="20">
+        <v>184.74293929316201</v>
       </c>
       <c r="R126" s="5">
-        <v>108.96199391444409</v>
+        <v>58.063756926418499</v>
       </c>
       <c r="S126" s="5">
-        <v>105.92597901303702</v>
+        <v>306.77462424338103</v>
       </c>
       <c r="T126" s="8">
-        <v>183.663354240069</v>
+        <v>1</v>
       </c>
       <c r="U126" s="8">
-        <v>225.90718113398299</v>
-      </c>
-      <c r="V126" s="20"/>
-      <c r="W126" s="21"/>
+        <v>444.66835595708301</v>
+      </c>
+      <c r="V126" s="21"/>
+      <c r="W126" s="20"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -11735,29 +11737,29 @@
       <c r="N127" s="4">
         <v>7.1976750514567978E-2</v>
       </c>
-      <c r="O127" s="8">
-        <v>343.46287930003837</v>
-      </c>
-      <c r="P127" s="5">
-        <v>200.40926513553387</v>
-      </c>
-      <c r="Q127" s="5">
-        <v>219.91146603787399</v>
+      <c r="O127" s="20">
+        <v>348.85277758039501</v>
+      </c>
+      <c r="P127" s="20">
+        <v>228.04314582240801</v>
+      </c>
+      <c r="Q127" s="20">
+        <v>223.45675842361101</v>
       </c>
       <c r="R127" s="5">
-        <v>128.6302479558384</v>
+        <v>76.008781537614695</v>
       </c>
       <c r="S127" s="5">
-        <v>131.432404931593</v>
+        <v>370.31687520788</v>
       </c>
       <c r="T127" s="8">
-        <v>218.91146603787399</v>
+        <v>1</v>
       </c>
       <c r="U127" s="8">
-        <v>263.65353906601899</v>
-      </c>
-      <c r="V127" s="20"/>
-      <c r="W127" s="21"/>
+        <v>526.54128684564</v>
+      </c>
+      <c r="V127" s="21"/>
+      <c r="W127" s="20"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -11802,29 +11804,29 @@
       <c r="N128" s="4">
         <v>6.4840353290535058E-2</v>
       </c>
-      <c r="O128" s="8">
-        <v>323.79413954537387</v>
-      </c>
-      <c r="P128" s="5">
-        <v>188.93263136245312</v>
-      </c>
-      <c r="Q128" s="5">
-        <v>184.66538037574301</v>
+      <c r="O128" s="20">
+        <v>331.80975049909802</v>
+      </c>
+      <c r="P128" s="20">
+        <v>217.854309042967</v>
+      </c>
+      <c r="Q128" s="20">
+        <v>189.34532409826599</v>
       </c>
       <c r="R128" s="5">
-        <v>109.56190391438511</v>
+        <v>63.990872790004097</v>
       </c>
       <c r="S128" s="5">
-        <v>106.46720872030798</v>
+        <v>313.53725957194303</v>
       </c>
       <c r="T128" s="8">
-        <v>183.66538037574301</v>
+        <v>1</v>
       </c>
       <c r="U128" s="8">
-        <v>220.16441501681899</v>
-      </c>
-      <c r="V128" s="20"/>
-      <c r="W128" s="21"/>
+        <v>452.08297971317802</v>
+      </c>
+      <c r="V128" s="21"/>
+      <c r="W128" s="20"/>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -11869,29 +11871,29 @@
       <c r="N129" s="4">
         <v>6.6519038205504089E-2</v>
       </c>
-      <c r="O129" s="8">
-        <v>399.74439299314224</v>
-      </c>
-      <c r="P129" s="5">
-        <v>233.2493112649357</v>
-      </c>
-      <c r="Q129" s="5">
-        <v>257.42155900650403</v>
+      <c r="O129" s="20">
+        <v>389.028345282651</v>
+      </c>
+      <c r="P129" s="20">
+        <v>270.33440344235697</v>
+      </c>
+      <c r="Q129" s="20">
+        <v>250.50254164172901</v>
       </c>
       <c r="R129" s="5">
-        <v>151.40839293752703</v>
+        <v>78.814384846324202</v>
       </c>
       <c r="S129" s="5">
-        <v>148.46187527452599</v>
+        <v>427.00208851751302</v>
       </c>
       <c r="T129" s="8">
-        <v>256.42155900650403</v>
+        <v>1</v>
       </c>
       <c r="U129" s="8">
-        <v>313.62475732161499</v>
-      </c>
-      <c r="V129" s="20"/>
-      <c r="W129" s="21"/>
+        <v>609.96193545035499</v>
+      </c>
+      <c r="V129" s="21"/>
+      <c r="W129" s="20"/>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -11936,29 +11938,29 @@
       <c r="N130" s="4">
         <v>8.8194591726218019E-2</v>
       </c>
-      <c r="O130" s="8">
-        <v>290.61526531926256</v>
-      </c>
-      <c r="P130" s="5">
-        <v>169.57288624172759</v>
-      </c>
-      <c r="Q130" s="5">
-        <v>287.84343080330098</v>
+      <c r="O130" s="20">
+        <v>309.58472583754002</v>
+      </c>
+      <c r="P130" s="20">
+        <v>192.90524742337399</v>
+      </c>
+      <c r="Q130" s="20">
+        <v>307.04327749924101</v>
       </c>
       <c r="R130" s="5">
-        <v>170.30850085866697</v>
+        <v>119.496506344956</v>
       </c>
       <c r="S130" s="5">
-        <v>165.60785504030605</v>
+        <v>499.04724832489399</v>
       </c>
       <c r="T130" s="8">
-        <v>286.84343080330098</v>
+        <v>1</v>
       </c>
       <c r="U130" s="8">
-        <v>341.48167309444705</v>
-      </c>
-      <c r="V130" s="20"/>
-      <c r="W130" s="21"/>
+        <v>693.83232822411503</v>
+      </c>
+      <c r="V130" s="21"/>
+      <c r="W130" s="20"/>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -12003,29 +12005,29 @@
       <c r="N131" s="4">
         <v>8.2900221654080064E-2</v>
       </c>
-      <c r="O131" s="8">
-        <v>280.23499670785395</v>
-      </c>
-      <c r="P131" s="5">
-        <v>163.5160395497025</v>
-      </c>
-      <c r="Q131" s="5">
-        <v>237.571363225699</v>
+      <c r="O131" s="20">
+        <v>301.38039579195998</v>
+      </c>
+      <c r="P131" s="20">
+        <v>184.70895743238199</v>
+      </c>
+      <c r="Q131" s="20">
+        <v>255.17505369783601</v>
       </c>
       <c r="R131" s="5">
-        <v>139.35562650822129</v>
+        <v>99.866245922537502</v>
       </c>
       <c r="S131" s="5">
-        <v>137.92218901633001</v>
+        <v>410.00764932797699</v>
       </c>
       <c r="T131" s="8">
-        <v>236.571363225699</v>
+        <v>1</v>
       </c>
       <c r="U131" s="8">
-        <v>284.35939002104601</v>
-      </c>
-      <c r="V131" s="20"/>
-      <c r="W131" s="21"/>
+        <v>579.63440377215898</v>
+      </c>
+      <c r="V131" s="21"/>
+      <c r="W131" s="20"/>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -12070,29 +12072,29 @@
       <c r="N132" s="4">
         <v>6.9523188877936959E-2</v>
       </c>
-      <c r="O132" s="8">
-        <v>354.2675537871815</v>
-      </c>
-      <c r="P132" s="5">
-        <v>206.7137510188698</v>
-      </c>
-      <c r="Q132" s="5">
-        <v>245.190131567241</v>
+      <c r="O132" s="20">
+        <v>355.93940335159698</v>
+      </c>
+      <c r="P132" s="20">
+        <v>238.205561808162</v>
+      </c>
+      <c r="Q132" s="20">
+        <v>246.38916519918101</v>
       </c>
       <c r="R132" s="5">
-        <v>144.52262934353502</v>
+        <v>76.540262226679005</v>
       </c>
       <c r="S132" s="5">
-        <v>144.252049421322</v>
+        <v>411.80970265772498</v>
       </c>
       <c r="T132" s="8">
-        <v>244.190131567241</v>
+        <v>1</v>
       </c>
       <c r="U132" s="8">
-        <v>290.674079729813</v>
-      </c>
-      <c r="V132" s="20"/>
-      <c r="W132" s="21"/>
+        <v>596.10874916387797</v>
+      </c>
+      <c r="V132" s="21"/>
+      <c r="W132" s="20"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -12137,29 +12139,29 @@
       <c r="N133" s="4">
         <v>8.2210411538369943E-2</v>
       </c>
-      <c r="O133" s="8">
-        <v>274.31747812067454</v>
-      </c>
-      <c r="P133" s="5">
-        <v>160.06319028139333</v>
-      </c>
-      <c r="Q133" s="5">
-        <v>211.05279965229801</v>
+      <c r="O133" s="20">
+        <v>293.51022399700099</v>
+      </c>
+      <c r="P133" s="20">
+        <v>178.36449554923999</v>
+      </c>
+      <c r="Q133" s="20">
+        <v>226.196024867055</v>
       </c>
       <c r="R133" s="5">
-        <v>123.7327277837346</v>
+        <v>87.364156229457905</v>
       </c>
       <c r="S133" s="5">
-        <v>122.89406631852199</v>
+        <v>367.10687893983197</v>
       </c>
       <c r="T133" s="8">
-        <v>210.05279965229801</v>
+        <v>1</v>
       </c>
       <c r="U133" s="8">
-        <v>261.033565461808</v>
-      </c>
-      <c r="V133" s="20"/>
-      <c r="W133" s="21"/>
+        <v>514.75524808227601</v>
+      </c>
+      <c r="V133" s="21"/>
+      <c r="W133" s="20"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -12204,29 +12206,29 @@
       <c r="N134" s="4">
         <v>8.0804441057626963E-2</v>
       </c>
-      <c r="O134" s="8">
-        <v>348.75081784454727</v>
-      </c>
-      <c r="P134" s="5">
-        <v>203.49475687760111</v>
-      </c>
-      <c r="Q134" s="5">
-        <v>263.13640110742801</v>
+      <c r="O134" s="20">
+        <v>349.31464906542902</v>
+      </c>
+      <c r="P134" s="20">
+        <v>235.368048732745</v>
+      </c>
+      <c r="Q134" s="20">
+        <v>263.32441187036102</v>
       </c>
       <c r="R134" s="5">
-        <v>155.03293714826702</v>
+        <v>84.142428033230601</v>
       </c>
       <c r="S134" s="5">
-        <v>151.74723655745896</v>
+        <v>445.44292267403603</v>
       </c>
       <c r="T134" s="8">
-        <v>262.13640110742801</v>
+        <v>1</v>
       </c>
       <c r="U134" s="8">
-        <v>313.10760623977797</v>
-      </c>
-      <c r="V134" s="20"/>
-      <c r="W134" s="21"/>
+        <v>632.41966074742504</v>
+      </c>
+      <c r="V134" s="21"/>
+      <c r="W134" s="20"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -12271,29 +12273,29 @@
       <c r="N135" s="4">
         <v>8.0154191112080109E-2</v>
       </c>
-      <c r="O135" s="8">
-        <v>263.09383822763812</v>
-      </c>
-      <c r="P135" s="5">
-        <v>153.51423969991188</v>
-      </c>
-      <c r="Q135" s="5">
-        <v>217.06214779650799</v>
+      <c r="O135" s="20">
+        <v>282.473940300663</v>
+      </c>
+      <c r="P135" s="20">
+        <v>170.90031249876699</v>
+      </c>
+      <c r="Q135" s="20">
+        <v>232.660430580222</v>
       </c>
       <c r="R135" s="5">
-        <v>128.67959954764069</v>
+        <v>87.831304323024895</v>
       </c>
       <c r="S135" s="5">
-        <v>127.91726420098399</v>
+        <v>376.09173621890801</v>
       </c>
       <c r="T135" s="8">
-        <v>216.06214779650799</v>
+        <v>1</v>
       </c>
       <c r="U135" s="8">
-        <v>258.13707336762701</v>
-      </c>
-      <c r="V135" s="20"/>
-      <c r="W135" s="21"/>
+        <v>532.34642404036094</v>
+      </c>
+      <c r="V135" s="21"/>
+      <c r="W135" s="20"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -12338,29 +12340,29 @@
       <c r="N136" s="4">
         <v>8.193312105707895E-2</v>
       </c>
-      <c r="O136" s="8">
-        <v>325.92668649486637</v>
-      </c>
-      <c r="P136" s="5">
-        <v>190.17696428100842</v>
-      </c>
-      <c r="Q136" s="5">
-        <v>320.95855042466599</v>
+      <c r="O136" s="20">
+        <v>337.66453214445602</v>
+      </c>
+      <c r="P136" s="20">
+        <v>218.04670017770701</v>
+      </c>
+      <c r="Q136" s="20">
+        <v>317.443831574721</v>
       </c>
       <c r="R136" s="5">
-        <v>194.38871759059197</v>
+        <v>110.48255589553099</v>
       </c>
       <c r="S136" s="5">
-        <v>166.93101077354601</v>
+        <v>521.47924794584003</v>
       </c>
       <c r="T136" s="8">
-        <v>319.95855042466599</v>
+        <v>1</v>
       </c>
       <c r="U136" s="8">
-        <v>351.467017725245</v>
-      </c>
-      <c r="V136" s="20"/>
-      <c r="W136" s="21"/>
+        <v>736.11887502553805</v>
+      </c>
+      <c r="V136" s="21"/>
+      <c r="W136" s="20"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -12405,29 +12407,29 @@
       <c r="N137" s="4">
         <v>7.3432914924053017E-2</v>
       </c>
-      <c r="O137" s="8">
-        <v>339.83735125931332</v>
-      </c>
-      <c r="P137" s="5">
-        <v>198.29378350954062</v>
-      </c>
-      <c r="Q137" s="5">
-        <v>252.397842780818</v>
+      <c r="O137" s="20">
+        <v>348.85720368481799</v>
+      </c>
+      <c r="P137" s="20">
+        <v>226.02153335333401</v>
+      </c>
+      <c r="Q137" s="20">
+        <v>248.912186569244</v>
       </c>
       <c r="R137" s="5">
-        <v>150.76231066710699</v>
+        <v>88.5490303053774</v>
       </c>
       <c r="S137" s="5">
-        <v>127.26338651920901</v>
+        <v>414.66821644951102</v>
       </c>
       <c r="T137" s="8">
-        <v>251.397842780818</v>
+        <v>1</v>
       </c>
       <c r="U137" s="8">
-        <v>287.21046340676503</v>
-      </c>
-      <c r="V137" s="20"/>
-      <c r="W137" s="21"/>
+        <v>588.18060873718298</v>
+      </c>
+      <c r="V137" s="21"/>
+      <c r="W137" s="20"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -12472,29 +12474,29 @@
       <c r="N138" s="4">
         <v>6.8326663311566005E-2</v>
       </c>
-      <c r="O138" s="8">
-        <v>404.6036093055327</v>
-      </c>
-      <c r="P138" s="5">
-        <v>236.08464523839274</v>
-      </c>
-      <c r="Q138" s="5">
-        <v>238.39746821326901</v>
+      <c r="O138" s="20">
+        <v>397.40914874455802</v>
+      </c>
+      <c r="P138" s="20">
+        <v>273.84055652487098</v>
+      </c>
+      <c r="Q138" s="20">
+        <v>231.16784807084699</v>
       </c>
       <c r="R138" s="5">
-        <v>139.58198616740799</v>
+        <v>69.297878998502497</v>
       </c>
       <c r="S138" s="5">
-        <v>137.74440611016502</v>
+        <v>387.49902311761599</v>
       </c>
       <c r="T138" s="8">
-        <v>237.39746821326901</v>
+        <v>1</v>
       </c>
       <c r="U138" s="8">
-        <v>291.88516793444501</v>
-      </c>
-      <c r="V138" s="20"/>
-      <c r="W138" s="21"/>
+        <v>574.98035211521403</v>
+      </c>
+      <c r="V138" s="21"/>
+      <c r="W138" s="20"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -12539,29 +12541,29 @@
       <c r="N139" s="4">
         <v>0.10251090173706401</v>
       </c>
-      <c r="O139" s="8">
-        <v>317.30983831672859</v>
-      </c>
-      <c r="P139" s="5">
-        <v>185.14906660925888</v>
-      </c>
-      <c r="Q139" s="5">
-        <v>344.75424282050301</v>
+      <c r="O139" s="20">
+        <v>329.80436974692901</v>
+      </c>
+      <c r="P139" s="20">
+        <v>215.769095339427</v>
+      </c>
+      <c r="Q139" s="20">
+        <v>340.445448543792</v>
       </c>
       <c r="R139" s="5">
-        <v>206.348248841605</v>
+        <v>112.280135167613</v>
       </c>
       <c r="S139" s="5">
-        <v>173.96645654920599</v>
+        <v>560.62665740288003</v>
       </c>
       <c r="T139" s="8">
-        <v>343.75424282050301</v>
+        <v>1</v>
       </c>
       <c r="U139" s="8">
-        <v>378.23500956526004</v>
-      </c>
-      <c r="V139" s="20"/>
-      <c r="W139" s="21"/>
+        <v>798.29937001806002</v>
+      </c>
+      <c r="V139" s="21"/>
+      <c r="W139" s="20"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -12606,29 +12608,29 @@
       <c r="N140" s="4">
         <v>9.1666520743985069E-2</v>
       </c>
-      <c r="O140" s="8">
-        <v>323.65134825542509</v>
-      </c>
-      <c r="P140" s="5">
-        <v>188.84931319559706</v>
-      </c>
-      <c r="Q140" s="5">
-        <v>265.93239742560399</v>
+      <c r="O140" s="20">
+        <v>333.131774101117</v>
+      </c>
+      <c r="P140" s="20">
+        <v>214.00054074179599</v>
+      </c>
+      <c r="Q140" s="20">
+        <v>260.650686583327</v>
       </c>
       <c r="R140" s="5">
-        <v>160.291524829916</v>
+        <v>91.0522791242105</v>
       </c>
       <c r="S140" s="5">
-        <v>135.23804561703702</v>
+        <v>432.54544405117502</v>
       </c>
       <c r="T140" s="8">
-        <v>264.93239742560399</v>
+        <v>1</v>
       </c>
       <c r="U140" s="8">
-        <v>295.69527922336101</v>
-      </c>
-      <c r="V140" s="20"/>
-      <c r="W140" s="21"/>
+        <v>608.08486943993</v>
+      </c>
+      <c r="V140" s="21"/>
+      <c r="W140" s="20"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -12673,29 +12675,29 @@
       <c r="N141" s="4">
         <v>7.1180829122023059E-2</v>
       </c>
-      <c r="O141" s="8">
-        <v>425.76483741973476</v>
-      </c>
-      <c r="P141" s="5">
-        <v>248.43214021186819</v>
-      </c>
-      <c r="Q141" s="5">
-        <v>314.01951504322</v>
+      <c r="O141" s="20">
+        <v>408.20693158814601</v>
+      </c>
+      <c r="P141" s="20">
+        <v>289.44467169021698</v>
+      </c>
+      <c r="Q141" s="20">
+        <v>299.88384552799403</v>
       </c>
       <c r="R141" s="5">
-        <v>181.12039883542801</v>
+        <v>84.985408006260499</v>
       </c>
       <c r="S141" s="5">
-        <v>186.26533772154102</v>
+        <v>514.35206256840297</v>
       </c>
       <c r="T141" s="8">
-        <v>313.01951504322</v>
+        <v>1</v>
       </c>
       <c r="U141" s="8">
-        <v>370.05013622454902</v>
-      </c>
-      <c r="V141" s="20"/>
-      <c r="W141" s="21"/>
+        <v>730.05215721456</v>
+      </c>
+      <c r="V141" s="21"/>
+      <c r="W141" s="20"/>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -12740,29 +12742,29 @@
       <c r="N142" s="4">
         <v>7.4013504216770998E-2</v>
       </c>
-      <c r="O142" s="8">
-        <v>330.50235610789105</v>
-      </c>
-      <c r="P142" s="5">
-        <v>192.84684984919002</v>
-      </c>
-      <c r="Q142" s="5">
-        <v>273.20623950433099</v>
+      <c r="O142" s="20">
+        <v>340.96979590729501</v>
+      </c>
+      <c r="P142" s="20">
+        <v>222.42699727096701</v>
+      </c>
+      <c r="Q142" s="20">
+        <v>269.45565822468598</v>
       </c>
       <c r="R142" s="5">
-        <v>162.732255484257</v>
+        <v>94.2480946103191</v>
       </c>
       <c r="S142" s="5">
-        <v>140.47227227521802</v>
+        <v>447.296157895134</v>
       </c>
       <c r="T142" s="8">
-        <v>272.20623950433099</v>
+        <v>1</v>
       </c>
       <c r="U142" s="8">
-        <v>298.96039713172098</v>
-      </c>
-      <c r="V142" s="20"/>
-      <c r="W142" s="21"/>
+        <v>632.48860471847195</v>
+      </c>
+      <c r="V142" s="21"/>
+      <c r="W142" s="20"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">

--- a/data/Dataset S1.xlsx
+++ b/data/Dataset S1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiawei/Documents/Work/2019- glacial CO2/Glacial_CO2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4C3758-48DD-DF4E-BBC0-C28F5AE0A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7430F8C-FB08-7F4B-A6B1-CCB88000878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="-20160" windowWidth="21000" windowHeight="18880" activeTab="1" xr2:uid="{F264F01B-AE22-4945-AD16-2719434C6BE8}"/>
+    <workbookView xWindow="11260" yWindow="640" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{F264F01B-AE22-4945-AD16-2719434C6BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="800ky" sheetId="1" r:id="rId1"/>
@@ -3234,9 +3234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0910CBD0-BDC1-514A-8AB0-A05DF07425DA}">
   <dimension ref="A1:W149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U119" sqref="U119"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R130" sqref="R130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3363,10 +3363,10 @@
         <v>0.11774306683324098</v>
       </c>
       <c r="O2" s="20">
-        <v>277.098059895147</v>
+        <v>275.05990892102301</v>
       </c>
       <c r="P2" s="20">
-        <v>163.64866070728701</v>
+        <v>166.523728560444</v>
       </c>
       <c r="Q2" s="20">
         <v>285.74249746790798</v>
@@ -3430,10 +3430,10 @@
         <v>7.2110459750780009E-2</v>
       </c>
       <c r="O3" s="20">
-        <v>323.06318300313802</v>
+        <v>325.81563693649099</v>
       </c>
       <c r="P3" s="20">
-        <v>212.62966675698701</v>
+        <v>212.12865302913499</v>
       </c>
       <c r="Q3" s="20">
         <v>254.111915585606</v>
@@ -3497,10 +3497,10 @@
         <v>7.7552290842182958E-2</v>
       </c>
       <c r="O4" s="20">
-        <v>343.547262795623</v>
+        <v>339.990327233926</v>
       </c>
       <c r="P4" s="20">
-        <v>228.22063531639299</v>
+        <v>223.86336215905001</v>
       </c>
       <c r="Q4" s="20">
         <v>273.044968232158</v>
@@ -3564,10 +3564,10 @@
         <v>8.2219838398265965E-2</v>
       </c>
       <c r="O5" s="20">
-        <v>294.390321744125</v>
+        <v>293.99582117641501</v>
       </c>
       <c r="P5" s="20">
-        <v>182.08028559034901</v>
+        <v>181.966673621826</v>
       </c>
       <c r="Q5" s="20">
         <v>257.96354774874601</v>
@@ -3631,10 +3631,10 @@
         <v>8.275869751950593E-2</v>
       </c>
       <c r="O6" s="20">
-        <v>359.61749823993</v>
+        <v>357.498194007503</v>
       </c>
       <c r="P6" s="20">
-        <v>235.00859962950099</v>
+        <v>241.259013827225</v>
       </c>
       <c r="Q6" s="20">
         <v>266.82227324807701</v>
@@ -3698,10 +3698,10 @@
         <v>8.6104975660626026E-2</v>
       </c>
       <c r="O7" s="20">
-        <v>357.95670688528702</v>
+        <v>357.74276472431399</v>
       </c>
       <c r="P7" s="20">
-        <v>236.78030689372099</v>
+        <v>236.38788892898299</v>
       </c>
       <c r="Q7" s="20">
         <v>277.53761243685602</v>
@@ -3765,10 +3765,10 @@
         <v>8.7052890623066981E-2</v>
       </c>
       <c r="O8" s="20">
-        <v>287.96589686199502</v>
+        <v>287.215466229605</v>
       </c>
       <c r="P8" s="20">
-        <v>173.902060348731</v>
+        <v>176.117509144216</v>
       </c>
       <c r="Q8" s="20">
         <v>224.73831148055501</v>
@@ -3832,10 +3832,10 @@
         <v>7.5501759071539998E-2</v>
       </c>
       <c r="O9" s="20">
-        <v>321.93590400280101</v>
+        <v>322.150738479425</v>
       </c>
       <c r="P9" s="20">
-        <v>205.578385066214</v>
+        <v>205.51369977973201</v>
       </c>
       <c r="Q9" s="20">
         <v>235.91536052685299</v>
@@ -3899,10 +3899,10 @@
         <v>7.4618029737118952E-2</v>
       </c>
       <c r="O10" s="20">
-        <v>298.88429909265602</v>
+        <v>299.629608293442</v>
       </c>
       <c r="P10" s="20">
-        <v>182.68167872756001</v>
+        <v>185.40757902392301</v>
       </c>
       <c r="Q10" s="20">
         <v>226.556047922201</v>
@@ -3966,10 +3966,10 @@
         <v>7.8838604618668984E-2</v>
       </c>
       <c r="O11" s="20">
-        <v>362.97473631237301</v>
+        <v>363.49977110362698</v>
       </c>
       <c r="P11" s="20">
-        <v>242.014078210468</v>
+        <v>245.52908777209399</v>
       </c>
       <c r="Q11" s="20">
         <v>275.422213316382</v>
@@ -4033,10 +4033,10 @@
         <v>8.7129658259115006E-2</v>
       </c>
       <c r="O12" s="20">
-        <v>323.249277178049</v>
+        <v>321.38053533315002</v>
       </c>
       <c r="P12" s="20">
-        <v>209.160678439203</v>
+        <v>206.547739734017</v>
       </c>
       <c r="Q12" s="20">
         <v>269.44364703486599</v>
@@ -4100,10 +4100,10 @@
         <v>7.955409812932801E-2</v>
       </c>
       <c r="O13" s="20">
-        <v>388.60011311492002</v>
+        <v>382.51989351144698</v>
       </c>
       <c r="P13" s="20">
-        <v>265.30754287436901</v>
+        <v>261.75983747149701</v>
       </c>
       <c r="Q13" s="20">
         <v>270.886424382548</v>
@@ -4167,10 +4167,10 @@
         <v>6.3518858556129043E-2</v>
       </c>
       <c r="O14" s="20">
-        <v>358.62470991794999</v>
+        <v>355.47543979311502</v>
       </c>
       <c r="P14" s="20">
-        <v>232.98584373611101</v>
+        <v>242.26856124225401</v>
       </c>
       <c r="Q14" s="20">
         <v>246.42809520637101</v>
@@ -4234,10 +4234,10 @@
         <v>7.494963798696197E-2</v>
       </c>
       <c r="O15" s="20">
-        <v>340.30665618287497</v>
+        <v>346.28910004608298</v>
       </c>
       <c r="P15" s="20">
-        <v>233.041553469375</v>
+        <v>226.19160029471499</v>
       </c>
       <c r="Q15" s="20">
         <v>279.54670393407798</v>
@@ -4301,10 +4301,10 @@
         <v>6.7591304232513028E-2</v>
       </c>
       <c r="O16" s="20">
-        <v>305.71395008681401</v>
+        <v>306.81579952877399</v>
       </c>
       <c r="P16" s="20">
-        <v>191.89785048746299</v>
+        <v>190.246435038588</v>
       </c>
       <c r="Q16" s="20">
         <v>202.35950858367201</v>
@@ -4368,10 +4368,10 @@
         <v>7.5299378924631011E-2</v>
       </c>
       <c r="O17" s="20">
-        <v>300.50158534382598</v>
+        <v>301.551011367456</v>
       </c>
       <c r="P17" s="20">
-        <v>186.716977005247</v>
+        <v>190.008478346348</v>
       </c>
       <c r="Q17" s="20">
         <v>239.79874676652599</v>
@@ -4435,10 +4435,10 @@
         <v>6.9790001252274969E-2</v>
       </c>
       <c r="O18" s="20">
-        <v>365.64453088107001</v>
+        <v>360.89349533282802</v>
       </c>
       <c r="P18" s="20">
-        <v>245.530355133603</v>
+        <v>243.355675720042</v>
       </c>
       <c r="Q18" s="20">
         <v>268.94134917631698</v>
@@ -4502,10 +4502,10 @@
         <v>0.11040031056381205</v>
       </c>
       <c r="O19" s="20">
-        <v>305.18124033696898</v>
+        <v>304.65805920557602</v>
       </c>
       <c r="P19" s="20">
-        <v>190.61862794819999</v>
+        <v>188.73601720493801</v>
       </c>
       <c r="Q19" s="20">
         <v>288.22822347184899</v>
@@ -4569,10 +4569,10 @@
         <v>8.2403052213596006E-2</v>
       </c>
       <c r="O20" s="20">
-        <v>327.85301419599898</v>
+        <v>327.45187615769999</v>
       </c>
       <c r="P20" s="20">
-        <v>213.44428860402701</v>
+        <v>210.179153987018</v>
       </c>
       <c r="Q20" s="20">
         <v>283.88629430072501</v>
@@ -4636,10 +4636,10 @@
         <v>8.1637053179921981E-2</v>
       </c>
       <c r="O21" s="20">
-        <v>355.012881508183</v>
+        <v>352.069132966719</v>
       </c>
       <c r="P21" s="20">
-        <v>238.73441539143801</v>
+        <v>234.17804471120201</v>
       </c>
       <c r="Q21" s="20">
         <v>300.13363940392202</v>
@@ -4703,10 +4703,10 @@
         <v>8.4913109881111004E-2</v>
       </c>
       <c r="O22" s="20">
-        <v>333.73612742995198</v>
+        <v>333.72940592007598</v>
       </c>
       <c r="P22" s="20">
-        <v>215.720054040121</v>
+        <v>215.047972899097</v>
       </c>
       <c r="Q22" s="20">
         <v>290.99315701149101</v>
@@ -4770,10 +4770,10 @@
         <v>6.8141184372843E-2</v>
       </c>
       <c r="O23" s="20">
-        <v>362.96539582858099</v>
+        <v>353.89820295305702</v>
       </c>
       <c r="P23" s="20">
-        <v>236.164111577017</v>
+        <v>236.38228787383201</v>
       </c>
       <c r="Q23" s="20">
         <v>232.404493540282</v>
@@ -4837,10 +4837,10 @@
         <v>7.5702762690264991E-2</v>
       </c>
       <c r="O24" s="20">
-        <v>390.85648214902</v>
+        <v>391.10424819921701</v>
       </c>
       <c r="P24" s="20">
-        <v>266.61768009479999</v>
+        <v>269.48989287806302</v>
       </c>
       <c r="Q24" s="20">
         <v>284.94161792192801</v>
@@ -4904,10 +4904,10 @@
         <v>6.6009546864687962E-2</v>
       </c>
       <c r="O25" s="20">
-        <v>345.157873564569</v>
+        <v>352.39333883828101</v>
       </c>
       <c r="P25" s="20">
-        <v>233.28481969972199</v>
+        <v>230.52985261430501</v>
       </c>
       <c r="Q25" s="20">
         <v>263.85056536792803</v>
@@ -4971,10 +4971,10 @@
         <v>7.1870612011475044E-2</v>
       </c>
       <c r="O26" s="20">
-        <v>371.64175143434102</v>
+        <v>370.721235034816</v>
       </c>
       <c r="P26" s="20">
-        <v>253.10206206139</v>
+        <v>249.72012505790599</v>
       </c>
       <c r="Q26" s="20">
         <v>274.31904179402602</v>
@@ -5038,10 +5038,10 @@
         <v>7.4181746142529037E-2</v>
       </c>
       <c r="O27" s="20">
-        <v>345.82580363280402</v>
+        <v>341.120510421787</v>
       </c>
       <c r="P27" s="20">
-        <v>220.26006477316099</v>
+        <v>220.93533053870701</v>
       </c>
       <c r="Q27" s="20">
         <v>291.368249629834</v>
@@ -5105,10 +5105,10 @@
         <v>7.6426787090498993E-2</v>
       </c>
       <c r="O28" s="20">
-        <v>332.02477792684101</v>
+        <v>327.80829464249803</v>
       </c>
       <c r="P28" s="20">
-        <v>211.464078615939</v>
+        <v>209.13796923953001</v>
       </c>
       <c r="Q28" s="20">
         <v>241.338373458446</v>
@@ -5172,10 +5172,10 @@
         <v>9.3251237190713043E-2</v>
       </c>
       <c r="O29" s="20">
-        <v>369.65188401175197</v>
+        <v>375.09245394928303</v>
       </c>
       <c r="P29" s="20">
-        <v>250.696245597955</v>
+        <v>249.39165189553901</v>
       </c>
       <c r="Q29" s="20">
         <v>285.747528614614</v>
@@ -5239,10 +5239,10 @@
         <v>9.5902953402935975E-2</v>
       </c>
       <c r="O30" s="20">
-        <v>331.083435096779</v>
+        <v>324.93825963798002</v>
       </c>
       <c r="P30" s="20">
-        <v>209.29360287336499</v>
+        <v>211.47708329814699</v>
       </c>
       <c r="Q30" s="20">
         <v>282.44175835299097</v>
@@ -5306,10 +5306,10 @@
         <v>8.2544145506610045E-2</v>
       </c>
       <c r="O31" s="20">
-        <v>381.326480825403</v>
+        <v>374.64466078528102</v>
       </c>
       <c r="P31" s="20">
-        <v>263.71029651651202</v>
+        <v>258.97010099462801</v>
       </c>
       <c r="Q31" s="20">
         <v>289.56687490125802</v>
@@ -5373,10 +5373,10 @@
         <v>8.9009107644232976E-2</v>
       </c>
       <c r="O32" s="20">
-        <v>363.25038353475998</v>
+        <v>360.80311147788598</v>
       </c>
       <c r="P32" s="20">
-        <v>237.677722609733</v>
+        <v>235.40995306655</v>
       </c>
       <c r="Q32" s="20">
         <v>301.51702943857202</v>
@@ -5440,10 +5440,10 @@
         <v>7.4022408247875982E-2</v>
       </c>
       <c r="O33" s="20">
-        <v>325.46490890830898</v>
+        <v>328.443645847261</v>
       </c>
       <c r="P33" s="20">
-        <v>208.79718250738401</v>
+        <v>208.76553576671699</v>
       </c>
       <c r="Q33" s="20">
         <v>286.97227343992398</v>
@@ -5507,10 +5507,10 @@
         <v>7.4485018480038967E-2</v>
       </c>
       <c r="O34" s="20">
-        <v>351.970369065554</v>
+        <v>355.93531181943399</v>
       </c>
       <c r="P34" s="20">
-        <v>237.452613327352</v>
+        <v>232.84504573319199</v>
       </c>
       <c r="Q34" s="20">
         <v>289.41368567135697</v>
@@ -5574,10 +5574,10 @@
         <v>8.7232352287009984E-2</v>
       </c>
       <c r="O35" s="20">
-        <v>345.38825788466897</v>
+        <v>345.76146147804297</v>
       </c>
       <c r="P35" s="20">
-        <v>228.24390204568499</v>
+        <v>229.97524803207801</v>
       </c>
       <c r="Q35" s="20">
         <v>286.35488969491001</v>
@@ -5641,10 +5641,10 @@
         <v>7.8969784829205913E-2</v>
       </c>
       <c r="O36" s="20">
-        <v>363.275785923417</v>
+        <v>360.124593796093</v>
       </c>
       <c r="P36" s="20">
-        <v>240.680677268761</v>
+        <v>237.97634436231601</v>
       </c>
       <c r="Q36" s="20">
         <v>275.97922037085698</v>
@@ -5708,10 +5708,10 @@
         <v>8.3922007514109054E-2</v>
       </c>
       <c r="O37" s="20">
-        <v>311.03792118654002</v>
+        <v>309.80851572037801</v>
       </c>
       <c r="P37" s="20">
-        <v>194.42646207617199</v>
+        <v>196.761751109637</v>
       </c>
       <c r="Q37" s="20">
         <v>257.06489531037101</v>
@@ -5775,10 +5775,10 @@
         <v>6.7179236256302954E-2</v>
       </c>
       <c r="O38" s="20">
-        <v>331.23919078294301</v>
+        <v>328.66081187706197</v>
       </c>
       <c r="P38" s="20">
-        <v>216.76395244944001</v>
+        <v>212.78024415860801</v>
       </c>
       <c r="Q38" s="20">
         <v>263.539041171799</v>
@@ -5842,10 +5842,10 @@
         <v>6.6758983342224076E-2</v>
       </c>
       <c r="O39" s="20">
-        <v>332.07845968915399</v>
+        <v>329.36065705008798</v>
       </c>
       <c r="P39" s="20">
-        <v>216.21127625752899</v>
+        <v>216.78109120714399</v>
       </c>
       <c r="Q39" s="20">
         <v>267.41777170965702</v>
@@ -5909,10 +5909,10 @@
         <v>7.2581718884781043E-2</v>
       </c>
       <c r="O40" s="20">
-        <v>299.97183179029901</v>
+        <v>300.914648628534</v>
       </c>
       <c r="P40" s="20">
-        <v>185.331585037509</v>
+        <v>183.32643826908199</v>
       </c>
       <c r="Q40" s="20">
         <v>274.44076053746602</v>
@@ -5976,10 +5976,10 @@
         <v>7.0831360153829959E-2</v>
       </c>
       <c r="O41" s="20">
-        <v>278.57418279442101</v>
+        <v>277.09266605820801</v>
       </c>
       <c r="P41" s="20">
-        <v>167.55955226123299</v>
+        <v>168.707081717752</v>
       </c>
       <c r="Q41" s="20">
         <v>250.684309846986</v>
@@ -6043,10 +6043,10 @@
         <v>7.4821679672221975E-2</v>
       </c>
       <c r="O42" s="20">
-        <v>277.66867939413402</v>
+        <v>276.37159083058299</v>
       </c>
       <c r="P42" s="20">
-        <v>166.35474039722001</v>
+        <v>166.100298704284</v>
       </c>
       <c r="Q42" s="20">
         <v>256.48858690446701</v>
@@ -6110,10 +6110,10 @@
         <v>7.7143465245062992E-2</v>
       </c>
       <c r="O43" s="20">
-        <v>299.37887015001502</v>
+        <v>293.84381746517403</v>
       </c>
       <c r="P43" s="20">
-        <v>186.24359883837499</v>
+        <v>185.90381716844999</v>
       </c>
       <c r="Q43" s="20">
         <v>284.09181635291799</v>
@@ -6177,10 +6177,10 @@
         <v>8.0717798041996081E-2</v>
       </c>
       <c r="O44" s="20">
-        <v>301.48935611833701</v>
+        <v>301.76971217555598</v>
       </c>
       <c r="P44" s="20">
-        <v>189.01282999298701</v>
+        <v>188.76995178429999</v>
       </c>
       <c r="Q44" s="20">
         <v>263.974904521143</v>
@@ -6244,10 +6244,10 @@
         <v>8.375588587552496E-2</v>
       </c>
       <c r="O45" s="20">
-        <v>302.42065855016898</v>
+        <v>306.30040885535499</v>
       </c>
       <c r="P45" s="20">
-        <v>187.874409158822</v>
+        <v>189.79229125605201</v>
       </c>
       <c r="Q45" s="20">
         <v>288.96449340846198</v>
@@ -6311,10 +6311,10 @@
         <v>8.3838896830189968E-2</v>
       </c>
       <c r="O46" s="20">
-        <v>310.659937344931</v>
+        <v>307.33672794812998</v>
       </c>
       <c r="P46" s="20">
-        <v>193.18434876178901</v>
+        <v>187.168533106864</v>
       </c>
       <c r="Q46" s="20">
         <v>308.14782480788102</v>
@@ -6378,10 +6378,10 @@
         <v>7.3377661046107989E-2</v>
       </c>
       <c r="O47" s="20">
-        <v>295.08688307838702</v>
+        <v>296.12691187565798</v>
       </c>
       <c r="P47" s="20">
-        <v>180.85050359720199</v>
+        <v>186.27353149578801</v>
       </c>
       <c r="Q47" s="20">
         <v>278.570412621711</v>
@@ -6445,10 +6445,10 @@
         <v>7.9228865817297933E-2</v>
       </c>
       <c r="O48" s="20">
-        <v>301.22949031644703</v>
+        <v>300.95510185771798</v>
       </c>
       <c r="P48" s="20">
-        <v>184.332957404008</v>
+        <v>183.264275486526</v>
       </c>
       <c r="Q48" s="20">
         <v>291.61177588352501</v>
@@ -6512,10 +6512,10 @@
         <v>7.1346331949414976E-2</v>
       </c>
       <c r="O49" s="20">
-        <v>304.11057825585601</v>
+        <v>306.27558209614898</v>
       </c>
       <c r="P49" s="20">
-        <v>190.63463765779301</v>
+        <v>191.75075979155099</v>
       </c>
       <c r="Q49" s="20">
         <v>234.04054135673101</v>
@@ -6579,10 +6579,10 @@
         <v>7.3538118434501976E-2</v>
       </c>
       <c r="O50" s="20">
-        <v>331.38828516283399</v>
+        <v>333.45173177853002</v>
       </c>
       <c r="P50" s="20">
-        <v>212.70331798585201</v>
+        <v>213.71409031483799</v>
       </c>
       <c r="Q50" s="20">
         <v>289.46733947584698</v>
@@ -6646,10 +6646,10 @@
         <v>6.8000795419940085E-2</v>
       </c>
       <c r="O51" s="20">
-        <v>310.43320412276</v>
+        <v>304.416012579187</v>
       </c>
       <c r="P51" s="20">
-        <v>193.51541653580901</v>
+        <v>194.625870192696</v>
       </c>
       <c r="Q51" s="20">
         <v>262.42944086789402</v>
@@ -6713,10 +6713,10 @@
         <v>6.664180062017E-2</v>
       </c>
       <c r="O52" s="20">
-        <v>311.95307817815899</v>
+        <v>309.28452119160397</v>
       </c>
       <c r="P52" s="20">
-        <v>195.05876673181501</v>
+        <v>199.802524127737</v>
       </c>
       <c r="Q52" s="20">
         <v>226.91014854348799</v>
@@ -6780,10 +6780,10 @@
         <v>7.7010971835215103E-2</v>
       </c>
       <c r="O53" s="20">
-        <v>333.91373415036998</v>
+        <v>332.49169192137998</v>
       </c>
       <c r="P53" s="20">
-        <v>219.39827560087099</v>
+        <v>218.35788905044501</v>
       </c>
       <c r="Q53" s="20">
         <v>329.71536944375799</v>
@@ -6847,10 +6847,10 @@
         <v>7.052372416546604E-2</v>
       </c>
       <c r="O54" s="20">
-        <v>362.62758902538002</v>
+        <v>359.87637493102</v>
       </c>
       <c r="P54" s="20">
-        <v>243.53839515152501</v>
+        <v>242.387563502977</v>
       </c>
       <c r="Q54" s="20">
         <v>263.48024953387898</v>
@@ -6914,10 +6914,10 @@
         <v>7.1537775912013934E-2</v>
       </c>
       <c r="O55" s="20">
-        <v>341.02796704484501</v>
+        <v>338.71538918904702</v>
       </c>
       <c r="P55" s="20">
-        <v>225.07585619999</v>
+        <v>226.97022435612701</v>
       </c>
       <c r="Q55" s="20">
         <v>299.61708145275401</v>
@@ -6981,10 +6981,10 @@
         <v>8.0758809404192888E-2</v>
       </c>
       <c r="O56" s="20">
-        <v>268.21497521382202</v>
+        <v>262.63890665392</v>
       </c>
       <c r="P56" s="20">
-        <v>158.19083259496901</v>
+        <v>157.048237202123</v>
       </c>
       <c r="Q56" s="20">
         <v>270.427190850486</v>
@@ -7048,10 +7048,10 @@
         <v>7.8285924278923003E-2</v>
       </c>
       <c r="O57" s="20">
-        <v>284.68718645471603</v>
+        <v>282.35058769012602</v>
       </c>
       <c r="P57" s="20">
-        <v>174.77829662387501</v>
+        <v>175.46105405070199</v>
       </c>
       <c r="Q57" s="20">
         <v>270.27000846420998</v>
@@ -7115,10 +7115,10 @@
         <v>8.2120473987596032E-2</v>
       </c>
       <c r="O58" s="20">
-        <v>335.49205197421298</v>
+        <v>330.42120852423199</v>
       </c>
       <c r="P58" s="20">
-        <v>218.24805131132001</v>
+        <v>215.709649020494</v>
       </c>
       <c r="Q58" s="20">
         <v>241.885857568414</v>
@@ -7182,10 +7182,10 @@
         <v>9.0879511569911031E-2</v>
       </c>
       <c r="O59" s="20">
-        <v>333.043261557628</v>
+        <v>331.86269099926199</v>
       </c>
       <c r="P59" s="20">
-        <v>215.36241354572601</v>
+        <v>210.20260150172399</v>
       </c>
       <c r="Q59" s="20">
         <v>298.69813236105199</v>
@@ -7249,10 +7249,10 @@
         <v>9.1082029055707059E-2</v>
       </c>
       <c r="O60" s="20">
-        <v>299.74064489662601</v>
+        <v>296.31545255588202</v>
       </c>
       <c r="P60" s="20">
-        <v>184.809808445611</v>
+        <v>183.874054844303</v>
       </c>
       <c r="Q60" s="20">
         <v>291.55342949592699</v>
@@ -7316,10 +7316,10 @@
         <v>8.7863612522901979E-2</v>
       </c>
       <c r="O61" s="20">
-        <v>299.48291452050597</v>
+        <v>299.68192030569901</v>
       </c>
       <c r="P61" s="20">
-        <v>188.76118162370801</v>
+        <v>186.99591749637199</v>
       </c>
       <c r="Q61" s="20">
         <v>322.83417412062801</v>
@@ -7383,10 +7383,10 @@
         <v>7.8538517589631041E-2</v>
       </c>
       <c r="O62" s="20">
-        <v>333.254735102057</v>
+        <v>330.422040429584</v>
       </c>
       <c r="P62" s="20">
-        <v>218.19665115968601</v>
+        <v>214.82355073194699</v>
       </c>
       <c r="Q62" s="20">
         <v>313.04241651371302</v>
@@ -7450,10 +7450,10 @@
         <v>7.7373441536981002E-2</v>
       </c>
       <c r="O63" s="20">
-        <v>330.01322667897102</v>
+        <v>330.398841904964</v>
       </c>
       <c r="P63" s="20">
-        <v>215.934008096946</v>
+        <v>210.64870856802901</v>
       </c>
       <c r="Q63" s="20">
         <v>320.83307675805099</v>
@@ -7517,10 +7517,10 @@
         <v>7.1245843589723079E-2</v>
       </c>
       <c r="O64" s="20">
-        <v>327.80374715432299</v>
+        <v>325.90217378016399</v>
       </c>
       <c r="P64" s="20">
-        <v>205.86043101555501</v>
+        <v>209.57718425395501</v>
       </c>
       <c r="Q64" s="20">
         <v>255.308256976031</v>
@@ -7584,10 +7584,10 @@
         <v>7.5642992235238071E-2</v>
       </c>
       <c r="O65" s="20">
-        <v>363.64355494951599</v>
+        <v>359.45177444455601</v>
       </c>
       <c r="P65" s="20">
-        <v>244.00743010267999</v>
+        <v>244.90205406191501</v>
       </c>
       <c r="Q65" s="20">
         <v>338.06961645411099</v>
@@ -7651,10 +7651,10 @@
         <v>8.1754931865991032E-2</v>
       </c>
       <c r="O66" s="20">
-        <v>327.64787017138201</v>
+        <v>327.56955941678001</v>
       </c>
       <c r="P66" s="20">
-        <v>211.17627406146499</v>
+        <v>211.19978502770499</v>
       </c>
       <c r="Q66" s="20">
         <v>316.43494152369402</v>
@@ -7718,10 +7718,10 @@
         <v>8.1421022819714084E-2</v>
       </c>
       <c r="O67" s="20">
-        <v>330.21863933105197</v>
+        <v>331.21792502729301</v>
       </c>
       <c r="P67" s="20">
-        <v>215.24540908291399</v>
+        <v>214.75829977227099</v>
       </c>
       <c r="Q67" s="20">
         <v>341.93787305811401</v>
@@ -7785,10 +7785,10 @@
         <v>7.6922726685330067E-2</v>
       </c>
       <c r="O68" s="20">
-        <v>335.51166615669399</v>
+        <v>335.81040111117699</v>
       </c>
       <c r="P68" s="20">
-        <v>216.68265776049799</v>
+        <v>215.730893511327</v>
       </c>
       <c r="Q68" s="20">
         <v>296.91039781800902</v>
@@ -7852,10 +7852,10 @@
         <v>8.4082690102728952E-2</v>
       </c>
       <c r="O69" s="20">
-        <v>329.14269290843998</v>
+        <v>333.71742555690298</v>
       </c>
       <c r="P69" s="20">
-        <v>209.59511183684799</v>
+        <v>211.859827986048</v>
       </c>
       <c r="Q69" s="20">
         <v>334.11714743789599</v>
@@ -7919,10 +7919,10 @@
         <v>8.9923806581170052E-2</v>
       </c>
       <c r="O70" s="20">
-        <v>338.32413673187102</v>
+        <v>337.592376592731</v>
       </c>
       <c r="P70" s="20">
-        <v>224.72229340759401</v>
+        <v>222.245087584982</v>
       </c>
       <c r="Q70" s="20">
         <v>407.26177743657303</v>
@@ -7986,10 +7986,10 @@
         <v>9.3302347319379919E-2</v>
       </c>
       <c r="O71" s="20">
-        <v>324.58070352782198</v>
+        <v>327.72041393364299</v>
       </c>
       <c r="P71" s="20">
-        <v>206.65698068394099</v>
+        <v>209.15437663579399</v>
       </c>
       <c r="Q71" s="20">
         <v>405.24208056261</v>
@@ -8053,10 +8053,10 @@
         <v>8.5204731056319982E-2</v>
       </c>
       <c r="O72" s="20">
-        <v>343.64138318883198</v>
+        <v>346.541360242081</v>
       </c>
       <c r="P72" s="20">
-        <v>229.11312282921901</v>
+        <v>224.552679516929</v>
       </c>
       <c r="Q72" s="20">
         <v>380.343097896156</v>
@@ -8120,10 +8120,10 @@
         <v>9.3846989242611034E-2</v>
       </c>
       <c r="O73" s="20">
-        <v>318.759468050007</v>
+        <v>320.45779969911098</v>
       </c>
       <c r="P73" s="20">
-        <v>203.156651261261</v>
+        <v>202.46763575111399</v>
       </c>
       <c r="Q73" s="20">
         <v>338.14930671382001</v>
@@ -8187,10 +8187,10 @@
         <v>7.6912516792689956E-2</v>
       </c>
       <c r="O74" s="20">
-        <v>294.93915852174598</v>
+        <v>296.455263632271</v>
       </c>
       <c r="P74" s="20">
-        <v>181.82008461592901</v>
+        <v>181.23156627420801</v>
       </c>
       <c r="Q74" s="20">
         <v>282.42049043828598</v>
@@ -8254,10 +8254,10 @@
         <v>7.9014892798533021E-2</v>
       </c>
       <c r="O75" s="20">
-        <v>303.49936407279699</v>
+        <v>300.52724807437698</v>
       </c>
       <c r="P75" s="20">
-        <v>187.28270315242401</v>
+        <v>187.48204306283401</v>
       </c>
       <c r="Q75" s="20">
         <v>212.61599061826601</v>
@@ -8321,10 +8321,10 @@
         <v>8.1385050777985968E-2</v>
       </c>
       <c r="O76" s="20">
-        <v>311.46888740947401</v>
+        <v>316.42084151243199</v>
       </c>
       <c r="P76" s="20">
-        <v>199.283476193089</v>
+        <v>194.86386050336299</v>
       </c>
       <c r="Q76" s="20">
         <v>258.28028973982703</v>
@@ -8388,10 +8388,10 @@
         <v>9.0607862822576046E-2</v>
       </c>
       <c r="O77" s="20">
-        <v>325.92641558865301</v>
+        <v>319.59648453277902</v>
       </c>
       <c r="P77" s="20">
-        <v>209.28477991704801</v>
+        <v>206.793806141999</v>
       </c>
       <c r="Q77" s="20">
         <v>300.208260424625</v>
@@ -8455,10 +8455,10 @@
         <v>6.0592632377024003E-2</v>
       </c>
       <c r="O78" s="20">
-        <v>392.21582402850902</v>
+        <v>392.60126631356798</v>
       </c>
       <c r="P78" s="20">
-        <v>268.74617249163401</v>
+        <v>271.30687148171501</v>
       </c>
       <c r="Q78" s="20">
         <v>139.803061406296</v>
@@ -8522,10 +8522,10 @@
         <v>9.5242315048938986E-2</v>
       </c>
       <c r="O79" s="20">
-        <v>324.78542797232598</v>
+        <v>321.42763712481701</v>
       </c>
       <c r="P79" s="20">
-        <v>205.13036172306099</v>
+        <v>205.01500368398001</v>
       </c>
       <c r="Q79" s="20">
         <v>220.91147049321199</v>
@@ -8589,10 +8589,10 @@
         <v>8.6394550656399949E-2</v>
       </c>
       <c r="O80" s="20">
-        <v>341.59231997339498</v>
+        <v>335.44386278192701</v>
       </c>
       <c r="P80" s="20">
-        <v>219.846908626539</v>
+        <v>221.78200313890801</v>
       </c>
       <c r="Q80" s="20">
         <v>196.27695717063901</v>
@@ -8656,10 +8656,10 @@
         <v>8.0388982042705004E-2</v>
       </c>
       <c r="O81" s="20">
-        <v>364.98316088666098</v>
+        <v>366.67562342650803</v>
       </c>
       <c r="P81" s="20">
-        <v>246.60568560322</v>
+        <v>248.74785393781499</v>
       </c>
       <c r="Q81" s="20">
         <v>202.02297924212701</v>
@@ -8723,10 +8723,10 @@
         <v>7.5292878666116003E-2</v>
       </c>
       <c r="O82" s="20">
-        <v>503.82228481044802</v>
+        <v>502.122038282684</v>
       </c>
       <c r="P82" s="20">
-        <v>385.03982691209399</v>
+        <v>387.85153119244899</v>
       </c>
       <c r="Q82" s="20">
         <v>217.07162576877101</v>
@@ -8790,10 +8790,10 @@
         <v>6.8670034610208985E-2</v>
       </c>
       <c r="O83" s="20">
-        <v>432.69359432259398</v>
+        <v>428.83056472571798</v>
       </c>
       <c r="P83" s="20">
-        <v>300.11618191407501</v>
+        <v>298.08106131103898</v>
       </c>
       <c r="Q83" s="20">
         <v>210.927141255039</v>
@@ -8857,10 +8857,10 @@
         <v>6.6215999705074025E-2</v>
       </c>
       <c r="O84" s="20">
-        <v>351.44344910011802</v>
+        <v>357.32990906991802</v>
       </c>
       <c r="P84" s="20">
-        <v>229.22694809683099</v>
+        <v>232.67963319167501</v>
       </c>
       <c r="Q84" s="20">
         <v>161.43475014945801</v>
@@ -8924,10 +8924,10 @@
         <v>7.134131625117901E-2</v>
       </c>
       <c r="O85" s="20">
-        <v>301.43135408504401</v>
+        <v>301.96516312174498</v>
       </c>
       <c r="P85" s="20">
-        <v>194.45821498037401</v>
+        <v>188.88732623105099</v>
       </c>
       <c r="Q85" s="20">
         <v>179.24957730175799</v>
@@ -8991,10 +8991,10 @@
         <v>7.7079818497045038E-2</v>
       </c>
       <c r="O86" s="20">
-        <v>346.98869302837898</v>
+        <v>346.78133058276802</v>
       </c>
       <c r="P86" s="20">
-        <v>227.559940547845</v>
+        <v>225.18799345564199</v>
       </c>
       <c r="Q86" s="20">
         <v>226.757094670367</v>
@@ -9058,10 +9058,10 @@
         <v>6.838793777671498E-2</v>
       </c>
       <c r="O87" s="20">
-        <v>361.74167894332999</v>
+        <v>361.64212548588102</v>
       </c>
       <c r="P87" s="20">
-        <v>244.98669965279899</v>
+        <v>240.201375551437</v>
       </c>
       <c r="Q87" s="20">
         <v>200.07181859034301</v>
@@ -9125,10 +9125,10 @@
         <v>6.383979596454098E-2</v>
       </c>
       <c r="O88" s="20">
-        <v>408.182099157793</v>
+        <v>409.27016593354699</v>
       </c>
       <c r="P88" s="20">
-        <v>284.37885374949298</v>
+        <v>288.00046908184601</v>
       </c>
       <c r="Q88" s="20">
         <v>176.462279139527</v>
@@ -9192,10 +9192,10 @@
         <v>6.1848278493864983E-2</v>
       </c>
       <c r="O89" s="20">
-        <v>507.28734030317003</v>
+        <v>501.36478054983201</v>
       </c>
       <c r="P89" s="20">
-        <v>377.78907876024999</v>
+        <v>382.69328550326497</v>
       </c>
       <c r="Q89" s="20">
         <v>222.879033981432</v>
@@ -9259,10 +9259,10 @@
         <v>8.0649306840874013E-2</v>
       </c>
       <c r="O90" s="20">
-        <v>379.91112348980801</v>
+        <v>383.31534161451299</v>
       </c>
       <c r="P90" s="20">
-        <v>258.35195322883499</v>
+        <v>260.29421138067403</v>
       </c>
       <c r="Q90" s="20">
         <v>189.23349551051999</v>
@@ -9326,10 +9326,10 @@
         <v>7.8088475407524949E-2</v>
       </c>
       <c r="O91" s="20">
-        <v>354.42736404199201</v>
+        <v>361.29136698987099</v>
       </c>
       <c r="P91" s="20">
-        <v>240.45651192800801</v>
+        <v>239.92943290522101</v>
       </c>
       <c r="Q91" s="20">
         <v>191.45132804269201</v>
@@ -9393,10 +9393,10 @@
         <v>6.8879796660878956E-2</v>
       </c>
       <c r="O92" s="20">
-        <v>381.51493702989802</v>
+        <v>377.45162287386898</v>
       </c>
       <c r="P92" s="20">
-        <v>261.76993921503799</v>
+        <v>258.89585038995102</v>
       </c>
       <c r="Q92" s="20">
         <v>190.87777177846701</v>
@@ -9460,10 +9460,10 @@
         <v>6.3234936243403039E-2</v>
       </c>
       <c r="O93" s="20">
-        <v>363.995055691397</v>
+        <v>359.16276144944601</v>
       </c>
       <c r="P93" s="20">
-        <v>244.17569439424901</v>
+        <v>247.36189864117</v>
       </c>
       <c r="Q93" s="20">
         <v>147.69771691236701</v>
@@ -9527,10 +9527,10 @@
         <v>6.5799125469704012E-2</v>
       </c>
       <c r="O94" s="20">
-        <v>311.71856113300203</v>
+        <v>311.99241593924501</v>
       </c>
       <c r="P94" s="20">
-        <v>198.36752771026801</v>
+        <v>196.72967150161699</v>
       </c>
       <c r="Q94" s="20">
         <v>177.85120011768899</v>
@@ -9594,10 +9594,10 @@
         <v>6.8115063385765007E-2</v>
       </c>
       <c r="O95" s="20">
-        <v>336.190055588581</v>
+        <v>330.85339684648397</v>
       </c>
       <c r="P95" s="20">
-        <v>217.12522876542999</v>
+        <v>214.70646680761399</v>
       </c>
       <c r="Q95" s="20">
         <v>154.86548474292201</v>
@@ -9661,10 +9661,10 @@
         <v>0.10998797455572495</v>
       </c>
       <c r="O96" s="20">
-        <v>323.10276466264901</v>
+        <v>324.219356817164</v>
       </c>
       <c r="P96" s="20">
-        <v>210.381139565121</v>
+        <v>210.89567889065299</v>
       </c>
       <c r="Q96" s="20">
         <v>254.36241017216901</v>
@@ -9728,10 +9728,10 @@
         <v>0.10259454704138005</v>
       </c>
       <c r="O97" s="20">
-        <v>322.06109356596102</v>
+        <v>324.20355910024398</v>
       </c>
       <c r="P97" s="20">
-        <v>206.28290160304499</v>
+        <v>205.97528854470201</v>
       </c>
       <c r="Q97" s="20">
         <v>256.826241277534</v>
@@ -9795,10 +9795,10 @@
         <v>6.6366232051452978E-2</v>
       </c>
       <c r="O98" s="20">
-        <v>362.51774988255102</v>
+        <v>360.53744952678102</v>
       </c>
       <c r="P98" s="20">
-        <v>240.86872930451199</v>
+        <v>241.410659876214</v>
       </c>
       <c r="Q98" s="20">
         <v>176.366966707084</v>
@@ -9862,10 +9862,10 @@
         <v>7.0486902789034078E-2</v>
       </c>
       <c r="O99" s="20">
-        <v>358.87975137223901</v>
+        <v>361.17078646405201</v>
       </c>
       <c r="P99" s="20">
-        <v>237.07572806062001</v>
+        <v>235.213177046006</v>
       </c>
       <c r="Q99" s="20">
         <v>197.33258560190001</v>
@@ -9929,10 +9929,10 @@
         <v>7.6541794033265997E-2</v>
       </c>
       <c r="O100" s="20">
-        <v>282.801526487839</v>
+        <v>285.24339402855401</v>
       </c>
       <c r="P100" s="20">
-        <v>172.12670087527101</v>
+        <v>176.223538787482</v>
       </c>
       <c r="Q100" s="20">
         <v>207.076153845916</v>
@@ -9996,10 +9996,10 @@
         <v>6.1898149802629088E-2</v>
       </c>
       <c r="O101" s="20">
-        <v>405.83413520590602</v>
+        <v>403.79387468342497</v>
       </c>
       <c r="P101" s="20">
-        <v>280.20548300627098</v>
+        <v>278.648048511387</v>
       </c>
       <c r="Q101" s="20">
         <v>242.76415209097999</v>
@@ -10063,10 +10063,10 @@
         <v>6.4862008491037015E-2</v>
       </c>
       <c r="O102" s="20">
-        <v>389.56954283728902</v>
+        <v>386.76580300749998</v>
       </c>
       <c r="P102" s="20">
-        <v>268.48285648526502</v>
+        <v>268.02409546039001</v>
       </c>
       <c r="Q102" s="20">
         <v>167.46710890599201</v>
@@ -10130,10 +10130,10 @@
         <v>7.1923197595546995E-2</v>
       </c>
       <c r="O103" s="20">
-        <v>362.96121909720199</v>
+        <v>357.21581090913901</v>
       </c>
       <c r="P103" s="20">
-        <v>235.05592958682001</v>
+        <v>238.32037751289499</v>
       </c>
       <c r="Q103" s="20">
         <v>234.909434966124</v>
@@ -10197,10 +10197,10 @@
         <v>7.5498747196985017E-2</v>
       </c>
       <c r="O104" s="20">
-        <v>323.47840949865798</v>
+        <v>326.54266132225598</v>
       </c>
       <c r="P104" s="20">
-        <v>207.08063282117999</v>
+        <v>205.113500312231</v>
       </c>
       <c r="Q104" s="20">
         <v>209.15153906871501</v>
@@ -10264,10 +10264,10 @@
         <v>6.6080019748803009E-2</v>
       </c>
       <c r="O105" s="20">
-        <v>422.88712215871698</v>
+        <v>426.15348127255402</v>
       </c>
       <c r="P105" s="20">
-        <v>303.08505687060199</v>
+        <v>301.493038254591</v>
       </c>
       <c r="Q105" s="20">
         <v>235.14208562472001</v>
@@ -10331,10 +10331,10 @@
         <v>6.7666287637870082E-2</v>
       </c>
       <c r="O106" s="20">
-        <v>383.84489059180902</v>
+        <v>383.83566895147101</v>
       </c>
       <c r="P106" s="20">
-        <v>262.49686960658499</v>
+        <v>263.48858965212202</v>
       </c>
       <c r="Q106" s="20">
         <v>227.70616625545699</v>
@@ -10398,10 +10398,10 @@
         <v>6.921505700901498E-2</v>
       </c>
       <c r="O107" s="20">
-        <v>353.83417444769299</v>
+        <v>357.09651534854203</v>
       </c>
       <c r="P107" s="20">
-        <v>238.08408871316701</v>
+        <v>239.382905957627</v>
       </c>
       <c r="Q107" s="20">
         <v>203.605788789212</v>
@@ -10465,10 +10465,10 @@
         <v>7.1618143766958964E-2</v>
       </c>
       <c r="O108" s="20">
-        <v>393.1077213625</v>
+        <v>388.34563608569903</v>
       </c>
       <c r="P108" s="20">
-        <v>270.58287978586901</v>
+        <v>276.17787763839499</v>
       </c>
       <c r="Q108" s="20">
         <v>237.54599099214201</v>
@@ -10532,10 +10532,10 @@
         <v>7.4421488641383982E-2</v>
       </c>
       <c r="O109" s="20">
-        <v>341.56370891699902</v>
+        <v>339.15825202157799</v>
       </c>
       <c r="P109" s="20">
-        <v>218.58223483050901</v>
+        <v>225.375715447998</v>
       </c>
       <c r="Q109" s="20">
         <v>218.64850007768399</v>
@@ -10599,10 +10599,10 @@
         <v>7.1999699496857028E-2</v>
       </c>
       <c r="O110" s="20">
-        <v>317.224778306205</v>
+        <v>316.12844862941699</v>
       </c>
       <c r="P110" s="20">
-        <v>200.16587371131101</v>
+        <v>199.93574561945101</v>
       </c>
       <c r="Q110" s="20">
         <v>215.46714905689299</v>
@@ -10666,10 +10666,10 @@
         <v>9.1818943703867006E-2</v>
       </c>
       <c r="O111" s="20">
-        <v>354.12452807037801</v>
+        <v>348.18561471987402</v>
       </c>
       <c r="P111" s="20">
-        <v>231.382767932158</v>
+        <v>236.104770821567</v>
       </c>
       <c r="Q111" s="20">
         <v>241.319950846952</v>
@@ -10733,10 +10733,10 @@
         <v>8.9503560141881988E-2</v>
       </c>
       <c r="O112" s="20">
-        <v>317.22643113453199</v>
+        <v>316.72400562604201</v>
       </c>
       <c r="P112" s="20">
-        <v>204.11400172477599</v>
+        <v>200.68382408102801</v>
       </c>
       <c r="Q112" s="20">
         <v>276.209143671611</v>
@@ -10800,10 +10800,10 @@
         <v>7.6501282086354983E-2</v>
       </c>
       <c r="O113" s="20">
-        <v>341.76635791548199</v>
+        <v>346.383681580158</v>
       </c>
       <c r="P113" s="20">
-        <v>229.67658765005001</v>
+        <v>226.200020957546</v>
       </c>
       <c r="Q113" s="20">
         <v>213.34534984011</v>
@@ -10867,10 +10867,10 @@
         <v>6.8836326873821019E-2</v>
       </c>
       <c r="O114" s="20">
-        <v>403.530090801254</v>
+        <v>405.63648770136803</v>
       </c>
       <c r="P114" s="20">
-        <v>276.37644363647701</v>
+        <v>281.202276761966</v>
       </c>
       <c r="Q114" s="20">
         <v>259.82092945658798</v>
@@ -10934,10 +10934,10 @@
         <v>7.6002567674056998E-2</v>
       </c>
       <c r="O115" s="20">
-        <v>344.48085304562699</v>
+        <v>343.066826469153</v>
       </c>
       <c r="P115" s="20">
-        <v>224.030073652076</v>
+        <v>225.47647528232699</v>
       </c>
       <c r="Q115" s="20">
         <v>241.58208909061901</v>
@@ -11001,10 +11001,10 @@
         <v>7.4910041444648967E-2</v>
       </c>
       <c r="O116" s="20">
-        <v>347.644483667945</v>
+        <v>344.40015983677102</v>
       </c>
       <c r="P116" s="20">
-        <v>230.92631229958801</v>
+        <v>234.89567387485499</v>
       </c>
       <c r="Q116" s="20">
         <v>214.616179026179</v>
@@ -11068,10 +11068,10 @@
         <v>6.207405961357898E-2</v>
       </c>
       <c r="O117" s="20">
-        <v>426.93627970082298</v>
+        <v>432.23467836114901</v>
       </c>
       <c r="P117" s="20">
-        <v>303.90436878257401</v>
+        <v>300.731947807886</v>
       </c>
       <c r="Q117" s="20">
         <v>229.48912834067301</v>
@@ -11135,10 +11135,10 @@
         <v>6.6495210156468976E-2</v>
       </c>
       <c r="O118" s="20">
-        <v>366.926595125711</v>
+        <v>371.99895669187299</v>
       </c>
       <c r="P118" s="20">
-        <v>243.21333485533901</v>
+        <v>251.69597102424299</v>
       </c>
       <c r="Q118" s="20">
         <v>204.79562217798801</v>
@@ -11202,10 +11202,10 @@
         <v>7.0883400179238998E-2</v>
       </c>
       <c r="O119" s="20">
-        <v>356.76223884360599</v>
+        <v>362.76311574852599</v>
       </c>
       <c r="P119" s="20">
-        <v>236.51961328742701</v>
+        <v>233.75902942803299</v>
       </c>
       <c r="Q119" s="20">
         <v>213.04464747397</v>
@@ -11269,10 +11269,10 @@
         <v>7.0310658619782918E-2</v>
       </c>
       <c r="O120" s="20">
-        <v>343.53286308433098</v>
+        <v>342.85203574519602</v>
       </c>
       <c r="P120" s="20">
-        <v>223.55043942503099</v>
+        <v>219.92967170344701</v>
       </c>
       <c r="Q120" s="20">
         <v>235.654654908282</v>
@@ -11336,10 +11336,10 @@
         <v>8.2261990793522033E-2</v>
       </c>
       <c r="O121" s="20">
-        <v>306.93486883064497</v>
+        <v>304.64233408801101</v>
       </c>
       <c r="P121" s="20">
-        <v>191.829431593827</v>
+        <v>191.46630059265999</v>
       </c>
       <c r="Q121" s="20">
         <v>227.39899140982601</v>
@@ -11403,10 +11403,10 @@
         <v>7.5823235631216956E-2</v>
       </c>
       <c r="O122" s="20">
-        <v>345.04601300896502</v>
+        <v>342.34650442338199</v>
       </c>
       <c r="P122" s="20">
-        <v>227.730174568363</v>
+        <v>223.766043197887</v>
       </c>
       <c r="Q122" s="20">
         <v>258.28368495362599</v>
@@ -11470,10 +11470,10 @@
         <v>8.4296101049905037E-2</v>
       </c>
       <c r="O123" s="20">
-        <v>352.81121523424298</v>
+        <v>362.05104097237302</v>
       </c>
       <c r="P123" s="20">
-        <v>229.878286702157</v>
+        <v>236.56882347406199</v>
       </c>
       <c r="Q123" s="20">
         <v>283.18054731770798</v>
@@ -11537,10 +11537,10 @@
         <v>7.4730726478686949E-2</v>
       </c>
       <c r="O124" s="20">
-        <v>320.313990459031</v>
+        <v>320.862171065631</v>
       </c>
       <c r="P124" s="20">
-        <v>205.891958650959</v>
+        <v>205.04540804555501</v>
       </c>
       <c r="Q124" s="20">
         <v>177.227077130563</v>
@@ -11604,10 +11604,10 @@
         <v>7.2928282084535001E-2</v>
       </c>
       <c r="O125" s="20">
-        <v>338.62922501016101</v>
+        <v>339.798253975629</v>
       </c>
       <c r="P125" s="20">
-        <v>218.845847150336</v>
+        <v>224.59233370657901</v>
       </c>
       <c r="Q125" s="20">
         <v>182.96470675222801</v>
@@ -11671,10 +11671,10 @@
         <v>5.7340986581808029E-2</v>
       </c>
       <c r="O126" s="20">
-        <v>377.336077715469</v>
+        <v>374.94965576079602</v>
       </c>
       <c r="P126" s="20">
-        <v>255.57063738709601</v>
+        <v>255.758644012736</v>
       </c>
       <c r="Q126" s="20">
         <v>184.74293929316201</v>
@@ -11738,10 +11738,10 @@
         <v>7.1976750514567978E-2</v>
       </c>
       <c r="O127" s="20">
-        <v>348.85277758039501</v>
+        <v>350.19782698393101</v>
       </c>
       <c r="P127" s="20">
-        <v>228.04314582240801</v>
+        <v>232.04497715270901</v>
       </c>
       <c r="Q127" s="20">
         <v>223.45675842361101</v>
@@ -11805,10 +11805,10 @@
         <v>6.4840353290535058E-2</v>
       </c>
       <c r="O128" s="20">
-        <v>331.80975049909802</v>
+        <v>331.40705743128399</v>
       </c>
       <c r="P128" s="20">
-        <v>217.854309042967</v>
+        <v>220.49280407392899</v>
       </c>
       <c r="Q128" s="20">
         <v>189.34532409826599</v>
@@ -11872,10 +11872,10 @@
         <v>6.6519038205504089E-2</v>
       </c>
       <c r="O129" s="20">
-        <v>389.028345282651</v>
+        <v>392.75339396762001</v>
       </c>
       <c r="P129" s="20">
-        <v>270.33440344235697</v>
+        <v>266.74295381368802</v>
       </c>
       <c r="Q129" s="20">
         <v>250.50254164172901</v>
@@ -11939,10 +11939,10 @@
         <v>8.8194591726218019E-2</v>
       </c>
       <c r="O130" s="20">
-        <v>309.58472583754002</v>
+        <v>303.78033353550597</v>
       </c>
       <c r="P130" s="20">
-        <v>192.90524742337399</v>
+        <v>191.452749980855</v>
       </c>
       <c r="Q130" s="20">
         <v>307.04327749924101</v>
@@ -12006,10 +12006,10 @@
         <v>8.2900221654080064E-2</v>
       </c>
       <c r="O131" s="20">
-        <v>301.38039579195998</v>
+        <v>298.40913228105501</v>
       </c>
       <c r="P131" s="20">
-        <v>184.70895743238199</v>
+        <v>183.57695297580199</v>
       </c>
       <c r="Q131" s="20">
         <v>255.17505369783601</v>
@@ -12073,10 +12073,10 @@
         <v>6.9523188877936959E-2</v>
       </c>
       <c r="O132" s="20">
-        <v>355.93940335159698</v>
+        <v>349.72791340720602</v>
       </c>
       <c r="P132" s="20">
-        <v>238.205561808162</v>
+        <v>237.23263370995301</v>
       </c>
       <c r="Q132" s="20">
         <v>246.38916519918101</v>
@@ -12140,10 +12140,10 @@
         <v>8.2210411538369943E-2</v>
       </c>
       <c r="O133" s="20">
-        <v>293.51022399700099</v>
+        <v>293.548530279754</v>
       </c>
       <c r="P133" s="20">
-        <v>178.36449554923999</v>
+        <v>183.064018725664</v>
       </c>
       <c r="Q133" s="20">
         <v>226.196024867055</v>
@@ -12207,10 +12207,10 @@
         <v>8.0804441057626963E-2</v>
       </c>
       <c r="O134" s="20">
-        <v>349.31464906542902</v>
+        <v>342.94958094547798</v>
       </c>
       <c r="P134" s="20">
-        <v>235.368048732745</v>
+        <v>225.53485511701999</v>
       </c>
       <c r="Q134" s="20">
         <v>263.32441187036102</v>
@@ -12274,10 +12274,10 @@
         <v>8.0154191112080109E-2</v>
       </c>
       <c r="O135" s="20">
-        <v>282.473940300663</v>
+        <v>282.48908427619199</v>
       </c>
       <c r="P135" s="20">
-        <v>170.90031249876699</v>
+        <v>173.55582204195699</v>
       </c>
       <c r="Q135" s="20">
         <v>232.660430580222</v>
@@ -12341,10 +12341,10 @@
         <v>8.193312105707895E-2</v>
       </c>
       <c r="O136" s="20">
-        <v>337.66453214445602</v>
+        <v>331.66941529649699</v>
       </c>
       <c r="P136" s="20">
-        <v>218.04670017770701</v>
+        <v>219.68866390431799</v>
       </c>
       <c r="Q136" s="20">
         <v>317.443831574721</v>
@@ -12408,10 +12408,10 @@
         <v>7.3432914924053017E-2</v>
       </c>
       <c r="O137" s="20">
-        <v>348.85720368481799</v>
+        <v>345.39314578305999</v>
       </c>
       <c r="P137" s="20">
-        <v>226.02153335333401</v>
+        <v>223.86459156111599</v>
       </c>
       <c r="Q137" s="20">
         <v>248.912186569244</v>
@@ -12475,10 +12475,10 @@
         <v>6.8326663311566005E-2</v>
       </c>
       <c r="O138" s="20">
-        <v>397.40914874455802</v>
+        <v>398.85373011837299</v>
       </c>
       <c r="P138" s="20">
-        <v>273.84055652487098</v>
+        <v>276.05094385704302</v>
       </c>
       <c r="Q138" s="20">
         <v>231.16784807084699</v>
@@ -12542,10 +12542,10 @@
         <v>0.10251090173706401</v>
       </c>
       <c r="O139" s="20">
-        <v>329.80436974692901</v>
+        <v>327.60375656216598</v>
       </c>
       <c r="P139" s="20">
-        <v>215.769095339427</v>
+        <v>210.60042881150201</v>
       </c>
       <c r="Q139" s="20">
         <v>340.445448543792</v>
@@ -12609,10 +12609,10 @@
         <v>9.1666520743985069E-2</v>
       </c>
       <c r="O140" s="20">
-        <v>333.131774101117</v>
+        <v>332.73763999163998</v>
       </c>
       <c r="P140" s="20">
-        <v>214.00054074179599</v>
+        <v>214.251679224062</v>
       </c>
       <c r="Q140" s="20">
         <v>260.650686583327</v>
@@ -12676,10 +12676,10 @@
         <v>7.1180829122023059E-2</v>
       </c>
       <c r="O141" s="20">
-        <v>408.20693158814601</v>
+        <v>416.30870532884501</v>
       </c>
       <c r="P141" s="20">
-        <v>289.44467169021698</v>
+        <v>288.23527436749998</v>
       </c>
       <c r="Q141" s="20">
         <v>299.88384552799403</v>
@@ -12743,10 +12743,10 @@
         <v>7.4013504216770998E-2</v>
       </c>
       <c r="O142" s="20">
-        <v>340.96979590729501</v>
+        <v>339.45592154412799</v>
       </c>
       <c r="P142" s="20">
-        <v>222.42699727096701</v>
+        <v>220.27709329858499</v>
       </c>
       <c r="Q142" s="20">
         <v>269.45565822468598</v>
